--- a/data/balance_sheet/3digits/total/234_BS_TOTAL.xlsx
+++ b/data/balance_sheet/3digits/total/234_BS_TOTAL.xlsx
@@ -3,656 +3,24 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KBIL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KBIL!$A$1:$M$245</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KBIL'!$A$1:$N$245</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="209">
-  <si>
-    <t>234-Manufacture of other porcelain and ceramic products</t>
-  </si>
-  <si>
-    <t>BALANCE SHEET (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>ASSETS</t>
-  </si>
-  <si>
-    <t>I-CURRENT ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A-Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Cash</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Checks Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Banks</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Liquid Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Customers</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Receivable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Other Short-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Receivables from Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Receivables from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Receivables from Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Doubtful Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Work in Progress</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Finished Goods</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Merchandise</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Inventories</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Advances on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
-  </si>
-  <si>
-    <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t>3- Advances to Subcontractors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">  H- Other Current Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- V.A.T. Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other V.A.T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Business Related Advances </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Advances to employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
-  </si>
-  <si>
-    <t>II- FIXED ASSETS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Other Long-Term Receivables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Non-Marketable Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Land</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Land Improvements</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Buildings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Motor Vehicles</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Assets in Construction</t>
-  </si>
-  <si>
-    <t xml:space="preserve">      10- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Know-How</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Goodwill</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Research and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Assets Subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Exploration Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Preparation and Development Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Advances Paid</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Prepayments for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Other Long-Term Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other V.A.T.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Prepaid taxes and funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Suspence Account</t>
-  </si>
-  <si>
-    <t>TOTAL ASSETS</t>
-  </si>
-  <si>
-    <t>LIABILITIES</t>
-  </si>
-  <si>
-    <t>I- SHORT-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Bank Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Financial Leasing Payables</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Commercial Papers Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       9- Other Financial Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Creditors</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Notes Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Trade Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Short-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Amounts Owed to Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Amounts Owed to Employees</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Taxes and Funds Payable </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Social Security Costs Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Liabilities Payable</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Provisions for Severance Payments </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Provisions for Costs</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Accrued Expenses</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Calculated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
-  </si>
-  <si>
-    <t>II- LONG-TERM LIABILITIES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Bonds Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Other Securities Issued</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Financial Liabilities </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Other Long-Term Debts</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D-Advances Received</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Provisions for Severance Payments</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Other Provisions </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Deferred Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Other </t>
-  </si>
-  <si>
-    <t>III- SHAREHOLDERS EQUITY</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   A- Paid-in Capital</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Subscribed Capital </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   B- Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Share Premium Account</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Revaluation of Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">       7- Other Capital Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Legal Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       3- Extraordinary Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       4- Other Reserves</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       5- Special Funds</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   D- Profit Brought Forward</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       1- Profit for the Financial Year</t>
-  </si>
-  <si>
-    <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
-  </si>
-  <si>
-    <t>TOTAL LIABILITIES</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
   </numFmts>
   <fonts count="12">
     <font>
@@ -899,178 +267,246 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="71">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="4" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="4" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="6" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="6" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="10" fillId="0" fontId="5" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="10" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="7" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="1" locked="1"/>
+      <protection locked="1" hidden="1"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="10" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="2" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="3" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="7" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="9" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="10" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="12" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="10" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="10" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -1365,22 +801,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N245"/>
+  <dimension ref="A1:O245"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A202" workbookViewId="0" zoomScaleNormal="100">
-      <selection activeCell="B210" sqref="B210"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="12.75" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="20" width="0.625"/>
-    <col bestFit="1" customWidth="1" max="2" min="2" style="20" width="35.5"/>
-    <col customWidth="1" max="13" min="3" style="20" width="11.625"/>
-    <col customWidth="1" max="14" min="14" style="20" width="2"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="14"/>
+    <col width="0.625" customWidth="1" style="20" min="1" max="1"/>
+    <col width="35.5" bestFit="1" customWidth="1" style="20" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="20" min="3" max="14"/>
+    <col width="2" customWidth="1" style="20" min="15" max="15"/>
+    <col hidden="1" style="14" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="9.949999999999999" r="1" s="70" spans="1:14">
+    <row r="1" ht="9.949999999999999" customHeight="1" s="70">
       <c r="A1" s="1" t="n"/>
       <c r="B1" s="29" t="n"/>
       <c r="C1" s="29" t="n"/>
@@ -1394,11 +830,14 @@
       <c r="K1" s="29" t="n"/>
       <c r="L1" s="29" t="n"/>
       <c r="M1" s="29" t="n"/>
-      <c r="N1" s="1" t="n"/>
-    </row>
-    <row r="2" spans="1:14">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
+      <c r="N1" s="29" t="n"/>
+      <c r="O1" s="1" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>234-Manufacture of other porcelain and ceramic products</t>
+        </is>
       </c>
       <c r="B2" s="27" t="n"/>
       <c r="C2" s="54" t="n"/>
@@ -1412,11 +851,14 @@
       <c r="K2" s="54" t="n"/>
       <c r="L2" s="54" t="n"/>
       <c r="M2" s="54" t="n"/>
-      <c r="N2" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="13.5" r="3" s="70" spans="1:14">
-      <c r="A3" s="55" t="s">
-        <v>1</v>
+      <c r="N2" s="54" t="n"/>
+      <c r="O2" s="10" t="n"/>
+    </row>
+    <row r="3" ht="13.5" customHeight="1" s="70">
+      <c r="A3" s="55" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B3" s="14" t="n"/>
       <c r="C3" s="29" t="n"/>
@@ -1430,12 +872,15 @@
       <c r="K3" s="29" t="n"/>
       <c r="L3" s="29" t="n"/>
       <c r="M3" s="29" t="n"/>
-      <c r="N3" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="4" s="70" spans="1:14">
+      <c r="N3" s="29" t="n"/>
+      <c r="O3" s="1" t="n"/>
+    </row>
+    <row r="4" ht="25.5" customHeight="1" s="70">
       <c r="A4" s="3" t="n"/>
-      <c r="B4" s="30" t="s">
-        <v>2</v>
+      <c r="B4" s="30" t="inlineStr">
+        <is>
+          <t>ASSETS</t>
+        </is>
       </c>
       <c r="C4" s="31" t="n">
         <v>2009</v>
@@ -1470,18 +915,23 @@
       <c r="M4" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N4" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="5" s="70" spans="1:14">
+      <c r="N4" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O4" s="10" t="n"/>
+    </row>
+    <row r="5" ht="12.6" customHeight="1" s="70">
       <c r="A5" s="5" t="n"/>
-      <c r="B5" s="56" t="s">
-        <v>3</v>
+      <c r="B5" s="56" t="inlineStr">
+        <is>
+          <t>I-CURRENT ASSETS</t>
+        </is>
       </c>
       <c r="C5" s="32" t="n">
-        <v>855111.2612599999</v>
+        <v>855111.2612600001</v>
       </c>
       <c r="D5" s="32" t="n">
-        <v>986304.3269699999</v>
+        <v>986304.3269700001</v>
       </c>
       <c r="E5" s="32" t="n">
         <v>1235365.75182</v>
@@ -1493,10 +943,10 @@
         <v>1942291.00814</v>
       </c>
       <c r="H5" s="33" t="n">
-        <v>1981856.43406</v>
+        <v>1982927.53511</v>
       </c>
       <c r="I5" s="32" t="n">
-        <v>2143620.37255</v>
+        <v>2151569.17249</v>
       </c>
       <c r="J5" s="33" t="n">
         <v>2493899.78198</v>
@@ -1505,23 +955,28 @@
         <v>3067002.87502</v>
       </c>
       <c r="L5" s="32" t="n">
-        <v>3719667.64908</v>
+        <v>3740756.62999</v>
       </c>
       <c r="M5" s="32" t="n">
-        <v>4675197.39141</v>
-      </c>
-      <c r="N5" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="6" s="70" spans="1:14">
+        <v>4726931.891220001</v>
+      </c>
+      <c r="N5" s="32" t="n">
+        <v>6229718.827</v>
+      </c>
+      <c r="O5" s="10" t="n"/>
+    </row>
+    <row r="6" ht="12.6" customHeight="1" s="70">
       <c r="A6" s="8" t="n"/>
-      <c r="B6" s="57" t="s">
-        <v>4</v>
+      <c r="B6" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A-Liquid Assets</t>
+        </is>
       </c>
       <c r="C6" s="23" t="n">
         <v>105214.22393</v>
       </c>
       <c r="D6" s="23" t="n">
-        <v>95133.04941000001</v>
+        <v>95133.04940999999</v>
       </c>
       <c r="E6" s="23" t="n">
         <v>148787.73453</v>
@@ -1533,10 +988,10 @@
         <v>270052.29807</v>
       </c>
       <c r="H6" s="33" t="n">
-        <v>301359.35715</v>
+        <v>301396.01393</v>
       </c>
       <c r="I6" s="23" t="n">
-        <v>344790.72361</v>
+        <v>348294.22544</v>
       </c>
       <c r="J6" s="33" t="n">
         <v>365175.8101</v>
@@ -1545,17 +1000,22 @@
         <v>516662.66866</v>
       </c>
       <c r="L6" s="23" t="n">
-        <v>573120.6682300001</v>
+        <v>576702.53579</v>
       </c>
       <c r="M6" s="23" t="n">
-        <v>890065.71346</v>
-      </c>
-      <c r="N6" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="7" s="70" spans="1:14">
+        <v>903596.0039199999</v>
+      </c>
+      <c r="N6" s="23" t="n">
+        <v>1307192.775</v>
+      </c>
+      <c r="O6" s="11" t="n"/>
+    </row>
+    <row r="7" ht="12.6" customHeight="1" s="70">
       <c r="A7" s="5" t="n"/>
-      <c r="B7" s="64" t="s">
-        <v>5</v>
+      <c r="B7" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Cash</t>
+        </is>
       </c>
       <c r="C7" s="22" t="n">
         <v>6044.082780000001</v>
@@ -1567,41 +1027,46 @@
         <v>7872.98575</v>
       </c>
       <c r="F7" s="21" t="n">
-        <v>8717.786390000001</v>
+        <v>8717.786389999999</v>
       </c>
       <c r="G7" s="22" t="n">
         <v>8786.745629999999</v>
       </c>
       <c r="H7" s="21" t="n">
-        <v>7288.887970000001</v>
+        <v>7300.61352</v>
       </c>
       <c r="I7" s="22" t="n">
-        <v>7924.82168</v>
+        <v>8295.882879999999</v>
       </c>
       <c r="J7" s="21" t="n">
-        <v>8611.723790000002</v>
+        <v>8611.72379</v>
       </c>
       <c r="K7" s="22" t="n">
         <v>9220.142530000001</v>
       </c>
       <c r="L7" s="22" t="n">
-        <v>9010.720859999999</v>
+        <v>9097.023289999999</v>
       </c>
       <c r="M7" s="22" t="n">
-        <v>9397.83502</v>
-      </c>
-      <c r="N7" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="8" s="70" spans="1:14">
+        <v>10073.75197</v>
+      </c>
+      <c r="N7" s="22" t="n">
+        <v>12846.796</v>
+      </c>
+      <c r="O7" s="10" t="n"/>
+    </row>
+    <row r="8" ht="12.6" customHeight="1" s="70">
       <c r="A8" s="5" t="n"/>
-      <c r="B8" s="64" t="s">
-        <v>6</v>
+      <c r="B8" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Checks Received</t>
+        </is>
       </c>
       <c r="C8" s="22" t="n">
         <v>49103.67507</v>
       </c>
       <c r="D8" s="22" t="n">
-        <v>51651.28533000001</v>
+        <v>51651.28533</v>
       </c>
       <c r="E8" s="22" t="n">
         <v>55631.87884</v>
@@ -1613,10 +1078,10 @@
         <v>129606.90056</v>
       </c>
       <c r="H8" s="21" t="n">
-        <v>188183.95581</v>
+        <v>188208.85381</v>
       </c>
       <c r="I8" s="22" t="n">
-        <v>195410.33861</v>
+        <v>197003.17661</v>
       </c>
       <c r="J8" s="21" t="n">
         <v>206832.7873</v>
@@ -1625,38 +1090,43 @@
         <v>240755.22957</v>
       </c>
       <c r="L8" s="22" t="n">
-        <v>218154.12962</v>
+        <v>218522.72872</v>
       </c>
       <c r="M8" s="22" t="n">
-        <v>352592.8025700001</v>
-      </c>
-      <c r="N8" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="9" s="70" spans="1:14">
+        <v>354872.39529</v>
+      </c>
+      <c r="N8" s="22" t="n">
+        <v>372276.769</v>
+      </c>
+      <c r="O8" s="10" t="n"/>
+    </row>
+    <row r="9" ht="12.6" customHeight="1" s="70">
       <c r="A9" s="5" t="n"/>
-      <c r="B9" s="64" t="s">
-        <v>7</v>
+      <c r="B9" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Banks</t>
+        </is>
       </c>
       <c r="C9" s="22" t="n">
         <v>55125.0826</v>
       </c>
       <c r="D9" s="22" t="n">
-        <v>39725.50576</v>
+        <v>39725.50576000001</v>
       </c>
       <c r="E9" s="22" t="n">
-        <v>81682.19829</v>
+        <v>81682.19828999999</v>
       </c>
       <c r="F9" s="21" t="n">
-        <v>69756.04155999998</v>
+        <v>69756.04156</v>
       </c>
       <c r="G9" s="22" t="n">
         <v>121039.32713</v>
       </c>
       <c r="H9" s="21" t="n">
-        <v>91008.97761999999</v>
+        <v>91009.01084999999</v>
       </c>
       <c r="I9" s="22" t="n">
-        <v>128398.96995</v>
+        <v>129938.57258</v>
       </c>
       <c r="J9" s="21" t="n">
         <v>137634.33954</v>
@@ -1665,17 +1135,22 @@
         <v>235104.77082</v>
       </c>
       <c r="L9" s="22" t="n">
-        <v>329048.6646799999</v>
+        <v>332174.96491</v>
       </c>
       <c r="M9" s="22" t="n">
-        <v>506825.50251</v>
-      </c>
-      <c r="N9" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="10" s="70" spans="1:14">
+        <v>513022.00589</v>
+      </c>
+      <c r="N9" s="22" t="n">
+        <v>893460.769</v>
+      </c>
+      <c r="O9" s="10" t="n"/>
+    </row>
+    <row r="10" ht="12.6" customHeight="1" s="70">
       <c r="A10" s="5" t="n"/>
-      <c r="B10" s="59" t="s">
-        <v>8</v>
+      <c r="B10" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Checks Given and Payment Orders (-)</t>
+        </is>
       </c>
       <c r="C10" s="22" t="n">
         <v>9782.57879</v>
@@ -1708,14 +1183,19 @@
         <v>17465.30392</v>
       </c>
       <c r="M10" s="22" t="n">
-        <v>39903.9191</v>
-      </c>
-      <c r="N10" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="11" s="70" spans="1:14">
+        <v>35540.9191</v>
+      </c>
+      <c r="N10" s="22" t="n">
+        <v>58600.058</v>
+      </c>
+      <c r="O10" s="10" t="n"/>
+    </row>
+    <row r="11" ht="12.6" customHeight="1" s="70">
       <c r="A11" s="5" t="n"/>
-      <c r="B11" s="64" t="s">
-        <v>9</v>
+      <c r="B11" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Liquid Assets</t>
+        </is>
       </c>
       <c r="C11" s="22" t="n">
         <v>4723.96227</v>
@@ -1742,20 +1222,25 @@
         <v>22952.50029</v>
       </c>
       <c r="K11" s="22" t="n">
-        <v>45491.93282000001</v>
+        <v>45491.93281999999</v>
       </c>
       <c r="L11" s="22" t="n">
-        <v>34372.45699</v>
+        <v>34373.12279</v>
       </c>
       <c r="M11" s="22" t="n">
-        <v>61153.49245999999</v>
-      </c>
-      <c r="N11" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="12" s="70" spans="1:14">
+        <v>61168.76987</v>
+      </c>
+      <c r="N11" s="22" t="n">
+        <v>87208.499</v>
+      </c>
+      <c r="O11" s="10" t="n"/>
+    </row>
+    <row r="12" ht="12.6" customHeight="1" s="70">
       <c r="A12" s="8" t="n"/>
-      <c r="B12" s="60" t="s">
-        <v>10</v>
+      <c r="B12" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Marketable Securities</t>
+        </is>
       </c>
       <c r="C12" s="23" t="n">
         <v>4200.01985</v>
@@ -1790,12 +1275,17 @@
       <c r="M12" s="23" t="n">
         <v>112535.94198</v>
       </c>
-      <c r="N12" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="13" s="70" spans="1:14">
+      <c r="N12" s="23" t="n">
+        <v>113047.899</v>
+      </c>
+      <c r="O12" s="11" t="n"/>
+    </row>
+    <row r="13" ht="12.6" customHeight="1" s="70">
       <c r="A13" s="5" t="n"/>
-      <c r="B13" s="64" t="s">
-        <v>11</v>
+      <c r="B13" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Securities</t>
+        </is>
       </c>
       <c r="C13" s="22" t="n">
         <v>0</v>
@@ -1830,12 +1320,17 @@
       <c r="M13" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N13" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="14" s="70" spans="1:14">
+      <c r="N13" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" s="10" t="n"/>
+    </row>
+    <row r="14" ht="12.6" customHeight="1" s="70">
       <c r="A14" s="5" t="n"/>
-      <c r="B14" s="64" t="s">
-        <v>12</v>
+      <c r="B14" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Private Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C14" s="22" t="n">
         <v>112.74974</v>
@@ -1856,7 +1351,7 @@
         <v>79.26868</v>
       </c>
       <c r="I14" s="22" t="n">
-        <v>66.01971</v>
+        <v>66.01970999999999</v>
       </c>
       <c r="J14" s="21" t="n">
         <v>0.83489</v>
@@ -1870,12 +1365,17 @@
       <c r="M14" s="22" t="n">
         <v>2642.02087</v>
       </c>
-      <c r="N14" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="15" s="70" spans="1:14">
+      <c r="N14" s="22" t="n">
+        <v>36560.776</v>
+      </c>
+      <c r="O14" s="10" t="n"/>
+    </row>
+    <row r="15" ht="12.6" customHeight="1" s="70">
       <c r="A15" s="5" t="n"/>
-      <c r="B15" s="64" t="s">
-        <v>13</v>
+      <c r="B15" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Public Sector Bonds, Notes &amp; Bills </t>
+        </is>
       </c>
       <c r="C15" s="22" t="n">
         <v>1403</v>
@@ -1910,12 +1410,17 @@
       <c r="M15" s="22" t="n">
         <v>109299.61629</v>
       </c>
-      <c r="N15" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="16" s="70" spans="1:14">
+      <c r="N15" s="22" t="n">
+        <v>76485.056</v>
+      </c>
+      <c r="O15" s="10" t="n"/>
+    </row>
+    <row r="16" ht="12.6" customHeight="1" s="70">
       <c r="A16" s="5" t="n"/>
-      <c r="B16" s="64" t="s">
-        <v>14</v>
+      <c r="B16" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Marketable Securities</t>
+        </is>
       </c>
       <c r="C16" s="22" t="n">
         <v>2684.27011</v>
@@ -1936,7 +1441,7 @@
         <v>1243.53199</v>
       </c>
       <c r="I16" s="22" t="n">
-        <v>6032.375099999999</v>
+        <v>6032.3751</v>
       </c>
       <c r="J16" s="21" t="n">
         <v>1291.3663</v>
@@ -1950,12 +1455,17 @@
       <c r="M16" s="22" t="n">
         <v>594.3048199999999</v>
       </c>
-      <c r="N16" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="17" s="70" spans="1:14">
+      <c r="N16" s="22" t="n">
+        <v>2.067</v>
+      </c>
+      <c r="O16" s="10" t="n"/>
+    </row>
+    <row r="17" ht="12.6" customHeight="1" s="70">
       <c r="A17" s="5" t="n"/>
-      <c r="B17" s="61" t="s">
-        <v>15</v>
+      <c r="B17" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for  Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C17" s="22" t="n">
         <v>0</v>
@@ -1990,15 +1500,20 @@
       <c r="M17" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N17" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="18" s="70" spans="1:14">
+      <c r="N17" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" s="10" t="n"/>
+    </row>
+    <row r="18" ht="12.6" customHeight="1" s="70">
       <c r="A18" s="8" t="n"/>
-      <c r="B18" s="60" t="s">
-        <v>16</v>
+      <c r="B18" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C18" s="23" t="n">
-        <v>364705.8633599999</v>
+        <v>364705.86336</v>
       </c>
       <c r="D18" s="23" t="n">
         <v>448153.95685</v>
@@ -2013,29 +1528,34 @@
         <v>692588.35561</v>
       </c>
       <c r="H18" s="33" t="n">
-        <v>769780.9040399999</v>
+        <v>770800.5675799999</v>
       </c>
       <c r="I18" s="23" t="n">
-        <v>784206.19549</v>
+        <v>786305.91176</v>
       </c>
       <c r="J18" s="33" t="n">
-        <v>980564.29643</v>
+        <v>980564.2964299999</v>
       </c>
       <c r="K18" s="23" t="n">
         <v>1133870.92116</v>
       </c>
       <c r="L18" s="23" t="n">
-        <v>1228687.22679</v>
+        <v>1237604.20814</v>
       </c>
       <c r="M18" s="23" t="n">
-        <v>1410428.24579</v>
-      </c>
-      <c r="N18" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="19" s="70" spans="1:14">
+        <v>1416111.62898</v>
+      </c>
+      <c r="N18" s="23" t="n">
+        <v>1860422.399</v>
+      </c>
+      <c r="O18" s="11" t="n"/>
+    </row>
+    <row r="19" ht="12.6" customHeight="1" s="70">
       <c r="A19" s="5" t="n"/>
-      <c r="B19" s="64" t="s">
-        <v>17</v>
+      <c r="B19" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C19" s="22" t="n">
         <v>265258.04915</v>
@@ -2053,10 +1573,10 @@
         <v>485817.21102</v>
       </c>
       <c r="H19" s="21" t="n">
-        <v>537067.95537</v>
+        <v>538087.6189100001</v>
       </c>
       <c r="I19" s="22" t="n">
-        <v>536182.7164800001</v>
+        <v>538045.63275</v>
       </c>
       <c r="J19" s="21" t="n">
         <v>642958.30099</v>
@@ -2065,20 +1585,25 @@
         <v>768924.70527</v>
       </c>
       <c r="L19" s="22" t="n">
-        <v>917572.8893599999</v>
+        <v>923252.09965</v>
       </c>
       <c r="M19" s="22" t="n">
-        <v>1096667.66572</v>
-      </c>
-      <c r="N19" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="20" s="70" spans="1:14">
+        <v>1101865.05803</v>
+      </c>
+      <c r="N19" s="22" t="n">
+        <v>1444130.172</v>
+      </c>
+      <c r="O19" s="10" t="n"/>
+    </row>
+    <row r="20" ht="12.6" customHeight="1" s="70">
       <c r="A20" s="5" t="n"/>
-      <c r="B20" s="61" t="s">
-        <v>18</v>
+      <c r="B20" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C20" s="22" t="n">
-        <v>97070.37633000001</v>
+        <v>97070.37633</v>
       </c>
       <c r="D20" s="22" t="n">
         <v>143033.24171</v>
@@ -2096,26 +1621,31 @@
         <v>225041.2506</v>
       </c>
       <c r="I20" s="22" t="n">
-        <v>243503.28386</v>
+        <v>243740.08386</v>
       </c>
       <c r="J20" s="21" t="n">
         <v>332823.06475</v>
       </c>
       <c r="K20" s="22" t="n">
-        <v>361466.0522599999</v>
+        <v>361466.05226</v>
       </c>
       <c r="L20" s="22" t="n">
-        <v>311392.75851</v>
+        <v>311480.35851</v>
       </c>
       <c r="M20" s="22" t="n">
-        <v>311791.56193</v>
-      </c>
-      <c r="N20" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="21" s="70" spans="1:14">
+        <v>311882.93582</v>
+      </c>
+      <c r="N20" s="22" t="n">
+        <v>410293.919</v>
+      </c>
+      <c r="O20" s="10" t="n"/>
+    </row>
+    <row r="21" ht="12.6" customHeight="1" s="70">
       <c r="A21" s="5" t="n"/>
-      <c r="B21" s="64" t="s">
-        <v>19</v>
+      <c r="B21" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C21" s="22" t="n">
         <v>1284.44049</v>
@@ -2150,12 +1680,17 @@
       <c r="M21" s="22" t="n">
         <v>13219.9525</v>
       </c>
-      <c r="N21" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="22" s="70" spans="1:14">
+      <c r="N21" s="22" t="n">
+        <v>14929.832</v>
+      </c>
+      <c r="O21" s="10" t="n"/>
+    </row>
+    <row r="22" ht="12.6" customHeight="1" s="70">
       <c r="A22" s="5" t="n"/>
-      <c r="B22" s="64" t="s">
-        <v>20</v>
+      <c r="B22" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C22" s="22" t="n">
         <v>0</v>
@@ -2190,12 +1725,17 @@
       <c r="M22" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N22" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="23" s="70" spans="1:14">
+      <c r="N22" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" s="10" t="n"/>
+    </row>
+    <row r="23" ht="12.6" customHeight="1" s="70">
       <c r="A23" s="5" t="n"/>
-      <c r="B23" s="61" t="s">
-        <v>21</v>
+      <c r="B23" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C23" s="22" t="n">
         <v>826.8845600000001</v>
@@ -2225,17 +1765,22 @@
         <v>2901.75484</v>
       </c>
       <c r="L23" s="22" t="n">
-        <v>4534.34378</v>
+        <v>4594.18643</v>
       </c>
       <c r="M23" s="22" t="n">
-        <v>4210.491739999999</v>
-      </c>
-      <c r="N23" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="24" s="70" spans="1:14">
+        <v>4525.219289999999</v>
+      </c>
+      <c r="N23" s="22" t="n">
+        <v>5977.59</v>
+      </c>
+      <c r="O23" s="10" t="n"/>
+    </row>
+    <row r="24" ht="12.6" customHeight="1" s="70">
       <c r="A24" s="5" t="n"/>
-      <c r="B24" s="64" t="s">
-        <v>22</v>
+      <c r="B24" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Short-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C24" s="22" t="n">
         <v>222.89491</v>
@@ -2265,17 +1810,22 @@
         <v>3470.457470000001</v>
       </c>
       <c r="L24" s="22" t="n">
-        <v>248.95674</v>
+        <v>3158.08515</v>
       </c>
       <c r="M24" s="22" t="n">
         <v>3385.65419</v>
       </c>
-      <c r="N24" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="25" s="70" spans="1:14">
+      <c r="N24" s="22" t="n">
+        <v>6485.077</v>
+      </c>
+      <c r="O24" s="10" t="n"/>
+    </row>
+    <row r="25" ht="12.6" customHeight="1" s="70">
       <c r="A25" s="5" t="n"/>
-      <c r="B25" s="64" t="s">
-        <v>23</v>
+      <c r="B25" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Doubtful Trade Receivables</t>
+        </is>
       </c>
       <c r="C25" s="22" t="n">
         <v>19702.59532</v>
@@ -2296,26 +1846,31 @@
         <v>29496.89824</v>
       </c>
       <c r="I25" s="22" t="n">
-        <v>27873.65862999999</v>
+        <v>27873.65863</v>
       </c>
       <c r="J25" s="21" t="n">
         <v>38692.57029</v>
       </c>
       <c r="K25" s="22" t="n">
-        <v>42767.37271000001</v>
+        <v>42767.37271</v>
       </c>
       <c r="L25" s="22" t="n">
-        <v>57039.33936</v>
+        <v>57220.53936</v>
       </c>
       <c r="M25" s="22" t="n">
-        <v>73104.87793</v>
-      </c>
-      <c r="N25" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="26" s="70" spans="1:14">
+        <v>73184.76737</v>
+      </c>
+      <c r="N25" s="22" t="n">
+        <v>82974.326</v>
+      </c>
+      <c r="O25" s="10" t="n"/>
+    </row>
+    <row r="26" ht="12.6" customHeight="1" s="70">
       <c r="A26" s="8" t="n"/>
-      <c r="B26" s="64" t="s">
-        <v>24</v>
+      <c r="B26" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C26" s="22" t="n">
         <v>17090.49642</v>
@@ -2333,7 +1888,7 @@
         <v>23933.70314</v>
       </c>
       <c r="H26" s="21" t="n">
-        <v>24379.36642</v>
+        <v>24379.36642000001</v>
       </c>
       <c r="I26" s="22" t="n">
         <v>24112.29139</v>
@@ -2350,12 +1905,17 @@
       <c r="M26" s="22" t="n">
         <v>65512.05322</v>
       </c>
-      <c r="N26" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="27" s="70" spans="1:14">
+      <c r="N26" s="22" t="n">
+        <v>74508.853</v>
+      </c>
+      <c r="O26" s="11" t="n"/>
+    </row>
+    <row r="27" ht="12.6" customHeight="1" s="70">
       <c r="A27" s="5" t="n"/>
-      <c r="B27" s="57" t="s">
-        <v>25</v>
+      <c r="B27" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Other Short-Term Receivables</t>
+        </is>
       </c>
       <c r="C27" s="23" t="n">
         <v>14976.67134</v>
@@ -2376,32 +1936,37 @@
         <v>28903.04539</v>
       </c>
       <c r="I27" s="23" t="n">
-        <v>44949.50743</v>
+        <v>45144.65419</v>
       </c>
       <c r="J27" s="33" t="n">
         <v>41101.27785</v>
       </c>
       <c r="K27" s="23" t="n">
-        <v>48517.44625</v>
+        <v>48517.44625000001</v>
       </c>
       <c r="L27" s="23" t="n">
-        <v>89560.78128999998</v>
+        <v>90005.68051999999</v>
       </c>
       <c r="M27" s="23" t="n">
-        <v>149585.3944</v>
-      </c>
-      <c r="N27" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="28" s="70" spans="1:14">
+        <v>150576.48438</v>
+      </c>
+      <c r="N27" s="23" t="n">
+        <v>288745.747</v>
+      </c>
+      <c r="O27" s="10" t="n"/>
+    </row>
+    <row r="28" ht="12.6" customHeight="1" s="70">
       <c r="A28" s="5" t="n"/>
-      <c r="B28" s="64" t="s">
-        <v>26</v>
+      <c r="B28" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C28" s="22" t="n">
         <v>5275.72993</v>
       </c>
       <c r="D28" s="22" t="n">
-        <v>5297.333890000001</v>
+        <v>5297.33389</v>
       </c>
       <c r="E28" s="22" t="n">
         <v>2315.31136</v>
@@ -2416,26 +1981,31 @@
         <v>3094.85983</v>
       </c>
       <c r="I28" s="22" t="n">
-        <v>5495.827619999999</v>
+        <v>5495.82762</v>
       </c>
       <c r="J28" s="21" t="n">
-        <v>7651.795620000001</v>
+        <v>7651.79562</v>
       </c>
       <c r="K28" s="22" t="n">
-        <v>6704.300740000001</v>
+        <v>6704.30074</v>
       </c>
       <c r="L28" s="22" t="n">
-        <v>17577.33854</v>
+        <v>17911.22438</v>
       </c>
       <c r="M28" s="22" t="n">
-        <v>21465.18995</v>
-      </c>
-      <c r="N28" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="29" s="70" spans="1:14">
+        <v>22247.02838</v>
+      </c>
+      <c r="N28" s="22" t="n">
+        <v>26476.239</v>
+      </c>
+      <c r="O28" s="10" t="n"/>
+    </row>
+    <row r="29" ht="12.6" customHeight="1" s="70">
       <c r="A29" s="5" t="n"/>
-      <c r="B29" s="59" t="s">
-        <v>27</v>
+      <c r="B29" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C29" s="22" t="n">
         <v>0</v>
@@ -2470,12 +2040,17 @@
       <c r="M29" s="22" t="n">
         <v>100.0161</v>
       </c>
-      <c r="N29" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="30" s="70" spans="1:14">
+      <c r="N29" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O29" s="10" t="n"/>
+    </row>
+    <row r="30" ht="12.6" customHeight="1" s="70">
       <c r="A30" s="5" t="n"/>
-      <c r="B30" s="64" t="s">
-        <v>28</v>
+      <c r="B30" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C30" s="22" t="n">
         <v>1725.35157</v>
@@ -2510,12 +2085,17 @@
       <c r="M30" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N30" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="31" s="70" spans="1:14">
+      <c r="N30" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" s="10" t="n"/>
+    </row>
+    <row r="31" ht="12.6" customHeight="1" s="70">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="64" t="s">
-        <v>29</v>
+      <c r="B31" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C31" s="22" t="n">
         <v>149.18095</v>
@@ -2524,7 +2104,7 @@
         <v>201.98801</v>
       </c>
       <c r="E31" s="22" t="n">
-        <v>98.29768</v>
+        <v>98.29768000000001</v>
       </c>
       <c r="F31" s="21" t="n">
         <v>120.37975</v>
@@ -2545,20 +2125,25 @@
         <v>166.33374</v>
       </c>
       <c r="L31" s="22" t="n">
-        <v>543.5547999999999</v>
+        <v>543.5548</v>
       </c>
       <c r="M31" s="22" t="n">
         <v>443.32446</v>
       </c>
-      <c r="N31" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="32" s="70" spans="1:14">
+      <c r="N31" s="22" t="n">
+        <v>902.9930000000001</v>
+      </c>
+      <c r="O31" s="10" t="n"/>
+    </row>
+    <row r="32" ht="12.6" customHeight="1" s="70">
       <c r="A32" s="5" t="n"/>
-      <c r="B32" s="64" t="s">
-        <v>30</v>
+      <c r="B32" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C32" s="22" t="n">
-        <v>7826.408890000001</v>
+        <v>7826.40889</v>
       </c>
       <c r="D32" s="22" t="n">
         <v>11770.257</v>
@@ -2576,26 +2161,31 @@
         <v>25638.04386</v>
       </c>
       <c r="I32" s="22" t="n">
-        <v>33241.46213</v>
+        <v>33426.88746</v>
       </c>
       <c r="J32" s="21" t="n">
         <v>27034.3999</v>
       </c>
       <c r="K32" s="22" t="n">
-        <v>35477.29102999999</v>
+        <v>35477.29103</v>
       </c>
       <c r="L32" s="22" t="n">
-        <v>68888.05136</v>
+        <v>68999.06475000001</v>
       </c>
       <c r="M32" s="22" t="n">
-        <v>127552.39246</v>
-      </c>
-      <c r="N32" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="33" s="70" spans="1:14">
+        <v>127761.64401</v>
+      </c>
+      <c r="N32" s="22" t="n">
+        <v>261356.794</v>
+      </c>
+      <c r="O32" s="10" t="n"/>
+    </row>
+    <row r="33" ht="12.6" customHeight="1" s="70">
       <c r="A33" s="5" t="n"/>
-      <c r="B33" s="64" t="s">
-        <v>31</v>
+      <c r="B33" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Discount on Other Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C33" s="22" t="n">
         <v>0</v>
@@ -2630,12 +2220,17 @@
       <c r="M33" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N33" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="34" s="70" spans="1:14">
+      <c r="N33" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" s="10" t="n"/>
+    </row>
+    <row r="34" ht="12.6" customHeight="1" s="70">
       <c r="A34" s="5" t="n"/>
-      <c r="B34" s="64" t="s">
-        <v>32</v>
+      <c r="B34" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Doubtful Receivables</t>
+        </is>
       </c>
       <c r="C34" s="22" t="n">
         <v>0</v>
@@ -2656,7 +2251,7 @@
         <v>37.25593</v>
       </c>
       <c r="I34" s="22" t="n">
-        <v>0</v>
+        <v>9.72143</v>
       </c>
       <c r="J34" s="21" t="n">
         <v>9.72143</v>
@@ -2670,12 +2265,17 @@
       <c r="M34" s="22" t="n">
         <v>24.47143</v>
       </c>
-      <c r="N34" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="35" s="70" spans="1:14">
+      <c r="N34" s="22" t="n">
+        <v>9.721</v>
+      </c>
+      <c r="O34" s="10" t="n"/>
+    </row>
+    <row r="35" ht="12.6" customHeight="1" s="70">
       <c r="A35" s="8" t="n"/>
-      <c r="B35" s="64" t="s">
-        <v>33</v>
+      <c r="B35" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C35" s="22" t="n">
         <v>0</v>
@@ -2710,21 +2310,26 @@
       <c r="M35" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N35" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="36" s="70" spans="1:14">
+      <c r="N35" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O35" s="11" t="n"/>
+    </row>
+    <row r="36" ht="12.6" customHeight="1" s="70">
       <c r="A36" s="5" t="n"/>
-      <c r="B36" s="60" t="s">
-        <v>34</v>
+      <c r="B36" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Inventories</t>
+        </is>
       </c>
       <c r="C36" s="23" t="n">
         <v>327974.30133</v>
       </c>
       <c r="D36" s="23" t="n">
-        <v>364575.2345000001</v>
+        <v>364575.2345</v>
       </c>
       <c r="E36" s="23" t="n">
-        <v>420083.1705000001</v>
+        <v>420083.1705</v>
       </c>
       <c r="F36" s="33" t="n">
         <v>455244.57391</v>
@@ -2733,32 +2338,37 @@
         <v>565204.72252</v>
       </c>
       <c r="H36" s="33" t="n">
-        <v>677816.63791</v>
+        <v>677829.1862100001</v>
       </c>
       <c r="I36" s="23" t="n">
-        <v>699427.3823599999</v>
+        <v>701031.2233</v>
       </c>
       <c r="J36" s="33" t="n">
-        <v>755786.23047</v>
+        <v>755786.2304700001</v>
       </c>
       <c r="K36" s="23" t="n">
         <v>908905.97164</v>
       </c>
       <c r="L36" s="23" t="n">
-        <v>1206151.3427</v>
+        <v>1212916.81309</v>
       </c>
       <c r="M36" s="23" t="n">
-        <v>1371424.32614</v>
-      </c>
-      <c r="N36" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="37" s="70" spans="1:14">
+        <v>1399971.78899</v>
+      </c>
+      <c r="N36" s="23" t="n">
+        <v>1639333.806</v>
+      </c>
+      <c r="O36" s="10" t="n"/>
+    </row>
+    <row r="37" ht="12.6" customHeight="1" s="70">
       <c r="A37" s="5" t="n"/>
-      <c r="B37" s="64" t="s">
-        <v>35</v>
+      <c r="B37" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Raw Materials &amp; Consumables</t>
+        </is>
       </c>
       <c r="C37" s="22" t="n">
-        <v>90233.89654999999</v>
+        <v>90233.89654999998</v>
       </c>
       <c r="D37" s="22" t="n">
         <v>99005.76015999999</v>
@@ -2776,7 +2386,7 @@
         <v>179947.87999</v>
       </c>
       <c r="I37" s="22" t="n">
-        <v>205433.14187</v>
+        <v>205473.21228</v>
       </c>
       <c r="J37" s="21" t="n">
         <v>216556.31747</v>
@@ -2785,17 +2395,22 @@
         <v>267680.80434</v>
       </c>
       <c r="L37" s="22" t="n">
-        <v>372108.65461</v>
+        <v>373854.44314</v>
       </c>
       <c r="M37" s="22" t="n">
-        <v>410225.04051</v>
-      </c>
-      <c r="N37" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="38" s="70" spans="1:14">
+        <v>419095.17249</v>
+      </c>
+      <c r="N37" s="22" t="n">
+        <v>540050.656</v>
+      </c>
+      <c r="O37" s="10" t="n"/>
+    </row>
+    <row r="38" ht="12.6" customHeight="1" s="70">
       <c r="A38" s="5" t="n"/>
-      <c r="B38" s="64" t="s">
-        <v>36</v>
+      <c r="B38" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Work in Progress</t>
+        </is>
       </c>
       <c r="C38" s="22" t="n">
         <v>38027.37252</v>
@@ -2816,26 +2431,31 @@
         <v>81032.70064999998</v>
       </c>
       <c r="I38" s="22" t="n">
-        <v>57420.29754</v>
+        <v>58583.87858999999</v>
       </c>
       <c r="J38" s="21" t="n">
-        <v>69773.27591999999</v>
+        <v>69773.27592</v>
       </c>
       <c r="K38" s="22" t="n">
-        <v>89166.11405</v>
+        <v>89166.11404999999</v>
       </c>
       <c r="L38" s="22" t="n">
-        <v>107588.66773</v>
+        <v>108270.90631</v>
       </c>
       <c r="M38" s="22" t="n">
-        <v>131775.59553</v>
-      </c>
-      <c r="N38" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="39" s="70" spans="1:14">
+        <v>132027.17776</v>
+      </c>
+      <c r="N38" s="22" t="n">
+        <v>162497.081</v>
+      </c>
+      <c r="O38" s="10" t="n"/>
+    </row>
+    <row r="39" ht="12.6" customHeight="1" s="70">
       <c r="A39" s="5" t="n"/>
-      <c r="B39" s="64" t="s">
-        <v>37</v>
+      <c r="B39" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Finished Goods</t>
+        </is>
       </c>
       <c r="C39" s="22" t="n">
         <v>137435.88535</v>
@@ -2856,29 +2476,34 @@
         <v>242723.72017</v>
       </c>
       <c r="I39" s="22" t="n">
-        <v>236582.57014</v>
+        <v>236977.15526</v>
       </c>
       <c r="J39" s="21" t="n">
-        <v>284039.1348300001</v>
+        <v>284039.13483</v>
       </c>
       <c r="K39" s="22" t="n">
         <v>331759.97468</v>
       </c>
       <c r="L39" s="22" t="n">
-        <v>433016.12075</v>
+        <v>435085.69986</v>
       </c>
       <c r="M39" s="22" t="n">
-        <v>540293.23049</v>
-      </c>
-      <c r="N39" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="40" s="70" spans="1:14">
+        <v>550420.49628</v>
+      </c>
+      <c r="N39" s="22" t="n">
+        <v>494408.405</v>
+      </c>
+      <c r="O39" s="10" t="n"/>
+    </row>
+    <row r="40" ht="12.6" customHeight="1" s="70">
       <c r="A40" s="5" t="n"/>
-      <c r="B40" s="64" t="s">
-        <v>38</v>
+      <c r="B40" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Merchandise</t>
+        </is>
       </c>
       <c r="C40" s="22" t="n">
-        <v>34996.42166000001</v>
+        <v>34996.42166</v>
       </c>
       <c r="D40" s="22" t="n">
         <v>40368.98053</v>
@@ -2893,7 +2518,7 @@
         <v>58028.3303</v>
       </c>
       <c r="H40" s="21" t="n">
-        <v>106747.31582</v>
+        <v>106759.86412</v>
       </c>
       <c r="I40" s="22" t="n">
         <v>118672.01035</v>
@@ -2905,17 +2530,22 @@
         <v>127034.07096</v>
       </c>
       <c r="L40" s="22" t="n">
-        <v>150119.19262</v>
+        <v>152109.36969</v>
       </c>
       <c r="M40" s="22" t="n">
-        <v>153804.99386</v>
-      </c>
-      <c r="N40" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="41" s="70" spans="1:14">
+        <v>154148.14983</v>
+      </c>
+      <c r="N40" s="22" t="n">
+        <v>182178.566</v>
+      </c>
+      <c r="O40" s="10" t="n"/>
+    </row>
+    <row r="41" ht="12.6" customHeight="1" s="70">
       <c r="A41" s="5" t="n"/>
-      <c r="B41" s="64" t="s">
-        <v>39</v>
+      <c r="B41" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Inventories</t>
+        </is>
       </c>
       <c r="C41" s="22" t="n">
         <v>3205.87583</v>
@@ -2924,7 +2554,7 @@
         <v>4285.70244</v>
       </c>
       <c r="E41" s="22" t="n">
-        <v>4787.704229999999</v>
+        <v>4787.70423</v>
       </c>
       <c r="F41" s="21" t="n">
         <v>6059.92038</v>
@@ -2936,26 +2566,31 @@
         <v>12288.47837</v>
       </c>
       <c r="I41" s="22" t="n">
-        <v>6620.546380000001</v>
+        <v>6620.54638</v>
       </c>
       <c r="J41" s="21" t="n">
         <v>3051.70817</v>
       </c>
       <c r="K41" s="22" t="n">
-        <v>4729.39845</v>
+        <v>4729.398450000001</v>
       </c>
       <c r="L41" s="22" t="n">
-        <v>10173.20815</v>
+        <v>10227.67589</v>
       </c>
       <c r="M41" s="22" t="n">
-        <v>10626.42542</v>
-      </c>
-      <c r="N41" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="42" s="70" spans="1:14">
+        <v>11384.61918</v>
+      </c>
+      <c r="N41" s="22" t="n">
+        <v>19079.052</v>
+      </c>
+      <c r="O41" s="10" t="n"/>
+    </row>
+    <row r="42" ht="12.6" customHeight="1" s="70">
       <c r="A42" s="5" t="n"/>
-      <c r="B42" s="59" t="s">
-        <v>40</v>
+      <c r="B42" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Inventories (-)</t>
+        </is>
       </c>
       <c r="C42" s="22" t="n">
         <v>227.15752</v>
@@ -2990,12 +2625,17 @@
       <c r="M42" s="22" t="n">
         <v>321.48465</v>
       </c>
-      <c r="N42" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="43" s="70" spans="1:14">
+      <c r="N42" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O42" s="10" t="n"/>
+    </row>
+    <row r="43" ht="12.6" customHeight="1" s="70">
       <c r="A43" s="8" t="n"/>
-      <c r="B43" s="59" t="s">
-        <v>41</v>
+      <c r="B43" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Advances on Purchase Orders</t>
+        </is>
       </c>
       <c r="C43" s="22" t="n">
         <v>24302.00694</v>
@@ -3010,32 +2650,37 @@
         <v>32421.27612</v>
       </c>
       <c r="G43" s="22" t="n">
-        <v>47461.52942</v>
+        <v>47461.52941999999</v>
       </c>
       <c r="H43" s="21" t="n">
         <v>62279.42283</v>
       </c>
       <c r="I43" s="22" t="n">
-        <v>75005.50943999999</v>
+        <v>75011.11379999999</v>
       </c>
       <c r="J43" s="21" t="n">
-        <v>74421.22465</v>
+        <v>74421.22464999999</v>
       </c>
       <c r="K43" s="22" t="n">
         <v>88716.38920999999</v>
       </c>
       <c r="L43" s="22" t="n">
-        <v>133514.32858</v>
+        <v>133737.54794</v>
       </c>
       <c r="M43" s="22" t="n">
-        <v>125020.52498</v>
-      </c>
-      <c r="N43" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="44" s="70" spans="1:14">
+        <v>133217.6581</v>
+      </c>
+      <c r="N43" s="22" t="n">
+        <v>241120.046</v>
+      </c>
+      <c r="O43" s="11" t="n"/>
+    </row>
+    <row r="44" ht="12.6" customHeight="1" s="70">
       <c r="A44" s="8" t="n"/>
-      <c r="B44" s="60" t="s">
-        <v>42</v>
+      <c r="B44" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Constr.&amp; Restor.Costs Spread Over Yrs.</t>
+        </is>
       </c>
       <c r="C44" s="23" t="n">
         <v>870.7786</v>
@@ -3059,7 +2704,7 @@
         <v>28067.12573</v>
       </c>
       <c r="J44" s="33" t="n">
-        <v>29264.34431</v>
+        <v>29264.34430999999</v>
       </c>
       <c r="K44" s="23" t="n">
         <v>1745.42026</v>
@@ -3070,12 +2715,17 @@
       <c r="M44" s="23" t="n">
         <v>8928.99423</v>
       </c>
-      <c r="N44" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="45" s="70" spans="1:14">
+      <c r="N44" s="23" t="n">
+        <v>29924.688</v>
+      </c>
+      <c r="O44" s="11" t="n"/>
+    </row>
+    <row r="45" ht="12.6" customHeight="1" s="70">
       <c r="A45" s="8" t="n"/>
-      <c r="B45" s="59" t="s">
-        <v>43</v>
+      <c r="B45" s="59" t="inlineStr">
+        <is>
+          <t>1- Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C45" s="22" t="n">
         <v>870.7786</v>
@@ -3110,12 +2760,17 @@
       <c r="M45" s="22" t="n">
         <v>8928.99423</v>
       </c>
-      <c r="N45" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="46" s="70" spans="1:14">
+      <c r="N45" s="22" t="n">
+        <v>29414.688</v>
+      </c>
+      <c r="O45" s="11" t="n"/>
+    </row>
+    <row r="46" ht="12.6" customHeight="1" s="70">
       <c r="A46" s="8" t="n"/>
-      <c r="B46" s="59" t="s">
-        <v>44</v>
+      <c r="B46" s="59" t="inlineStr">
+        <is>
+          <t>2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C46" s="22" t="n">
         <v>0</v>
@@ -3150,12 +2805,17 @@
       <c r="M46" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N46" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="47" s="70" spans="1:14">
+      <c r="N46" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O46" s="11" t="n"/>
+    </row>
+    <row r="47" ht="12.6" customHeight="1" s="70">
       <c r="A47" s="5" t="n"/>
-      <c r="B47" s="59" t="s">
-        <v>45</v>
+      <c r="B47" s="59" t="inlineStr">
+        <is>
+          <t>3- Advances to Subcontractors</t>
+        </is>
       </c>
       <c r="C47" s="22" t="n">
         <v>0</v>
@@ -3190,12 +2850,17 @@
       <c r="M47" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N47" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="48" s="70" spans="1:14">
+      <c r="N47" s="22" t="n">
+        <v>510</v>
+      </c>
+      <c r="O47" s="10" t="n"/>
+    </row>
+    <row r="48" ht="12.6" customHeight="1" s="70">
       <c r="A48" s="5" t="n"/>
-      <c r="B48" s="60" t="s">
-        <v>46</v>
+      <c r="B48" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Prepaym.&amp; Accr. Inc.for the Next Months</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>3282.22816</v>
@@ -3204,10 +2869,10 @@
         <v>4821.49026</v>
       </c>
       <c r="E48" s="46" t="n">
-        <v>8156.429980000001</v>
+        <v>8156.42998</v>
       </c>
       <c r="F48" s="45" t="n">
-        <v>7916.833130000001</v>
+        <v>7916.83313</v>
       </c>
       <c r="G48" s="46" t="n">
         <v>11305.19455</v>
@@ -3216,7 +2881,7 @@
         <v>15994.1749</v>
       </c>
       <c r="I48" s="46" t="n">
-        <v>15250.34545</v>
+        <v>15285.2001</v>
       </c>
       <c r="J48" s="45" t="n">
         <v>23107.51046</v>
@@ -3225,17 +2890,22 @@
         <v>28841.02503</v>
       </c>
       <c r="L48" s="46" t="n">
-        <v>37259.52634</v>
+        <v>37881.65628</v>
       </c>
       <c r="M48" s="46" t="n">
-        <v>32547.87724</v>
-      </c>
-      <c r="N48" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="49" s="70" spans="1:14">
+        <v>33124.57927</v>
+      </c>
+      <c r="N48" s="46" t="n">
+        <v>31428.702</v>
+      </c>
+      <c r="O48" s="10" t="n"/>
+    </row>
+    <row r="49" ht="12.6" customHeight="1" s="70">
       <c r="A49" s="8" t="n"/>
-      <c r="B49" s="64" t="s">
-        <v>47</v>
+      <c r="B49" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Months</t>
+        </is>
       </c>
       <c r="C49" s="22" t="n">
         <v>3129.7508</v>
@@ -3247,16 +2917,16 @@
         <v>6087.83375</v>
       </c>
       <c r="F49" s="21" t="n">
-        <v>6960.239400000001</v>
+        <v>6960.2394</v>
       </c>
       <c r="G49" s="22" t="n">
-        <v>9645.499800000001</v>
+        <v>9645.4998</v>
       </c>
       <c r="H49" s="21" t="n">
         <v>12677.58435</v>
       </c>
       <c r="I49" s="22" t="n">
-        <v>12788.26743</v>
+        <v>12823.12208</v>
       </c>
       <c r="J49" s="21" t="n">
         <v>19322.23023</v>
@@ -3265,17 +2935,22 @@
         <v>22840.73293</v>
       </c>
       <c r="L49" s="22" t="n">
-        <v>30323.92197</v>
+        <v>30946.05191</v>
       </c>
       <c r="M49" s="22" t="n">
-        <v>27886.71327</v>
-      </c>
-      <c r="N49" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="50" s="70" spans="1:14">
+        <v>28463.4153</v>
+      </c>
+      <c r="N49" s="22" t="n">
+        <v>22942.625</v>
+      </c>
+      <c r="O49" s="11" t="n"/>
+    </row>
+    <row r="50" ht="12.6" customHeight="1" s="70">
       <c r="A50" s="5" t="n"/>
-      <c r="B50" s="64" t="s">
-        <v>48</v>
+      <c r="B50" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C50" s="22" t="n">
         <v>152.47736</v>
@@ -3305,17 +2980,22 @@
         <v>6000.292100000001</v>
       </c>
       <c r="L50" s="22" t="n">
-        <v>6935.60437</v>
+        <v>6935.604369999999</v>
       </c>
       <c r="M50" s="22" t="n">
         <v>4661.16397</v>
       </c>
-      <c r="N50" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="51" s="70" spans="1:14">
+      <c r="N50" s="22" t="n">
+        <v>8486.076999999999</v>
+      </c>
+      <c r="O50" s="10" t="n"/>
+    </row>
+    <row r="51" ht="12.6" customHeight="1" s="70">
       <c r="A51" s="5" t="n"/>
-      <c r="B51" s="57" t="s">
-        <v>49</v>
+      <c r="B51" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  H- Other Current Assets</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>33887.17469</v>
@@ -3333,10 +3013,10 @@
         <v>103018.86005</v>
       </c>
       <c r="H51" s="45" t="n">
-        <v>147222.01358</v>
+        <v>147224.24601</v>
       </c>
       <c r="I51" s="46" t="n">
-        <v>195667.09767</v>
+        <v>196178.83716</v>
       </c>
       <c r="J51" s="45" t="n">
         <v>276281.51728</v>
@@ -3345,17 +3025,22 @@
         <v>386909.16773</v>
       </c>
       <c r="L51" s="46" t="n">
-        <v>536583.9714799999</v>
+        <v>537341.6039199999</v>
       </c>
       <c r="M51" s="46" t="n">
-        <v>699680.8981699999</v>
-      </c>
-      <c r="N51" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="52" s="70" spans="1:14">
+        <v>702086.46947</v>
+      </c>
+      <c r="N51" s="46" t="n">
+        <v>959622.811</v>
+      </c>
+      <c r="O51" s="10" t="n"/>
+    </row>
+    <row r="52" ht="12.6" customHeight="1" s="70">
       <c r="A52" s="5" t="n"/>
-      <c r="B52" s="64" t="s">
-        <v>50</v>
+      <c r="B52" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T.Carried to the Next Period</t>
+        </is>
       </c>
       <c r="C52" s="22" t="n">
         <v>10562.93466</v>
@@ -3373,10 +3058,10 @@
         <v>11348.22056</v>
       </c>
       <c r="H52" s="21" t="n">
-        <v>11834.75568</v>
+        <v>11836.98811</v>
       </c>
       <c r="I52" s="22" t="n">
-        <v>12646.95823</v>
+        <v>12805.01135</v>
       </c>
       <c r="J52" s="21" t="n">
         <v>12846.60662</v>
@@ -3385,23 +3070,28 @@
         <v>22802.71309</v>
       </c>
       <c r="L52" s="22" t="n">
-        <v>27919.89681</v>
+        <v>28517.18069</v>
       </c>
       <c r="M52" s="22" t="n">
-        <v>31056.59336</v>
-      </c>
-      <c r="N52" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="53" s="70" spans="1:14">
+        <v>32858.88557</v>
+      </c>
+      <c r="N52" s="22" t="n">
+        <v>50222.229</v>
+      </c>
+      <c r="O52" s="10" t="n"/>
+    </row>
+    <row r="53" ht="12.6" customHeight="1" s="70">
       <c r="A53" s="5" t="n"/>
-      <c r="B53" s="64" t="s">
-        <v>51</v>
+      <c r="B53" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- V.A.T. Paid</t>
+        </is>
       </c>
       <c r="C53" s="22" t="n">
         <v>77.60402999999999</v>
       </c>
       <c r="D53" s="22" t="n">
-        <v>8.715710000000001</v>
+        <v>8.71571</v>
       </c>
       <c r="E53" s="22" t="n">
         <v>15.83369</v>
@@ -3425,17 +3115,22 @@
         <v>771.2908</v>
       </c>
       <c r="L53" s="22" t="n">
-        <v>884.9383799999999</v>
+        <v>906.19183</v>
       </c>
       <c r="M53" s="22" t="n">
-        <v>1545.48477</v>
-      </c>
-      <c r="N53" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="54" s="70" spans="1:14">
+        <v>1570.42246</v>
+      </c>
+      <c r="N53" s="22" t="n">
+        <v>1467.205</v>
+      </c>
+      <c r="O53" s="10" t="n"/>
+    </row>
+    <row r="54" ht="12.6" customHeight="1" s="70">
       <c r="A54" s="5" t="n"/>
-      <c r="B54" s="64" t="s">
-        <v>52</v>
+      <c r="B54" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other V.A.T</t>
+        </is>
       </c>
       <c r="C54" s="22" t="n">
         <v>18775.2257</v>
@@ -3456,29 +3151,34 @@
         <v>129082.71276</v>
       </c>
       <c r="I54" s="22" t="n">
-        <v>178630.56811</v>
+        <v>178984.25448</v>
       </c>
       <c r="J54" s="21" t="n">
         <v>257038.98154</v>
       </c>
       <c r="K54" s="22" t="n">
-        <v>353444.52129</v>
+        <v>353444.5212899999</v>
       </c>
       <c r="L54" s="22" t="n">
-        <v>491163.87735</v>
+        <v>491180.43724</v>
       </c>
       <c r="M54" s="22" t="n">
-        <v>656458.8992599999</v>
-      </c>
-      <c r="N54" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="55" s="70" spans="1:14">
+        <v>656876.51306</v>
+      </c>
+      <c r="N54" s="22" t="n">
+        <v>872836.174</v>
+      </c>
+      <c r="O54" s="10" t="n"/>
+    </row>
+    <row r="55" ht="12.6" customHeight="1" s="70">
       <c r="A55" s="5" t="n"/>
-      <c r="B55" s="61" t="s">
-        <v>53</v>
+      <c r="B55" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Prepaid Taxes and Funds</t>
+        </is>
       </c>
       <c r="C55" s="22" t="n">
-        <v>746.6112300000001</v>
+        <v>746.61123</v>
       </c>
       <c r="D55" s="22" t="n">
         <v>2852.13887</v>
@@ -3505,17 +3205,22 @@
         <v>7391.918720000001</v>
       </c>
       <c r="L55" s="22" t="n">
-        <v>14050.29468</v>
+        <v>14172.8299</v>
       </c>
       <c r="M55" s="22" t="n">
-        <v>6673.364759999999</v>
-      </c>
-      <c r="N55" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="56" s="70" spans="1:14">
+        <v>6826.292359999999</v>
+      </c>
+      <c r="N55" s="22" t="n">
+        <v>32174.62</v>
+      </c>
+      <c r="O55" s="10" t="n"/>
+    </row>
+    <row r="56" ht="12.6" customHeight="1" s="70">
       <c r="A56" s="5" t="n"/>
-      <c r="B56" s="59" t="s">
-        <v>54</v>
+      <c r="B56" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Business Related Advances </t>
+        </is>
       </c>
       <c r="C56" s="22" t="n">
         <v>1742.14544</v>
@@ -3545,17 +3250,22 @@
         <v>1708.96262</v>
       </c>
       <c r="L56" s="22" t="n">
-        <v>966.2631700000001</v>
+        <v>966.2631699999999</v>
       </c>
       <c r="M56" s="22" t="n">
         <v>2414.69352</v>
       </c>
-      <c r="N56" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="57" s="70" spans="1:14">
+      <c r="N56" s="22" t="n">
+        <v>780</v>
+      </c>
+      <c r="O56" s="10" t="n"/>
+    </row>
+    <row r="57" ht="12.6" customHeight="1" s="70">
       <c r="A57" s="5" t="n"/>
-      <c r="B57" s="61" t="s">
-        <v>55</v>
+      <c r="B57" s="61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Advances to employees</t>
+        </is>
       </c>
       <c r="C57" s="22" t="n">
         <v>180.24475</v>
@@ -3585,17 +3295,22 @@
         <v>622.07024</v>
       </c>
       <c r="L57" s="22" t="n">
-        <v>850.63838</v>
+        <v>850.6383799999999</v>
       </c>
       <c r="M57" s="22" t="n">
-        <v>1020.4238</v>
-      </c>
-      <c r="N57" s="10" t="n"/>
-    </row>
-    <row customFormat="1" customHeight="1" ht="12.6" r="58" s="14" spans="1:14">
+        <v>1028.2238</v>
+      </c>
+      <c r="N57" s="22" t="n">
+        <v>1598.967</v>
+      </c>
+      <c r="O57" s="10" t="n"/>
+    </row>
+    <row r="58" ht="12.6" customFormat="1" customHeight="1" s="14">
       <c r="A58" s="5" t="n"/>
-      <c r="B58" s="64" t="s">
-        <v>56</v>
+      <c r="B58" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Stock Taking and Receiving Shortages</t>
+        </is>
       </c>
       <c r="C58" s="22" t="n">
         <v>251.51772</v>
@@ -3630,12 +3345,17 @@
       <c r="M58" s="22" t="n">
         <v>287.83049</v>
       </c>
-      <c r="N58" s="10" t="n"/>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="N58" s="22" t="n">
+        <v>304.906</v>
+      </c>
+      <c r="O58" s="10" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="10" t="n"/>
-      <c r="B59" s="59" t="s">
-        <v>57</v>
+      <c r="B59" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Other </t>
+        </is>
       </c>
       <c r="C59" s="22" t="n">
         <v>1802.40887</v>
@@ -3670,11 +3390,16 @@
       <c r="M59" s="22" t="n">
         <v>223.60821</v>
       </c>
-      <c r="N59" s="10" t="n"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="B60" s="62" t="s">
-        <v>58</v>
+      <c r="N59" s="22" t="n">
+        <v>238.71</v>
+      </c>
+      <c r="O59" s="10" t="n"/>
+    </row>
+    <row r="60">
+      <c r="B60" s="62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Provisions for Other Current Assets (-)</t>
+        </is>
       </c>
       <c r="C60" s="35" t="n">
         <v>251.51771</v>
@@ -3709,18 +3434,23 @@
       <c r="M60" s="35" t="n">
         <v>0</v>
       </c>
-      <c r="N60" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="61" s="70" spans="1:14">
+      <c r="N60" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O60" s="10" t="n"/>
+    </row>
+    <row r="61" ht="12.6" customHeight="1" s="70">
       <c r="A61" s="5" t="n"/>
-      <c r="B61" s="56" t="s">
-        <v>59</v>
+      <c r="B61" s="56" t="inlineStr">
+        <is>
+          <t>II- FIXED ASSETS</t>
+        </is>
       </c>
       <c r="C61" s="36" t="n">
-        <v>767119.5591800001</v>
+        <v>767119.55918</v>
       </c>
       <c r="D61" s="36" t="n">
-        <v>882406.2900199998</v>
+        <v>882406.29002</v>
       </c>
       <c r="E61" s="36" t="n">
         <v>993440.3</v>
@@ -3732,10 +3462,10 @@
         <v>1001816.99633</v>
       </c>
       <c r="H61" s="37" t="n">
-        <v>1238992.67435</v>
+        <v>1239110.66606</v>
       </c>
       <c r="I61" s="36" t="n">
-        <v>1322124.17536</v>
+        <v>1324751.836</v>
       </c>
       <c r="J61" s="37" t="n">
         <v>1477464.11893</v>
@@ -3744,17 +3474,22 @@
         <v>1604818.75312</v>
       </c>
       <c r="L61" s="36" t="n">
-        <v>2090699.71103</v>
+        <v>2113931.16741</v>
       </c>
       <c r="M61" s="36" t="n">
-        <v>2316393.6736</v>
-      </c>
-      <c r="N61" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="62" s="70" spans="1:14">
+        <v>2326018.69111</v>
+      </c>
+      <c r="N61" s="36" t="n">
+        <v>3071073.733</v>
+      </c>
+      <c r="O61" s="10" t="n"/>
+    </row>
+    <row r="62" ht="12.6" customHeight="1" s="70">
       <c r="A62" s="5" t="n"/>
-      <c r="B62" s="60" t="s">
-        <v>60</v>
+      <c r="B62" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Long-Term Trade Receivables</t>
+        </is>
       </c>
       <c r="C62" s="36" t="n">
         <v>449.25433</v>
@@ -3784,17 +3519,22 @@
         <v>3676.96003</v>
       </c>
       <c r="L62" s="36" t="n">
-        <v>2145.94378</v>
+        <v>2146.42766</v>
       </c>
       <c r="M62" s="36" t="n">
-        <v>2536.36545</v>
-      </c>
-      <c r="N62" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="63" s="70" spans="1:14">
+        <v>2544.24299</v>
+      </c>
+      <c r="N62" s="36" t="n">
+        <v>2922.888</v>
+      </c>
+      <c r="O62" s="10" t="n"/>
+    </row>
+    <row r="63" ht="12.6" customHeight="1" s="70">
       <c r="A63" s="5" t="n"/>
-      <c r="B63" s="64" t="s">
-        <v>17</v>
+      <c r="B63" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Customers</t>
+        </is>
       </c>
       <c r="C63" s="22" t="n">
         <v>0</v>
@@ -3829,12 +3569,17 @@
       <c r="M63" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N63" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="64" s="70" spans="1:14">
+      <c r="N63" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O63" s="10" t="n"/>
+    </row>
+    <row r="64" ht="12.6" customHeight="1" s="70">
       <c r="A64" s="5" t="n"/>
-      <c r="B64" s="59" t="s">
-        <v>18</v>
+      <c r="B64" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Receivable</t>
+        </is>
       </c>
       <c r="C64" s="22" t="n">
         <v>0</v>
@@ -3869,12 +3614,17 @@
       <c r="M64" s="22" t="n">
         <v>210.10625</v>
       </c>
-      <c r="N64" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="65" s="70" spans="1:14">
+      <c r="N64" s="22" t="n">
+        <v>210.106</v>
+      </c>
+      <c r="O64" s="10" t="n"/>
+    </row>
+    <row r="65" ht="12.6" customHeight="1" s="70">
       <c r="A65" s="5" t="n"/>
-      <c r="B65" s="64" t="s">
-        <v>19</v>
+      <c r="B65" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C65" s="22" t="n">
         <v>0</v>
@@ -3909,12 +3659,17 @@
       <c r="M65" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N65" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="66" s="70" spans="1:14">
+      <c r="N65" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O65" s="10" t="n"/>
+    </row>
+    <row r="66" ht="12.6" customHeight="1" s="70">
       <c r="A66" s="5" t="n"/>
-      <c r="B66" s="64" t="s">
-        <v>20</v>
+      <c r="B66" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Unearned Financial Leasing Interest (-)</t>
+        </is>
       </c>
       <c r="C66" s="22" t="n">
         <v>0</v>
@@ -3949,18 +3704,23 @@
       <c r="M66" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N66" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="67" s="70" spans="1:14">
+      <c r="N66" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O66" s="10" t="n"/>
+    </row>
+    <row r="67" ht="12.6" customHeight="1" s="70">
       <c r="A67" s="5" t="n"/>
-      <c r="B67" s="59" t="s">
-        <v>21</v>
+      <c r="B67" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Deposits and Guarantees Given</t>
+        </is>
       </c>
       <c r="C67" s="22" t="n">
         <v>449.25433</v>
       </c>
       <c r="D67" s="22" t="n">
-        <v>614.8621000000001</v>
+        <v>614.8620999999999</v>
       </c>
       <c r="E67" s="22" t="n">
         <v>917.9100500000001</v>
@@ -3969,7 +3729,7 @@
         <v>809.2975900000001</v>
       </c>
       <c r="G67" s="22" t="n">
-        <v>754.25918</v>
+        <v>754.2591799999999</v>
       </c>
       <c r="H67" s="21" t="n">
         <v>787.84477</v>
@@ -3984,17 +3744,22 @@
         <v>2998.84261</v>
       </c>
       <c r="L67" s="22" t="n">
-        <v>1934.47226</v>
+        <v>1934.95614</v>
       </c>
       <c r="M67" s="22" t="n">
-        <v>2326.2592</v>
-      </c>
-      <c r="N67" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="68" s="70" spans="1:14">
+        <v>2334.13674</v>
+      </c>
+      <c r="N67" s="22" t="n">
+        <v>2712.782</v>
+      </c>
+      <c r="O67" s="10" t="n"/>
+    </row>
+    <row r="68" ht="12.6" customHeight="1" s="70">
       <c r="A68" s="8" t="n"/>
-      <c r="B68" s="64" t="s">
-        <v>61</v>
+      <c r="B68" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Doubtful Trade Receivables (-)</t>
+        </is>
       </c>
       <c r="C68" s="22" t="n">
         <v>0</v>
@@ -4029,12 +3794,17 @@
       <c r="M68" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N68" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="69" s="70" spans="1:14">
+      <c r="N68" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O68" s="10" t="n"/>
+    </row>
+    <row r="69" ht="12.6" customHeight="1" s="70">
       <c r="A69" s="5" t="n"/>
-      <c r="B69" s="57" t="s">
-        <v>62</v>
+      <c r="B69" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Other Long-Term Receivables</t>
+        </is>
       </c>
       <c r="C69" s="36" t="n">
         <v>1966.01808</v>
@@ -4052,7 +3822,7 @@
         <v>1812.30802</v>
       </c>
       <c r="H69" s="37" t="n">
-        <v>6805.905849999999</v>
+        <v>6805.905850000001</v>
       </c>
       <c r="I69" s="36" t="n">
         <v>2006.2358</v>
@@ -4067,14 +3837,19 @@
         <v>38629.30597</v>
       </c>
       <c r="M69" s="36" t="n">
-        <v>33818.90094</v>
-      </c>
-      <c r="N69" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="70" s="70" spans="1:14">
+        <v>33497.18394</v>
+      </c>
+      <c r="N69" s="36" t="n">
+        <v>22362.285</v>
+      </c>
+      <c r="O69" s="10" t="n"/>
+    </row>
+    <row r="70" ht="12.6" customHeight="1" s="70">
       <c r="A70" s="5" t="n"/>
-      <c r="B70" s="64" t="s">
-        <v>26</v>
+      <c r="B70" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Receivables from Shareholders</t>
+        </is>
       </c>
       <c r="C70" s="22" t="n">
         <v>90.64099</v>
@@ -4109,12 +3884,17 @@
       <c r="M70" s="22" t="n">
         <v>2135.27256</v>
       </c>
-      <c r="N70" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="71" s="70" spans="1:14">
+      <c r="N70" s="22" t="n">
+        <v>875.421</v>
+      </c>
+      <c r="O70" s="10" t="n"/>
+    </row>
+    <row r="71" ht="12.6" customHeight="1" s="70">
       <c r="A71" s="8" t="n"/>
-      <c r="B71" s="59" t="s">
-        <v>27</v>
+      <c r="B71" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Receivables from Participations</t>
+        </is>
       </c>
       <c r="C71" s="22" t="n">
         <v>0</v>
@@ -4149,12 +3929,17 @@
       <c r="M71" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N71" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="72" s="70" spans="1:14">
+      <c r="N71" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O71" s="10" t="n"/>
+    </row>
+    <row r="72" ht="12.6" customHeight="1" s="70">
       <c r="A72" s="5" t="n"/>
-      <c r="B72" s="64" t="s">
-        <v>28</v>
+      <c r="B72" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Receivables from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C72" s="22" t="n">
         <v>0</v>
@@ -4189,12 +3974,17 @@
       <c r="M72" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N72" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="73" s="70" spans="1:14">
+      <c r="N72" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O72" s="10" t="n"/>
+    </row>
+    <row r="73" ht="12.6" customHeight="1" s="70">
       <c r="A73" s="5" t="n"/>
-      <c r="B73" s="64" t="s">
-        <v>29</v>
+      <c r="B73" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Receivables from Employees</t>
+        </is>
       </c>
       <c r="C73" s="22" t="n">
         <v>0.18351</v>
@@ -4229,12 +4019,17 @@
       <c r="M73" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N73" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="74" s="70" spans="1:14">
+      <c r="N73" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O73" s="10" t="n"/>
+    </row>
+    <row r="74" ht="12.6" customHeight="1" s="70">
       <c r="A74" s="5" t="n"/>
-      <c r="B74" s="64" t="s">
-        <v>30</v>
+      <c r="B74" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C74" s="22" t="n">
         <v>1875.19358</v>
@@ -4267,14 +4062,19 @@
         <v>38201.90053</v>
       </c>
       <c r="M74" s="22" t="n">
-        <v>31683.62838</v>
-      </c>
-      <c r="N74" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="75" s="70" spans="1:14">
+        <v>31361.91138</v>
+      </c>
+      <c r="N74" s="22" t="n">
+        <v>21486.864</v>
+      </c>
+      <c r="O74" s="10" t="n"/>
+    </row>
+    <row r="75" ht="12.6" customHeight="1" s="70">
       <c r="A75" s="5" t="n"/>
-      <c r="B75" s="64" t="s">
-        <v>63</v>
+      <c r="B75" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Receivable (-)</t>
+        </is>
       </c>
       <c r="C75" s="22" t="n">
         <v>0</v>
@@ -4309,12 +4109,17 @@
       <c r="M75" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N75" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="76" s="70" spans="1:14">
+      <c r="N75" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O75" s="11" t="n"/>
+    </row>
+    <row r="76" ht="12.6" customHeight="1" s="70">
       <c r="A76" s="8" t="n"/>
-      <c r="B76" s="64" t="s">
-        <v>64</v>
+      <c r="B76" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provis. for Other Doubtful Receivables (-)</t>
+        </is>
       </c>
       <c r="C76" s="22" t="n">
         <v>0</v>
@@ -4349,12 +4154,17 @@
       <c r="M76" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N76" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="77" s="70" spans="1:14">
+      <c r="N76" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O76" s="10" t="n"/>
+    </row>
+    <row r="77" ht="12.6" customHeight="1" s="70">
       <c r="A77" s="5" t="n"/>
-      <c r="B77" s="60" t="s">
-        <v>65</v>
+      <c r="B77" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C77" s="23" t="n">
         <v>171750.66215</v>
@@ -4369,7 +4179,7 @@
         <v>161515.07681</v>
       </c>
       <c r="G77" s="23" t="n">
-        <v>99427.21494000001</v>
+        <v>99427.21493999999</v>
       </c>
       <c r="H77" s="33" t="n">
         <v>153956.19659</v>
@@ -4384,17 +4194,22 @@
         <v>169707.27829</v>
       </c>
       <c r="L77" s="23" t="n">
-        <v>159788.34109</v>
+        <v>178210.45291</v>
       </c>
       <c r="M77" s="23" t="n">
         <v>193493.46891</v>
       </c>
-      <c r="N77" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="78" s="70" spans="1:14">
+      <c r="N77" s="23" t="n">
+        <v>311522.263</v>
+      </c>
+      <c r="O77" s="10" t="n"/>
+    </row>
+    <row r="78" ht="12.6" customHeight="1" s="70">
       <c r="A78" s="5" t="n"/>
-      <c r="B78" s="64" t="s">
-        <v>66</v>
+      <c r="B78" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Non-Marketable Securities</t>
+        </is>
       </c>
       <c r="C78" s="22" t="n">
         <v>85.06138</v>
@@ -4429,12 +4244,17 @@
       <c r="M78" s="22" t="n">
         <v>654.73757</v>
       </c>
-      <c r="N78" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="79" s="70" spans="1:14">
+      <c r="N78" s="22" t="n">
+        <v>418.238</v>
+      </c>
+      <c r="O78" s="10" t="n"/>
+    </row>
+    <row r="79" ht="12.6" customHeight="1" s="70">
       <c r="A79" s="5" t="n"/>
-      <c r="B79" s="59" t="s">
-        <v>67</v>
+      <c r="B79" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Provis.for  non-Marketable Securities (-)</t>
+        </is>
       </c>
       <c r="C79" s="22" t="n">
         <v>0</v>
@@ -4469,18 +4289,23 @@
       <c r="M79" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N79" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="80" s="70" spans="1:14">
+      <c r="N79" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O79" s="10" t="n"/>
+    </row>
+    <row r="80" ht="12.6" customHeight="1" s="70">
       <c r="A80" s="5" t="n"/>
-      <c r="B80" s="59" t="s">
-        <v>68</v>
+      <c r="B80" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Participations</t>
+        </is>
       </c>
       <c r="C80" s="22" t="n">
         <v>38171.74952</v>
       </c>
       <c r="D80" s="22" t="n">
-        <v>38417.94951999999</v>
+        <v>38417.94952</v>
       </c>
       <c r="E80" s="22" t="n">
         <v>50398.96843</v>
@@ -4504,17 +4329,22 @@
         <v>101001.4054</v>
       </c>
       <c r="L80" s="22" t="n">
-        <v>94832.49924999999</v>
+        <v>113254.61107</v>
       </c>
       <c r="M80" s="22" t="n">
         <v>141725.64007</v>
       </c>
-      <c r="N80" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="81" s="70" spans="1:14">
+      <c r="N80" s="22" t="n">
+        <v>245260.945</v>
+      </c>
+      <c r="O80" s="10" t="n"/>
+    </row>
+    <row r="81" ht="12.6" customHeight="1" s="70">
       <c r="A81" s="5" t="n"/>
-      <c r="B81" s="59" t="s">
-        <v>69</v>
+      <c r="B81" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Subscribed Capital to Participations (-)</t>
+        </is>
       </c>
       <c r="C81" s="22" t="n">
         <v>0</v>
@@ -4549,12 +4379,17 @@
       <c r="M81" s="22" t="n">
         <v>440</v>
       </c>
-      <c r="N81" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="82" s="70" spans="1:14">
+      <c r="N81" s="22" t="n">
+        <v>440</v>
+      </c>
+      <c r="O81" s="10" t="n"/>
+    </row>
+    <row r="82" ht="12.6" customHeight="1" s="70">
       <c r="A82" s="8" t="n"/>
-      <c r="B82" s="59" t="s">
-        <v>70</v>
+      <c r="B82" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provis.for Capital Share in Participations (-)</t>
+        </is>
       </c>
       <c r="C82" s="22" t="n">
         <v>0</v>
@@ -4589,12 +4424,17 @@
       <c r="M82" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N82" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="83" s="70" spans="1:14">
+      <c r="N82" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" s="10" t="n"/>
+    </row>
+    <row r="83" ht="12.6" customHeight="1" s="70">
       <c r="A83" s="5" t="n"/>
-      <c r="B83" s="64" t="s">
-        <v>71</v>
+      <c r="B83" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C83" s="22" t="n">
         <v>137832.68625</v>
@@ -4629,12 +4469,17 @@
       <c r="M83" s="22" t="n">
         <v>51553.09127</v>
       </c>
-      <c r="N83" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="84" s="70" spans="1:14">
+      <c r="N83" s="22" t="n">
+        <v>66283.08</v>
+      </c>
+      <c r="O83" s="10" t="n"/>
+    </row>
+    <row r="84" ht="12.6" customHeight="1" s="70">
       <c r="A84" s="5" t="n"/>
-      <c r="B84" s="59" t="s">
-        <v>72</v>
+      <c r="B84" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Subscribed Capital to Affili. Enterprises (-)</t>
+        </is>
       </c>
       <c r="C84" s="22" t="n">
         <v>4338.835</v>
@@ -4669,12 +4514,17 @@
       <c r="M84" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N84" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="85" s="70" spans="1:14">
+      <c r="N84" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O84" s="10" t="n"/>
+    </row>
+    <row r="85" ht="12.6" customHeight="1" s="70">
       <c r="A85" s="5" t="n"/>
-      <c r="B85" s="59" t="s">
-        <v>73</v>
+      <c r="B85" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Provi.for Capital Share in Affili.Enterp. (-)</t>
+        </is>
       </c>
       <c r="C85" s="22" t="n">
         <v>0</v>
@@ -4709,12 +4559,17 @@
       <c r="M85" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N85" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="86" s="70" spans="1:14">
+      <c r="N85" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" s="10" t="n"/>
+    </row>
+    <row r="86" ht="12.6" customHeight="1" s="70">
       <c r="A86" s="5" t="n"/>
-      <c r="B86" s="64" t="s">
-        <v>74</v>
+      <c r="B86" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Fixed Assets</t>
+        </is>
       </c>
       <c r="C86" s="22" t="n">
         <v>0</v>
@@ -4749,12 +4604,17 @@
       <c r="M86" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N86" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="87" s="70" spans="1:14">
+      <c r="N86" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O86" s="11" t="n"/>
+    </row>
+    <row r="87" ht="12.6" customHeight="1" s="70">
       <c r="A87" s="8" t="n"/>
-      <c r="B87" s="59" t="s">
-        <v>75</v>
+      <c r="B87" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Provi. for Other Financial Fixed Assets (-)</t>
+        </is>
       </c>
       <c r="C87" s="22" t="n">
         <v>0</v>
@@ -4789,21 +4649,26 @@
       <c r="M87" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N87" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="88" s="70" spans="1:14">
+      <c r="N87" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O87" s="10" t="n"/>
+    </row>
+    <row r="88" ht="12.6" customHeight="1" s="70">
       <c r="A88" s="8" t="n"/>
-      <c r="B88" s="60" t="s">
-        <v>76</v>
+      <c r="B88" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C88" s="23" t="n">
-        <v>558793.4731600001</v>
+        <v>558793.4731599999</v>
       </c>
       <c r="D88" s="23" t="n">
         <v>655527.1707200001</v>
       </c>
       <c r="E88" s="23" t="n">
-        <v>760300.7486899998</v>
+        <v>760300.7486899999</v>
       </c>
       <c r="F88" s="33" t="n">
         <v>833717.51326</v>
@@ -4812,10 +4677,10 @@
         <v>829378.75301</v>
       </c>
       <c r="H88" s="33" t="n">
-        <v>1002600.9618</v>
+        <v>1002715.98741</v>
       </c>
       <c r="I88" s="23" t="n">
-        <v>1055774.52083</v>
+        <v>1057998.09787</v>
       </c>
       <c r="J88" s="33" t="n">
         <v>1188409.67787</v>
@@ -4824,17 +4689,22 @@
         <v>1295099.94905</v>
       </c>
       <c r="L88" s="23" t="n">
-        <v>1724084.62023</v>
+        <v>1728438.11706</v>
       </c>
       <c r="M88" s="23" t="n">
-        <v>1930093.31455</v>
-      </c>
-      <c r="N88" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="89" s="70" spans="1:14">
+        <v>1940712.33098</v>
+      </c>
+      <c r="N88" s="23" t="n">
+        <v>2560357.313</v>
+      </c>
+      <c r="O88" s="10" t="n"/>
+    </row>
+    <row r="89" ht="12.6" customHeight="1" s="70">
       <c r="A89" s="5" t="n"/>
-      <c r="B89" s="64" t="s">
-        <v>77</v>
+      <c r="B89" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Land</t>
+        </is>
       </c>
       <c r="C89" s="22" t="n">
         <v>30099.83823</v>
@@ -4846,7 +4716,7 @@
         <v>43571.75187000001</v>
       </c>
       <c r="F89" s="21" t="n">
-        <v>54212.55423</v>
+        <v>54212.55422999999</v>
       </c>
       <c r="G89" s="22" t="n">
         <v>53204.05916</v>
@@ -4855,26 +4725,31 @@
         <v>63300.8929</v>
       </c>
       <c r="I89" s="22" t="n">
-        <v>69384.32884999999</v>
+        <v>69895.27884999999</v>
       </c>
       <c r="J89" s="21" t="n">
-        <v>77663.76985000001</v>
+        <v>77663.76985</v>
       </c>
       <c r="K89" s="22" t="n">
         <v>85151.43015</v>
       </c>
       <c r="L89" s="22" t="n">
-        <v>89886.46444</v>
+        <v>89931.40444</v>
       </c>
       <c r="M89" s="22" t="n">
-        <v>86620.72700000001</v>
-      </c>
-      <c r="N89" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="90" s="70" spans="1:14">
+        <v>93860.147</v>
+      </c>
+      <c r="N89" s="22" t="n">
+        <v>166003.377</v>
+      </c>
+      <c r="O89" s="10" t="n"/>
+    </row>
+    <row r="90" ht="12.6" customHeight="1" s="70">
       <c r="A90" s="5" t="n"/>
-      <c r="B90" s="64" t="s">
-        <v>78</v>
+      <c r="B90" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Land Improvements</t>
+        </is>
       </c>
       <c r="C90" s="22" t="n">
         <v>14453.49173</v>
@@ -4904,17 +4779,22 @@
         <v>33331.08045</v>
       </c>
       <c r="L90" s="22" t="n">
-        <v>35322.35161999999</v>
+        <v>35351.85154</v>
       </c>
       <c r="M90" s="22" t="n">
-        <v>36766.01945</v>
-      </c>
-      <c r="N90" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="91" s="70" spans="1:14">
+        <v>36814.34541</v>
+      </c>
+      <c r="N90" s="22" t="n">
+        <v>37144.357</v>
+      </c>
+      <c r="O90" s="10" t="n"/>
+    </row>
+    <row r="91" ht="12.6" customHeight="1" s="70">
       <c r="A91" s="5" t="n"/>
-      <c r="B91" s="64" t="s">
-        <v>79</v>
+      <c r="B91" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Buildings</t>
+        </is>
       </c>
       <c r="C91" s="22" t="n">
         <v>268506.45766</v>
@@ -4926,35 +4806,40 @@
         <v>429188.9854899999</v>
       </c>
       <c r="F91" s="21" t="n">
-        <v>451810.1821799999</v>
+        <v>451810.18218</v>
       </c>
       <c r="G91" s="22" t="n">
-        <v>454283.89064</v>
+        <v>454283.8906399999</v>
       </c>
       <c r="H91" s="21" t="n">
         <v>504870.6477199999</v>
       </c>
       <c r="I91" s="22" t="n">
-        <v>597998.72588</v>
+        <v>600138.6867300001</v>
       </c>
       <c r="J91" s="21" t="n">
-        <v>649368.6096400002</v>
+        <v>649368.60964</v>
       </c>
       <c r="K91" s="22" t="n">
         <v>681630.27234</v>
       </c>
       <c r="L91" s="22" t="n">
-        <v>797885.34322</v>
+        <v>799016.6991500001</v>
       </c>
       <c r="M91" s="22" t="n">
-        <v>881388.12864</v>
-      </c>
-      <c r="N91" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="92" s="70" spans="1:14">
+        <v>885704.26413</v>
+      </c>
+      <c r="N91" s="22" t="n">
+        <v>1040371.061</v>
+      </c>
+      <c r="O91" s="10" t="n"/>
+    </row>
+    <row r="92" ht="12.6" customHeight="1" s="70">
       <c r="A92" s="5" t="n"/>
-      <c r="B92" s="64" t="s">
-        <v>80</v>
+      <c r="B92" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Machinery, Plant &amp; Equipment</t>
+        </is>
       </c>
       <c r="C92" s="22" t="n">
         <v>1135241.67131</v>
@@ -4975,7 +4860,7 @@
         <v>1332538.25887</v>
       </c>
       <c r="I92" s="22" t="n">
-        <v>1344867.18785</v>
+        <v>1346489.20016</v>
       </c>
       <c r="J92" s="21" t="n">
         <v>1478800.37725</v>
@@ -4984,17 +4869,22 @@
         <v>1613415.7979</v>
       </c>
       <c r="L92" s="22" t="n">
-        <v>1782601.88327</v>
+        <v>1783918.51947</v>
       </c>
       <c r="M92" s="22" t="n">
-        <v>2072828.00503</v>
-      </c>
-      <c r="N92" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="93" s="70" spans="1:14">
+        <v>2073301.92796</v>
+      </c>
+      <c r="N92" s="22" t="n">
+        <v>2463660.796</v>
+      </c>
+      <c r="O92" s="10" t="n"/>
+    </row>
+    <row r="93" ht="12.6" customHeight="1" s="70">
       <c r="A93" s="5" t="n"/>
-      <c r="B93" s="64" t="s">
-        <v>81</v>
+      <c r="B93" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Motor Vehicles</t>
+        </is>
       </c>
       <c r="C93" s="22" t="n">
         <v>29450.29953</v>
@@ -5012,10 +4902,10 @@
         <v>33392.86301</v>
       </c>
       <c r="H93" s="21" t="n">
-        <v>38333.51961</v>
+        <v>38446.10116</v>
       </c>
       <c r="I93" s="22" t="n">
-        <v>43102.2099</v>
+        <v>43663.40040999999</v>
       </c>
       <c r="J93" s="21" t="n">
         <v>46131.65473</v>
@@ -5024,17 +4914,22 @@
         <v>52549.18229</v>
       </c>
       <c r="L93" s="22" t="n">
-        <v>59928.24614</v>
+        <v>62372.29153</v>
       </c>
       <c r="M93" s="22" t="n">
-        <v>67910.61709999999</v>
-      </c>
-      <c r="N93" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="94" s="70" spans="1:14">
+        <v>68779.62905000002</v>
+      </c>
+      <c r="N93" s="22" t="n">
+        <v>94496.45699999999</v>
+      </c>
+      <c r="O93" s="10" t="n"/>
+    </row>
+    <row r="94" ht="12.6" customHeight="1" s="70">
       <c r="A94" s="5" t="n"/>
-      <c r="B94" s="59" t="s">
-        <v>82</v>
+      <c r="B94" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Furniture &amp; Fixtures</t>
+        </is>
       </c>
       <c r="C94" s="22" t="n">
         <v>70286.92335</v>
@@ -5052,10 +4947,10 @@
         <v>118372.20614</v>
       </c>
       <c r="H94" s="21" t="n">
-        <v>124798.77957</v>
+        <v>124801.22363</v>
       </c>
       <c r="I94" s="22" t="n">
-        <v>135516.4581</v>
+        <v>136066.44291</v>
       </c>
       <c r="J94" s="21" t="n">
         <v>144297.6679</v>
@@ -5064,17 +4959,22 @@
         <v>160351.89341</v>
       </c>
       <c r="L94" s="22" t="n">
-        <v>181858.0325</v>
+        <v>182318.24717</v>
       </c>
       <c r="M94" s="22" t="n">
-        <v>198197.45314</v>
-      </c>
-      <c r="N94" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="95" s="70" spans="1:14">
+        <v>198963.72713</v>
+      </c>
+      <c r="N94" s="22" t="n">
+        <v>226716.595</v>
+      </c>
+      <c r="O94" s="10" t="n"/>
+    </row>
+    <row r="95" ht="12.6" customHeight="1" s="70">
       <c r="A95" s="5" t="n"/>
-      <c r="B95" s="64" t="s">
-        <v>83</v>
+      <c r="B95" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C95" s="22" t="n">
         <v>2969.56961</v>
@@ -5104,17 +5004,22 @@
         <v>4082.223289999999</v>
       </c>
       <c r="L95" s="22" t="n">
-        <v>6670.27295</v>
+        <v>6670.69499</v>
       </c>
       <c r="M95" s="22" t="n">
-        <v>7047.283659999999</v>
-      </c>
-      <c r="N95" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="96" s="70" spans="1:14">
+        <v>7075.24807</v>
+      </c>
+      <c r="N95" s="22" t="n">
+        <v>7364.409</v>
+      </c>
+      <c r="O95" s="10" t="n"/>
+    </row>
+    <row r="96" ht="12.6" customHeight="1" s="70">
       <c r="A96" s="5" t="n"/>
-      <c r="B96" s="59" t="s">
-        <v>84</v>
+      <c r="B96" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C96" s="22" t="n">
         <v>1093870.27254</v>
@@ -5135,7 +5040,7 @@
         <v>1220981.66673</v>
       </c>
       <c r="I96" s="22" t="n">
-        <v>1239429.71246</v>
+        <v>1242654.9199</v>
       </c>
       <c r="J96" s="21" t="n">
         <v>1330213.11566</v>
@@ -5144,29 +5049,34 @@
         <v>1427768.14641</v>
       </c>
       <c r="L96" s="22" t="n">
-        <v>1560801.78456</v>
+        <v>1561875.40188</v>
       </c>
       <c r="M96" s="22" t="n">
-        <v>1689900.1571</v>
-      </c>
-      <c r="N96" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="97" s="70" spans="1:14">
+        <v>1691558.36416</v>
+      </c>
+      <c r="N96" s="22" t="n">
+        <v>1894680.413</v>
+      </c>
+      <c r="O96" s="10" t="n"/>
+    </row>
+    <row r="97" ht="12.6" customHeight="1" s="70">
       <c r="A97" s="5" t="n"/>
-      <c r="B97" s="64" t="s">
-        <v>85</v>
+      <c r="B97" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Assets in Construction</t>
+        </is>
       </c>
       <c r="C97" s="22" t="n">
         <v>92172.50184</v>
       </c>
       <c r="D97" s="22" t="n">
-        <v>82545.66541</v>
+        <v>82545.66541000002</v>
       </c>
       <c r="E97" s="22" t="n">
         <v>35949.37271</v>
       </c>
       <c r="F97" s="21" t="n">
-        <v>36284.69459</v>
+        <v>36284.69459000001</v>
       </c>
       <c r="G97" s="22" t="n">
         <v>48760.89478</v>
@@ -5175,10 +5085,10 @@
         <v>120922.40823</v>
       </c>
       <c r="I97" s="22" t="n">
-        <v>62416.32053</v>
+        <v>62481.00653</v>
       </c>
       <c r="J97" s="21" t="n">
-        <v>84018.41545999999</v>
+        <v>84018.41546</v>
       </c>
       <c r="K97" s="22" t="n">
         <v>88209.07276000001</v>
@@ -5189,15 +5099,20 @@
       <c r="M97" s="22" t="n">
         <v>255500.96791</v>
       </c>
-      <c r="N97" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="98" s="70" spans="1:14">
+      <c r="N97" s="22" t="n">
+        <v>350802.882</v>
+      </c>
+      <c r="O97" s="11" t="n"/>
+    </row>
+    <row r="98" ht="12.6" customHeight="1" s="70">
       <c r="A98" s="8" t="n"/>
-      <c r="B98" s="64" t="s">
-        <v>86</v>
+      <c r="B98" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      10- Advances Paid</t>
+        </is>
       </c>
       <c r="C98" s="22" t="n">
-        <v>9482.99244</v>
+        <v>9482.992440000002</v>
       </c>
       <c r="D98" s="22" t="n">
         <v>4267.96049</v>
@@ -5209,13 +5124,13 @@
         <v>5569.20697</v>
       </c>
       <c r="G98" s="22" t="n">
-        <v>8458.572360000002</v>
+        <v>8458.57236</v>
       </c>
       <c r="H98" s="21" t="n">
         <v>10450.82865</v>
       </c>
       <c r="I98" s="22" t="n">
-        <v>9403.786029999999</v>
+        <v>9403.786030000001</v>
       </c>
       <c r="J98" s="21" t="n">
         <v>4592.08664</v>
@@ -5227,14 +5142,19 @@
         <v>8019.47996</v>
       </c>
       <c r="M98" s="22" t="n">
-        <v>13734.26972</v>
-      </c>
-      <c r="N98" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="99" s="70" spans="1:14">
+        <v>12270.43848</v>
+      </c>
+      <c r="N98" s="22" t="n">
+        <v>68477.792</v>
+      </c>
+      <c r="O98" s="10" t="n"/>
+    </row>
+    <row r="99" ht="12.6" customHeight="1" s="70">
       <c r="A99" s="5" t="n"/>
-      <c r="B99" s="60" t="s">
-        <v>87</v>
+      <c r="B99" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C99" s="23" t="n">
         <v>27610.48234</v>
@@ -5255,26 +5175,31 @@
         <v>56307.66202</v>
       </c>
       <c r="I99" s="23" t="n">
-        <v>65247.24704</v>
+        <v>65576.05342</v>
       </c>
       <c r="J99" s="33" t="n">
         <v>75544.31686000001</v>
       </c>
       <c r="K99" s="23" t="n">
-        <v>91328.19016</v>
+        <v>91328.19016000001</v>
       </c>
       <c r="L99" s="23" t="n">
-        <v>125831.13832</v>
+        <v>126199.28944</v>
       </c>
       <c r="M99" s="23" t="n">
-        <v>129290.64999</v>
-      </c>
-      <c r="N99" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="100" s="70" spans="1:14">
+        <v>128321.15111</v>
+      </c>
+      <c r="N99" s="23" t="n">
+        <v>142299.117</v>
+      </c>
+      <c r="O99" s="10" t="n"/>
+    </row>
+    <row r="100" ht="12.6" customHeight="1" s="70">
       <c r="A100" s="5" t="n"/>
-      <c r="B100" s="64" t="s">
-        <v>88</v>
+      <c r="B100" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Know-How</t>
+        </is>
       </c>
       <c r="C100" s="22" t="n">
         <v>31079.72347</v>
@@ -5289,13 +5214,13 @@
         <v>55232.01869</v>
       </c>
       <c r="G100" s="22" t="n">
-        <v>57793.39267</v>
+        <v>57793.39267000001</v>
       </c>
       <c r="H100" s="21" t="n">
         <v>57720.32895</v>
       </c>
       <c r="I100" s="22" t="n">
-        <v>60113.88718999999</v>
+        <v>60128.79693</v>
       </c>
       <c r="J100" s="21" t="n">
         <v>66951.0598</v>
@@ -5304,17 +5229,22 @@
         <v>73696.51329999999</v>
       </c>
       <c r="L100" s="22" t="n">
-        <v>104465.63958</v>
+        <v>104525.97237</v>
       </c>
       <c r="M100" s="22" t="n">
-        <v>100469.84368</v>
-      </c>
-      <c r="N100" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="101" s="70" spans="1:14">
+        <v>102039.4723</v>
+      </c>
+      <c r="N100" s="22" t="n">
+        <v>118312.906</v>
+      </c>
+      <c r="O100" s="10" t="n"/>
+    </row>
+    <row r="101" ht="12.6" customHeight="1" s="70">
       <c r="A101" s="5" t="n"/>
-      <c r="B101" s="64" t="s">
-        <v>89</v>
+      <c r="B101" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Goodwill</t>
+        </is>
       </c>
       <c r="C101" s="22" t="n">
         <v>0</v>
@@ -5349,12 +5279,17 @@
       <c r="M101" s="22" t="n">
         <v>482.02994</v>
       </c>
-      <c r="N101" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="102" s="70" spans="1:14">
+      <c r="N101" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" s="10" t="n"/>
+    </row>
+    <row r="102" ht="12.6" customHeight="1" s="70">
       <c r="A102" s="5" t="n"/>
-      <c r="B102" s="59" t="s">
-        <v>90</v>
+      <c r="B102" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Formation and Organisation Expenses</t>
+        </is>
       </c>
       <c r="C102" s="22" t="n">
         <v>6527.014139999999</v>
@@ -5366,10 +5301,10 @@
         <v>6705.599609999999</v>
       </c>
       <c r="F102" s="21" t="n">
-        <v>6228.06386</v>
+        <v>6228.063859999999</v>
       </c>
       <c r="G102" s="22" t="n">
-        <v>5872.03947</v>
+        <v>5872.039470000001</v>
       </c>
       <c r="H102" s="21" t="n">
         <v>5882.85141</v>
@@ -5381,20 +5316,25 @@
         <v>5868.51367</v>
       </c>
       <c r="K102" s="22" t="n">
-        <v>5794.013559999999</v>
+        <v>5794.01356</v>
       </c>
       <c r="L102" s="22" t="n">
-        <v>5791.395100000001</v>
+        <v>5807.567859999999</v>
       </c>
       <c r="M102" s="22" t="n">
-        <v>5802.63939</v>
-      </c>
-      <c r="N102" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="103" s="70" spans="1:14">
+        <v>5815.28765</v>
+      </c>
+      <c r="N102" s="22" t="n">
+        <v>6419.767</v>
+      </c>
+      <c r="O102" s="10" t="n"/>
+    </row>
+    <row r="103" ht="12.6" customHeight="1" s="70">
       <c r="A103" s="8" t="n"/>
-      <c r="B103" s="59" t="s">
-        <v>91</v>
+      <c r="B103" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Research and Development Expenses</t>
+        </is>
       </c>
       <c r="C103" s="22" t="n">
         <v>13841.87852</v>
@@ -5427,14 +5367,19 @@
         <v>73210.90402</v>
       </c>
       <c r="M103" s="22" t="n">
-        <v>97095.35793999999</v>
-      </c>
-      <c r="N103" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="104" s="70" spans="1:14">
+        <v>97095.35794</v>
+      </c>
+      <c r="N103" s="22" t="n">
+        <v>122371.819</v>
+      </c>
+      <c r="O103" s="10" t="n"/>
+    </row>
+    <row r="104" ht="12.6" customHeight="1" s="70">
       <c r="A104" s="5" t="n"/>
-      <c r="B104" s="66" t="s">
-        <v>92</v>
+      <c r="B104" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Expenses</t>
+        </is>
       </c>
       <c r="C104" s="22" t="n">
         <v>10712.89851</v>
@@ -5455,7 +5400,7 @@
         <v>26482.06296</v>
       </c>
       <c r="I104" s="22" t="n">
-        <v>32908.47453</v>
+        <v>33219.6913</v>
       </c>
       <c r="J104" s="21" t="n">
         <v>36197.19089</v>
@@ -5464,17 +5409,22 @@
         <v>43718.41134000001</v>
       </c>
       <c r="L104" s="22" t="n">
-        <v>47064.03869000001</v>
+        <v>47611.76939</v>
       </c>
       <c r="M104" s="22" t="n">
-        <v>58720.04236</v>
-      </c>
-      <c r="N104" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="105" s="70" spans="1:14">
+        <v>56621.76018</v>
+      </c>
+      <c r="N104" s="22" t="n">
+        <v>66215.141</v>
+      </c>
+      <c r="O104" s="10" t="n"/>
+    </row>
+    <row r="105" ht="12.6" customHeight="1" s="70">
       <c r="A105" s="5" t="n"/>
-      <c r="B105" s="66" t="s">
-        <v>93</v>
+      <c r="B105" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other Intangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C105" s="22" t="n">
         <v>38675.9862</v>
@@ -5486,7 +5436,7 @@
         <v>32751.54294</v>
       </c>
       <c r="F105" s="21" t="n">
-        <v>35331.74506000001</v>
+        <v>35331.74506</v>
       </c>
       <c r="G105" s="22" t="n">
         <v>39974.85148</v>
@@ -5495,7 +5445,7 @@
         <v>48518.16976</v>
       </c>
       <c r="I105" s="22" t="n">
-        <v>53858.18473</v>
+        <v>53860.8646</v>
       </c>
       <c r="J105" s="21" t="n">
         <v>58545.7295</v>
@@ -5509,21 +5459,26 @@
       <c r="M105" s="22" t="n">
         <v>82681.29839</v>
       </c>
-      <c r="N105" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="106" s="70" spans="1:14">
+      <c r="N105" s="22" t="n">
+        <v>82014.087</v>
+      </c>
+      <c r="O105" s="10" t="n"/>
+    </row>
+    <row r="106" ht="12.6" customHeight="1" s="70">
       <c r="A106" s="8" t="n"/>
-      <c r="B106" s="67" t="s">
-        <v>94</v>
+      <c r="B106" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Accumulated Depreciation (-)</t>
+        </is>
       </c>
       <c r="C106" s="22" t="n">
-        <v>73227.01850000001</v>
+        <v>73227.01850000002</v>
       </c>
       <c r="D106" s="22" t="n">
         <v>76450.35472</v>
       </c>
       <c r="E106" s="22" t="n">
-        <v>82302.01538000001</v>
+        <v>82302.01538</v>
       </c>
       <c r="F106" s="21" t="n">
         <v>89749.28247999999</v>
@@ -5544,17 +5499,22 @@
         <v>153058.12611</v>
       </c>
       <c r="L106" s="22" t="n">
-        <v>183433.48589</v>
+        <v>183689.57102</v>
       </c>
       <c r="M106" s="22" t="n">
-        <v>215963.56171</v>
-      </c>
-      <c r="N106" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="107" s="70" spans="1:14">
+        <v>216417.05529</v>
+      </c>
+      <c r="N106" s="22" t="n">
+        <v>253079.603</v>
+      </c>
+      <c r="O106" s="10" t="n"/>
+    </row>
+    <row r="107" ht="12.6" customHeight="1" s="70">
       <c r="A107" s="8" t="n"/>
-      <c r="B107" s="66" t="s">
-        <v>95</v>
+      <c r="B107" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Advances Paid</t>
+        </is>
       </c>
       <c r="C107" s="22" t="n">
         <v>0</v>
@@ -5589,12 +5549,17 @@
       <c r="M107" s="22" t="n">
         <v>3</v>
       </c>
-      <c r="N107" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="108" s="70" spans="1:14">
+      <c r="N107" s="22" t="n">
+        <v>45</v>
+      </c>
+      <c r="O107" s="10" t="n"/>
+    </row>
+    <row r="108" ht="12.6" customHeight="1" s="70">
       <c r="A108" s="5" t="n"/>
-      <c r="B108" s="68" t="s">
-        <v>96</v>
+      <c r="B108" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Assets Subject to Depletion</t>
+        </is>
       </c>
       <c r="C108" s="23" t="n">
         <v>1.83174</v>
@@ -5629,12 +5594,17 @@
       <c r="M108" s="23" t="n">
         <v>0</v>
       </c>
-      <c r="N108" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="109" s="70" spans="1:14">
+      <c r="N108" s="23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O108" s="10" t="n"/>
+    </row>
+    <row r="109" ht="12.6" customHeight="1" s="70">
       <c r="A109" s="5" t="n"/>
-      <c r="B109" s="66" t="s">
-        <v>97</v>
+      <c r="B109" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Exploration Expenses</t>
+        </is>
       </c>
       <c r="C109" s="22" t="n">
         <v>0</v>
@@ -5669,12 +5639,17 @@
       <c r="M109" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N109" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="110" s="70" spans="1:14">
+      <c r="N109" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O109" s="10" t="n"/>
+    </row>
+    <row r="110" ht="12.6" customHeight="1" s="70">
       <c r="A110" s="5" t="n"/>
-      <c r="B110" s="64" t="s">
-        <v>98</v>
+      <c r="B110" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Preparation and Development Expenses</t>
+        </is>
       </c>
       <c r="C110" s="22" t="n">
         <v>0</v>
@@ -5709,12 +5684,17 @@
       <c r="M110" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N110" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="111" s="70" spans="1:14">
+      <c r="N110" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O110" s="10" t="n"/>
+    </row>
+    <row r="111" ht="12.6" customHeight="1" s="70">
       <c r="A111" s="5" t="n"/>
-      <c r="B111" s="64" t="s">
-        <v>99</v>
+      <c r="B111" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other Assets subject to Depletion</t>
+        </is>
       </c>
       <c r="C111" s="22" t="n">
         <v>1.83174</v>
@@ -5749,12 +5729,17 @@
       <c r="M111" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N111" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="112" s="70" spans="1:14">
+      <c r="N111" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O111" s="10" t="n"/>
+    </row>
+    <row r="112" ht="12.6" customHeight="1" s="70">
       <c r="A112" s="5" t="n"/>
-      <c r="B112" s="59" t="s">
-        <v>100</v>
+      <c r="B112" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Accumulated Depletion (-)</t>
+        </is>
       </c>
       <c r="C112" s="22" t="n">
         <v>0</v>
@@ -5789,12 +5774,17 @@
       <c r="M112" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N112" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="113" s="70" spans="1:14">
+      <c r="N112" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O112" s="11" t="n"/>
+    </row>
+    <row r="113" ht="12.6" customHeight="1" s="70">
       <c r="A113" s="8" t="n"/>
-      <c r="B113" s="64" t="s">
-        <v>101</v>
+      <c r="B113" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Advances Paid</t>
+        </is>
       </c>
       <c r="C113" s="22" t="n">
         <v>0</v>
@@ -5829,18 +5819,23 @@
       <c r="M113" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N113" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="114" s="70" spans="1:14">
+      <c r="N113" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O113" s="10" t="n"/>
+    </row>
+    <row r="114" ht="12.6" customHeight="1" s="70">
       <c r="A114" s="5" t="n"/>
-      <c r="B114" s="60" t="s">
-        <v>102</v>
+      <c r="B114" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G-Prepaym.&amp; Accrued Inc. for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C114" s="23" t="n">
         <v>5882.409830000001</v>
       </c>
       <c r="D114" s="23" t="n">
-        <v>5729.160279999999</v>
+        <v>5729.160280000001</v>
       </c>
       <c r="E114" s="23" t="n">
         <v>11312.56909</v>
@@ -5852,10 +5847,10 @@
         <v>13626.78742</v>
       </c>
       <c r="H114" s="33" t="n">
-        <v>17585.07703</v>
+        <v>17588.04313</v>
       </c>
       <c r="I114" s="23" t="n">
-        <v>19731.07981</v>
+        <v>19806.35703</v>
       </c>
       <c r="J114" s="33" t="n">
         <v>31998.60399</v>
@@ -5864,23 +5859,28 @@
         <v>31158.49712</v>
       </c>
       <c r="L114" s="23" t="n">
-        <v>38184.153</v>
+        <v>38271.36573</v>
       </c>
       <c r="M114" s="23" t="n">
-        <v>25430.84368</v>
-      </c>
-      <c r="N114" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="115" s="70" spans="1:14">
+        <v>25697.27522</v>
+      </c>
+      <c r="N114" s="23" t="n">
+        <v>28394.866</v>
+      </c>
+      <c r="O114" s="10" t="n"/>
+    </row>
+    <row r="115" ht="12.6" customHeight="1" s="70">
       <c r="A115" s="5" t="n"/>
-      <c r="B115" s="64" t="s">
-        <v>103</v>
+      <c r="B115" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Prepayments for the Next Years</t>
+        </is>
       </c>
       <c r="C115" s="22" t="n">
         <v>5882.409830000001</v>
       </c>
       <c r="D115" s="22" t="n">
-        <v>5729.160279999999</v>
+        <v>5729.16028</v>
       </c>
       <c r="E115" s="22" t="n">
         <v>11312.56909</v>
@@ -5892,10 +5892,10 @@
         <v>13626.78742</v>
       </c>
       <c r="H115" s="21" t="n">
-        <v>17585.07703</v>
+        <v>17588.04313</v>
       </c>
       <c r="I115" s="22" t="n">
-        <v>19731.07981</v>
+        <v>19806.35703</v>
       </c>
       <c r="J115" s="21" t="n">
         <v>31998.60399</v>
@@ -5904,17 +5904,22 @@
         <v>31158.49712</v>
       </c>
       <c r="L115" s="22" t="n">
-        <v>38184.153</v>
+        <v>38271.36573</v>
       </c>
       <c r="M115" s="22" t="n">
-        <v>25430.84368</v>
-      </c>
-      <c r="N115" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="116" s="70" spans="1:14">
+        <v>25697.27522</v>
+      </c>
+      <c r="N115" s="22" t="n">
+        <v>28394.866</v>
+      </c>
+      <c r="O115" s="11" t="n"/>
+    </row>
+    <row r="116" ht="12.6" customHeight="1" s="70">
       <c r="A116" s="8" t="n"/>
-      <c r="B116" s="64" t="s">
-        <v>48</v>
+      <c r="B116" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Income</t>
+        </is>
       </c>
       <c r="C116" s="22" t="n">
         <v>0</v>
@@ -5949,12 +5954,17 @@
       <c r="M116" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N116" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="117" s="70" spans="1:14">
+      <c r="N116" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O116" s="10" t="n"/>
+    </row>
+    <row r="117" ht="12.6" customHeight="1" s="70">
       <c r="A117" s="8" t="n"/>
-      <c r="B117" s="57" t="s">
-        <v>104</v>
+      <c r="B117" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Other Long-Term Assets</t>
+        </is>
       </c>
       <c r="C117" s="23" t="n">
         <v>665.42755</v>
@@ -5987,14 +5997,19 @@
         <v>2036.20864</v>
       </c>
       <c r="M117" s="23" t="n">
-        <v>1730.13008</v>
-      </c>
-      <c r="N117" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="118" s="70" spans="1:14">
+        <v>1753.03796</v>
+      </c>
+      <c r="N117" s="23" t="n">
+        <v>3215.001</v>
+      </c>
+      <c r="O117" s="10" t="n"/>
+    </row>
+    <row r="118" ht="12.6" customHeight="1" s="70">
       <c r="A118" s="5" t="n"/>
-      <c r="B118" s="64" t="s">
-        <v>105</v>
+      <c r="B118" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deductable in the Following Years</t>
+        </is>
       </c>
       <c r="C118" s="22" t="n">
         <v>0.13095</v>
@@ -6029,12 +6044,17 @@
       <c r="M118" s="22" t="n">
         <v>0.06458</v>
       </c>
-      <c r="N118" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="119" s="70" spans="1:14">
+      <c r="N118" s="22" t="n">
+        <v>7.604</v>
+      </c>
+      <c r="O118" s="10" t="n"/>
+    </row>
+    <row r="119" ht="12.6" customHeight="1" s="70">
       <c r="A119" s="5" t="n"/>
-      <c r="B119" s="64" t="s">
-        <v>106</v>
+      <c r="B119" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C119" s="22" t="n">
         <v>138.06536</v>
@@ -6069,12 +6089,17 @@
       <c r="M119" s="22" t="n">
         <v>891.75292</v>
       </c>
-      <c r="N119" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="120" s="70" spans="1:14">
+      <c r="N119" s="22" t="n">
+        <v>1542.466</v>
+      </c>
+      <c r="O119" s="10" t="n"/>
+    </row>
+    <row r="120" ht="12.6" customHeight="1" s="70">
       <c r="A120" s="5" t="n"/>
-      <c r="B120" s="64" t="s">
-        <v>107</v>
+      <c r="B120" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Inventory Held for the Next Years</t>
+        </is>
       </c>
       <c r="C120" s="22" t="n">
         <v>0</v>
@@ -6109,12 +6134,17 @@
       <c r="M120" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N120" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="121" s="70" spans="1:14">
+      <c r="N120" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" s="10" t="n"/>
+    </row>
+    <row r="121" ht="12.6" customHeight="1" s="70">
       <c r="A121" s="5" t="n"/>
-      <c r="B121" s="64" t="s">
-        <v>108</v>
+      <c r="B121" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Inventories and Tang.Fixed Assets to be Sold</t>
+        </is>
       </c>
       <c r="C121" s="22" t="n">
         <v>34.85833</v>
@@ -6149,12 +6179,17 @@
       <c r="M121" s="22" t="n">
         <v>102.58378</v>
       </c>
-      <c r="N121" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="122" s="70" spans="1:14">
+      <c r="N121" s="22" t="n">
+        <v>872.5700000000001</v>
+      </c>
+      <c r="O121" s="10" t="n"/>
+    </row>
+    <row r="122" ht="12.6" customHeight="1" s="70">
       <c r="A122" s="5" t="n"/>
-      <c r="B122" s="59" t="s">
-        <v>109</v>
+      <c r="B122" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Prepaid taxes and funds</t>
+        </is>
       </c>
       <c r="C122" s="22" t="n">
         <v>0</v>
@@ -6189,12 +6224,17 @@
       <c r="M122" s="22" t="n">
         <v>178.84681</v>
       </c>
-      <c r="N122" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="123" s="70" spans="1:14">
+      <c r="N122" s="22" t="n">
+        <v>567.097</v>
+      </c>
+      <c r="O122" s="10" t="n"/>
+    </row>
+    <row r="123" ht="12.6" customHeight="1" s="70">
       <c r="A123" s="5" t="n"/>
-      <c r="B123" s="59" t="s">
-        <v>110</v>
+      <c r="B123" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Other </t>
+        </is>
       </c>
       <c r="C123" s="22" t="n">
         <v>492.37291</v>
@@ -6229,12 +6269,17 @@
       <c r="M123" s="22" t="n">
         <v>544.64287</v>
       </c>
-      <c r="N123" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="124" s="70" spans="1:14">
+      <c r="N123" s="22" t="n">
+        <v>541.067</v>
+      </c>
+      <c r="O123" s="10" t="n"/>
+    </row>
+    <row r="124" ht="12.6" customHeight="1" s="70">
       <c r="A124" s="5" t="n"/>
-      <c r="B124" s="59" t="s">
-        <v>111</v>
+      <c r="B124" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Provisions for  inventories (-)</t>
+        </is>
       </c>
       <c r="C124" s="22" t="n">
         <v>0</v>
@@ -6269,12 +6314,17 @@
       <c r="M124" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N124" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="125" s="70" spans="1:14">
+      <c r="N124" s="22" t="n">
+        <v>795.734</v>
+      </c>
+      <c r="O124" s="11" t="n"/>
+    </row>
+    <row r="125" ht="12.6" customHeight="1" s="70">
       <c r="A125" s="8" t="n"/>
-      <c r="B125" s="59" t="s">
-        <v>112</v>
+      <c r="B125" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Accumulated depreciation (-)</t>
+        </is>
       </c>
       <c r="C125" s="22" t="n">
         <v>0</v>
@@ -6309,12 +6359,17 @@
       <c r="M125" s="22" t="n">
         <v>319.43271</v>
       </c>
-      <c r="N125" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="126" s="70" spans="1:14">
+      <c r="N125" s="22" t="n">
+        <v>76.836</v>
+      </c>
+      <c r="O125" s="10" t="n"/>
+    </row>
+    <row r="126" ht="12.6" customHeight="1" s="70">
       <c r="A126" s="8" t="n"/>
-      <c r="B126" s="59" t="s">
-        <v>113</v>
+      <c r="B126" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Suspence Account</t>
+        </is>
       </c>
       <c r="C126" s="22" t="n">
         <v>0</v>
@@ -6344,17 +6399,22 @@
         <v>557.3129</v>
       </c>
       <c r="L126" s="22" t="n">
-        <v>825.7404300000001</v>
+        <v>825.7404299999999</v>
       </c>
       <c r="M126" s="22" t="n">
-        <v>331.67183</v>
-      </c>
-      <c r="N126" s="10" t="n"/>
-    </row>
-    <row r="127" spans="1:14">
+        <v>354.57971</v>
+      </c>
+      <c r="N126" s="22" t="n">
+        <v>556.7670000000001</v>
+      </c>
+      <c r="O126" s="10" t="n"/>
+    </row>
+    <row r="127">
       <c r="A127" s="8" t="n"/>
-      <c r="B127" s="38" t="s">
-        <v>114</v>
+      <c r="B127" s="38" t="inlineStr">
+        <is>
+          <t>TOTAL ASSETS</t>
+        </is>
       </c>
       <c r="C127" s="23" t="n">
         <v>1622230.82044</v>
@@ -6372,10 +6432,10 @@
         <v>2944108.00447</v>
       </c>
       <c r="H127" s="33" t="n">
-        <v>3220849.10841</v>
+        <v>3222038.20117</v>
       </c>
       <c r="I127" s="23" t="n">
-        <v>3465744.54791</v>
+        <v>3476321.008489999</v>
       </c>
       <c r="J127" s="33" t="n">
         <v>3971363.90091</v>
@@ -6384,14 +6444,17 @@
         <v>4671821.628140001</v>
       </c>
       <c r="L127" s="23" t="n">
-        <v>5810367.36011</v>
+        <v>5854687.7974</v>
       </c>
       <c r="M127" s="23" t="n">
-        <v>6991591.06501</v>
-      </c>
-      <c r="N127" s="1" t="n"/>
-    </row>
-    <row r="128" spans="1:14">
+        <v>7052950.582330001</v>
+      </c>
+      <c r="N127" s="23" t="n">
+        <v>9300792.560000001</v>
+      </c>
+      <c r="O127" s="1" t="n"/>
+    </row>
+    <row r="128">
       <c r="A128" s="18" t="n"/>
       <c r="B128" s="39" t="n"/>
       <c r="C128" s="40" t="n"/>
@@ -6405,11 +6468,14 @@
       <c r="K128" s="40" t="n"/>
       <c r="L128" s="40" t="n"/>
       <c r="M128" s="40" t="n"/>
-      <c r="N128" s="1" t="n"/>
-    </row>
-    <row r="129" spans="1:14">
-      <c r="A129" s="4" t="s">
-        <v>0</v>
+      <c r="N128" s="40" t="n"/>
+      <c r="O128" s="1" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="4" t="inlineStr">
+        <is>
+          <t>234-Manufacture of other porcelain and ceramic products</t>
+        </is>
       </c>
       <c r="B129" s="29" t="n"/>
       <c r="C129" s="29" t="n"/>
@@ -6423,11 +6489,14 @@
       <c r="K129" s="29" t="n"/>
       <c r="L129" s="29" t="n"/>
       <c r="M129" s="29" t="n"/>
-      <c r="N129" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="130" s="70" spans="1:14">
-      <c r="A130" s="4" t="s">
-        <v>1</v>
+      <c r="N129" s="29" t="n"/>
+      <c r="O129" s="10" t="n"/>
+    </row>
+    <row r="130" ht="12.6" customHeight="1" s="70">
+      <c r="A130" s="4" t="inlineStr">
+        <is>
+          <t>BALANCE SHEET (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="B130" s="63" t="n"/>
       <c r="C130" s="29" t="n"/>
@@ -6441,12 +6510,15 @@
       <c r="K130" s="29" t="n"/>
       <c r="L130" s="29" t="n"/>
       <c r="M130" s="29" t="n"/>
-      <c r="N130" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="25.5" r="131" s="70" spans="1:14">
+      <c r="N130" s="29" t="n"/>
+      <c r="O130" s="11" t="n"/>
+    </row>
+    <row r="131" ht="25.5" customHeight="1" s="70">
       <c r="A131" s="19" t="n"/>
-      <c r="B131" s="42" t="s">
-        <v>115</v>
+      <c r="B131" s="42" t="inlineStr">
+        <is>
+          <t>LIABILITIES</t>
+        </is>
       </c>
       <c r="C131" s="44" t="n">
         <v>2009</v>
@@ -6481,12 +6553,17 @@
       <c r="M131" s="31" t="n">
         <v>2019</v>
       </c>
-      <c r="N131" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="132" s="70" spans="1:14">
+      <c r="N131" s="31" t="n">
+        <v>2020</v>
+      </c>
+      <c r="O131" s="11" t="n"/>
+    </row>
+    <row r="132" ht="12.6" customHeight="1" s="70">
       <c r="A132" s="8" t="n"/>
-      <c r="B132" s="56" t="s">
-        <v>116</v>
+      <c r="B132" s="56" t="inlineStr">
+        <is>
+          <t>I- SHORT-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C132" s="23" t="n">
         <v>633192.6911300001</v>
@@ -6495,7 +6572,7 @@
         <v>662939.21936</v>
       </c>
       <c r="E132" s="23" t="n">
-        <v>991524.6619300001</v>
+        <v>991524.6619299999</v>
       </c>
       <c r="F132" s="33" t="n">
         <v>1136817.80185</v>
@@ -6504,10 +6581,10 @@
         <v>1389466.36121</v>
       </c>
       <c r="H132" s="33" t="n">
-        <v>1364714.6413</v>
+        <v>1365643.85645</v>
       </c>
       <c r="I132" s="23" t="n">
-        <v>1550891.72975</v>
+        <v>1554488.68459</v>
       </c>
       <c r="J132" s="33" t="n">
         <v>1897472.29122</v>
@@ -6516,17 +6593,22 @@
         <v>2222657.23073</v>
       </c>
       <c r="L132" s="23" t="n">
-        <v>2963165.28363</v>
+        <v>2979893.32965</v>
       </c>
       <c r="M132" s="23" t="n">
-        <v>3743408.20528</v>
-      </c>
-      <c r="N132" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="133" s="70" spans="1:14">
+        <v>3799978.54269</v>
+      </c>
+      <c r="N132" s="23" t="n">
+        <v>4593715.764</v>
+      </c>
+      <c r="O132" s="10" t="n"/>
+    </row>
+    <row r="133" ht="12.6" customHeight="1" s="70">
       <c r="A133" s="5" t="n"/>
-      <c r="B133" s="60" t="s">
-        <v>117</v>
+      <c r="B133" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C133" s="23" t="n">
         <v>127033.78581</v>
@@ -6547,7 +6629,7 @@
         <v>206458.32284</v>
       </c>
       <c r="I133" s="23" t="n">
-        <v>324576.1462</v>
+        <v>325150.8353</v>
       </c>
       <c r="J133" s="33" t="n">
         <v>395625.40974</v>
@@ -6556,23 +6638,28 @@
         <v>435933.39019</v>
       </c>
       <c r="L133" s="23" t="n">
-        <v>698327.74142</v>
+        <v>699367.52305</v>
       </c>
       <c r="M133" s="23" t="n">
-        <v>736351.79992</v>
-      </c>
-      <c r="N133" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="134" s="70" spans="1:14">
+        <v>737313.64526</v>
+      </c>
+      <c r="N133" s="23" t="n">
+        <v>1000864.607</v>
+      </c>
+      <c r="O133" s="10" t="n"/>
+    </row>
+    <row r="134" ht="12.6" customHeight="1" s="70">
       <c r="A134" s="5" t="n"/>
-      <c r="B134" s="64" t="s">
-        <v>118</v>
+      <c r="B134" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C134" s="22" t="n">
         <v>123647.41626</v>
       </c>
       <c r="D134" s="22" t="n">
-        <v>91813.98042000002</v>
+        <v>91813.98042000001</v>
       </c>
       <c r="E134" s="22" t="n">
         <v>127614.35805</v>
@@ -6587,7 +6674,7 @@
         <v>168223.45048</v>
       </c>
       <c r="I134" s="22" t="n">
-        <v>270891.64158</v>
+        <v>271466.33068</v>
       </c>
       <c r="J134" s="21" t="n">
         <v>362254.31382</v>
@@ -6596,17 +6683,22 @@
         <v>374147.40714</v>
       </c>
       <c r="L134" s="22" t="n">
-        <v>610399.41597</v>
+        <v>611417.30236</v>
       </c>
       <c r="M134" s="22" t="n">
-        <v>624144.80426</v>
-      </c>
-      <c r="N134" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="135" s="70" spans="1:14">
+        <v>625106.6496</v>
+      </c>
+      <c r="N134" s="22" t="n">
+        <v>861291.654</v>
+      </c>
+      <c r="O134" s="10" t="n"/>
+    </row>
+    <row r="135" ht="12.6" customHeight="1" s="70">
       <c r="A135" s="5" t="n"/>
-      <c r="B135" s="64" t="s">
-        <v>119</v>
+      <c r="B135" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C135" s="22" t="n">
         <v>316.5896</v>
@@ -6621,7 +6713,7 @@
         <v>1162.38767</v>
       </c>
       <c r="G135" s="22" t="n">
-        <v>4680.116220000001</v>
+        <v>4680.11622</v>
       </c>
       <c r="H135" s="21" t="n">
         <v>2132.35557</v>
@@ -6641,12 +6733,17 @@
       <c r="M135" s="22" t="n">
         <v>1055.45484</v>
       </c>
-      <c r="N135" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="136" s="70" spans="1:14">
+      <c r="N135" s="22" t="n">
+        <v>30.104</v>
+      </c>
+      <c r="O135" s="10" t="n"/>
+    </row>
+    <row r="136" ht="12.6" customHeight="1" s="70">
       <c r="A136" s="5" t="n"/>
-      <c r="B136" s="64" t="s">
-        <v>120</v>
+      <c r="B136" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C136" s="22" t="n">
         <v>92.27963000000001</v>
@@ -6681,12 +6778,17 @@
       <c r="M136" s="22" t="n">
         <v>14.51905</v>
       </c>
-      <c r="N136" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="137" s="70" spans="1:14">
+      <c r="N136" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O136" s="10" t="n"/>
+    </row>
+    <row r="137" ht="12.6" customHeight="1" s="70">
       <c r="A137" s="5" t="n"/>
-      <c r="B137" s="59" t="s">
-        <v>121</v>
+      <c r="B137" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Princip.Installm.&amp; Int.Paym.of Long-Term Loans</t>
+        </is>
       </c>
       <c r="C137" s="22" t="n">
         <v>2303.58091</v>
@@ -6695,7 +6797,7 @@
         <v>3087.96147</v>
       </c>
       <c r="E137" s="22" t="n">
-        <v>8121.399370000001</v>
+        <v>8121.39937</v>
       </c>
       <c r="F137" s="21" t="n">
         <v>9225.280439999999</v>
@@ -6713,20 +6815,25 @@
         <v>30022.56569</v>
       </c>
       <c r="K137" s="22" t="n">
-        <v>58462.58923</v>
+        <v>58462.58923000001</v>
       </c>
       <c r="L137" s="22" t="n">
-        <v>81511.8882</v>
+        <v>81516.29045</v>
       </c>
       <c r="M137" s="22" t="n">
         <v>109020.14026</v>
       </c>
-      <c r="N137" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="138" s="70" spans="1:14">
+      <c r="N137" s="22" t="n">
+        <v>136219.556</v>
+      </c>
+      <c r="O137" s="10" t="n"/>
+    </row>
+    <row r="138" ht="12.6" customHeight="1" s="70">
       <c r="A138" s="5" t="n"/>
-      <c r="B138" s="59" t="s">
-        <v>122</v>
+      <c r="B138" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Principal Installm.&amp; Int.Paym.of  Bonds</t>
+        </is>
       </c>
       <c r="C138" s="22" t="n">
         <v>0</v>
@@ -6761,12 +6868,17 @@
       <c r="M138" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N138" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="139" s="70" spans="1:14">
+      <c r="N138" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O138" s="10" t="n"/>
+    </row>
+    <row r="139" ht="12.6" customHeight="1" s="70">
       <c r="A139" s="5" t="n"/>
-      <c r="B139" s="59" t="s">
-        <v>123</v>
+      <c r="B139" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Commercial Papers Issued</t>
+        </is>
       </c>
       <c r="C139" s="22" t="n">
         <v>0</v>
@@ -6801,12 +6913,17 @@
       <c r="M139" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N139" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="140" s="70" spans="1:14">
+      <c r="N139" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O139" s="10" t="n"/>
+    </row>
+    <row r="140" ht="12.6" customHeight="1" s="70">
       <c r="A140" s="8" t="n"/>
-      <c r="B140" s="59" t="s">
-        <v>124</v>
+      <c r="B140" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C140" s="22" t="n">
         <v>0</v>
@@ -6841,12 +6958,17 @@
       <c r="M140" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N140" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="141" s="70" spans="1:14">
+      <c r="N140" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O140" s="10" t="n"/>
+    </row>
+    <row r="141" ht="12.6" customHeight="1" s="70">
       <c r="A141" s="5" t="n"/>
-      <c r="B141" s="59" t="s">
-        <v>125</v>
+      <c r="B141" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       8- Adjust.for Secur.Issued under Par Value (-)</t>
+        </is>
       </c>
       <c r="C141" s="22" t="n">
         <v>0</v>
@@ -6881,15 +7003,20 @@
       <c r="M141" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N141" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="142" s="70" spans="1:14">
+      <c r="N141" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O141" s="11" t="n"/>
+    </row>
+    <row r="142" ht="12.6" customHeight="1" s="70">
       <c r="A142" s="8" t="n"/>
-      <c r="B142" s="59" t="s">
-        <v>126</v>
+      <c r="B142" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       9- Other Financial Liabilities</t>
+        </is>
       </c>
       <c r="C142" s="22" t="n">
-        <v>858.4786700000001</v>
+        <v>858.47867</v>
       </c>
       <c r="D142" s="22" t="n">
         <v>494.61628</v>
@@ -6916,57 +7043,67 @@
         <v>2164.57876</v>
       </c>
       <c r="L142" s="22" t="n">
-        <v>2971.67575</v>
+        <v>2989.16874</v>
       </c>
       <c r="M142" s="22" t="n">
         <v>2145.91961</v>
       </c>
-      <c r="N142" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="143" s="70" spans="1:14">
+      <c r="N142" s="22" t="n">
+        <v>3323.293</v>
+      </c>
+      <c r="O142" s="10" t="n"/>
+    </row>
+    <row r="143" ht="12.6" customHeight="1" s="70">
       <c r="A143" s="8" t="n"/>
-      <c r="B143" s="60" t="s">
-        <v>127</v>
+      <c r="B143" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C143" s="46" t="n">
         <v>316640.65343</v>
       </c>
       <c r="D143" s="46" t="n">
-        <v>327628.8551099999</v>
+        <v>327628.85511</v>
       </c>
       <c r="E143" s="46" t="n">
         <v>581304.1954</v>
       </c>
       <c r="F143" s="45" t="n">
-        <v>612375.28024</v>
+        <v>612375.2802399999</v>
       </c>
       <c r="G143" s="46" t="n">
-        <v>676019.5909900002</v>
+        <v>676019.5909900001</v>
       </c>
       <c r="H143" s="45" t="n">
-        <v>619898.6065499999</v>
+        <v>620790.4077599999</v>
       </c>
       <c r="I143" s="46" t="n">
-        <v>610384.23249</v>
+        <v>612707.8084600001</v>
       </c>
       <c r="J143" s="45" t="n">
-        <v>675008.22441</v>
+        <v>675008.2244100001</v>
       </c>
       <c r="K143" s="46" t="n">
-        <v>789488.56721</v>
+        <v>789488.5672099999</v>
       </c>
       <c r="L143" s="46" t="n">
-        <v>1136409.12173</v>
+        <v>1145834.10594</v>
       </c>
       <c r="M143" s="46" t="n">
-        <v>1395166.5758</v>
-      </c>
-      <c r="N143" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="144" s="70" spans="1:14">
+        <v>1434760.60678</v>
+      </c>
+      <c r="N143" s="46" t="n">
+        <v>1572051.883</v>
+      </c>
+      <c r="O143" s="10" t="n"/>
+    </row>
+    <row r="144" ht="12.6" customHeight="1" s="70">
       <c r="A144" s="8" t="n"/>
-      <c r="B144" s="64" t="s">
-        <v>128</v>
+      <c r="B144" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C144" s="25" t="n">
         <v>157373.51243</v>
@@ -6984,10 +7121,10 @@
         <v>336933.47057</v>
       </c>
       <c r="H144" s="24" t="n">
-        <v>410675.77448</v>
+        <v>411567.5756900001</v>
       </c>
       <c r="I144" s="25" t="n">
-        <v>352218.34449</v>
+        <v>353440.56193</v>
       </c>
       <c r="J144" s="24" t="n">
         <v>439082.02146</v>
@@ -6996,17 +7133,22 @@
         <v>528178.43836</v>
       </c>
       <c r="L144" s="25" t="n">
-        <v>690931.08545</v>
+        <v>698417.46318</v>
       </c>
       <c r="M144" s="25" t="n">
-        <v>779896.34555</v>
-      </c>
-      <c r="N144" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="145" s="70" spans="1:14">
+        <v>817799.32189</v>
+      </c>
+      <c r="N144" s="25" t="n">
+        <v>1024218.696</v>
+      </c>
+      <c r="O144" s="10" t="n"/>
+    </row>
+    <row r="145" ht="12.6" customHeight="1" s="70">
       <c r="A145" s="5" t="n"/>
-      <c r="B145" s="64" t="s">
-        <v>129</v>
+      <c r="B145" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C145" s="25" t="n">
         <v>19003.92322</v>
@@ -7018,16 +7160,16 @@
         <v>32097.71119</v>
       </c>
       <c r="F145" s="24" t="n">
-        <v>36552.72156</v>
+        <v>36552.72156000001</v>
       </c>
       <c r="G145" s="25" t="n">
-        <v>37167.14465</v>
+        <v>37167.14465000001</v>
       </c>
       <c r="H145" s="24" t="n">
         <v>53249.22253</v>
       </c>
       <c r="I145" s="25" t="n">
-        <v>84642.28748999999</v>
+        <v>85740.33852</v>
       </c>
       <c r="J145" s="24" t="n">
         <v>92681.56105000002</v>
@@ -7036,26 +7178,31 @@
         <v>95940.17306999999</v>
       </c>
       <c r="L145" s="25" t="n">
-        <v>118282.11327</v>
+        <v>120177.90632</v>
       </c>
       <c r="M145" s="25" t="n">
-        <v>111767.37947</v>
-      </c>
-      <c r="N145" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="146" s="70" spans="1:14">
+        <v>113306.42049</v>
+      </c>
+      <c r="N145" s="25" t="n">
+        <v>163424.081</v>
+      </c>
+      <c r="O145" s="10" t="n"/>
+    </row>
+    <row r="146" ht="12.6" customHeight="1" s="70">
       <c r="A146" s="5" t="n"/>
-      <c r="B146" s="64" t="s">
-        <v>130</v>
+      <c r="B146" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C146" s="25" t="n">
-        <v>45.86126</v>
+        <v>45.86125999999999</v>
       </c>
       <c r="D146" s="25" t="n">
         <v>42.89524</v>
       </c>
       <c r="E146" s="25" t="n">
-        <v>63.19668</v>
+        <v>63.19667999999999</v>
       </c>
       <c r="F146" s="24" t="n">
         <v>42.89524</v>
@@ -7081,12 +7228,17 @@
       <c r="M146" s="25" t="n">
         <v>324.80424</v>
       </c>
-      <c r="N146" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="147" s="70" spans="1:14">
+      <c r="N146" s="25" t="n">
+        <v>192.229</v>
+      </c>
+      <c r="O146" s="10" t="n"/>
+    </row>
+    <row r="147" ht="12.6" customHeight="1" s="70">
       <c r="A147" s="5" t="n"/>
-      <c r="B147" s="64" t="s">
-        <v>131</v>
+      <c r="B147" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C147" s="25" t="n">
         <v>154.23242</v>
@@ -7121,12 +7273,17 @@
       <c r="M147" s="25" t="n">
         <v>544.53614</v>
       </c>
-      <c r="N147" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="148" s="70" spans="1:14">
+      <c r="N147" s="25" t="n">
+        <v>939.268</v>
+      </c>
+      <c r="O147" s="11" t="n"/>
+    </row>
+    <row r="148" ht="12.6" customHeight="1" s="70">
       <c r="A148" s="8" t="n"/>
-      <c r="B148" s="59" t="s">
-        <v>132</v>
+      <c r="B148" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C148" s="25" t="n">
         <v>140154.84662</v>
@@ -7138,7 +7295,7 @@
         <v>272742.51556</v>
       </c>
       <c r="F148" s="24" t="n">
-        <v>304964.9135800001</v>
+        <v>304964.91358</v>
       </c>
       <c r="G148" s="25" t="n">
         <v>301952.79379</v>
@@ -7147,7 +7304,7 @@
         <v>156014.2306</v>
       </c>
       <c r="I148" s="25" t="n">
-        <v>173667.8799</v>
+        <v>173671.1874</v>
       </c>
       <c r="J148" s="24" t="n">
         <v>142560.18699</v>
@@ -7156,17 +7313,22 @@
         <v>164743.9698</v>
       </c>
       <c r="L148" s="25" t="n">
-        <v>326815.56274</v>
+        <v>326858.37617</v>
       </c>
       <c r="M148" s="25" t="n">
-        <v>503283.1188799999</v>
-      </c>
-      <c r="N148" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="149" s="70" spans="1:14">
+        <v>503435.1325</v>
+      </c>
+      <c r="N148" s="25" t="n">
+        <v>383662.067</v>
+      </c>
+      <c r="O148" s="10" t="n"/>
+    </row>
+    <row r="149" ht="12.6" customHeight="1" s="70">
       <c r="A149" s="8" t="n"/>
-      <c r="B149" s="57" t="s">
-        <v>133</v>
+      <c r="B149" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Short-Term Debts</t>
+        </is>
       </c>
       <c r="C149" s="23" t="n">
         <v>73020.04820999999</v>
@@ -7184,10 +7346,10 @@
         <v>81914.43446999999</v>
       </c>
       <c r="H149" s="33" t="n">
-        <v>90613.13055</v>
+        <v>90619.93097000002</v>
       </c>
       <c r="I149" s="23" t="n">
-        <v>116641.04673</v>
+        <v>116747.20792</v>
       </c>
       <c r="J149" s="33" t="n">
         <v>153613.24199</v>
@@ -7196,17 +7358,22 @@
         <v>173467.35338</v>
       </c>
       <c r="L149" s="23" t="n">
-        <v>203832.73925</v>
+        <v>208009.33653</v>
       </c>
       <c r="M149" s="23" t="n">
-        <v>268113.27072</v>
-      </c>
-      <c r="N149" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="150" s="70" spans="1:14">
+        <v>266070.5148</v>
+      </c>
+      <c r="N149" s="23" t="n">
+        <v>330079.352</v>
+      </c>
+      <c r="O149" s="10" t="n"/>
+    </row>
+    <row r="150" ht="12.6" customHeight="1" s="70">
       <c r="A150" s="5" t="n"/>
-      <c r="B150" s="59" t="s">
-        <v>134</v>
+      <c r="B150" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C150" s="22" t="n">
         <v>41159.78707</v>
@@ -7227,7 +7394,7 @@
         <v>59292.43694</v>
       </c>
       <c r="I150" s="22" t="n">
-        <v>75667.74667000001</v>
+        <v>75714.95233</v>
       </c>
       <c r="J150" s="21" t="n">
         <v>103273.16205</v>
@@ -7236,17 +7403,22 @@
         <v>131202.93749</v>
       </c>
       <c r="L150" s="22" t="n">
-        <v>142726.04961</v>
+        <v>146147.54282</v>
       </c>
       <c r="M150" s="22" t="n">
-        <v>187726.44044</v>
-      </c>
-      <c r="N150" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="151" s="70" spans="1:14">
+        <v>184777.96024</v>
+      </c>
+      <c r="N150" s="22" t="n">
+        <v>240082.107</v>
+      </c>
+      <c r="O150" s="10" t="n"/>
+    </row>
+    <row r="151" ht="12.6" customHeight="1" s="70">
       <c r="A151" s="5" t="n"/>
-      <c r="B151" s="59" t="s">
-        <v>135</v>
+      <c r="B151" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C151" s="22" t="n">
         <v>69.92496000000001</v>
@@ -7281,12 +7453,17 @@
       <c r="M151" s="22" t="n">
         <v>4109.57923</v>
       </c>
-      <c r="N151" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="152" s="70" spans="1:14">
+      <c r="N151" s="22" t="n">
+        <v>2818.33</v>
+      </c>
+      <c r="O151" s="10" t="n"/>
+    </row>
+    <row r="152" ht="12.6" customHeight="1" s="70">
       <c r="A152" s="5" t="n"/>
-      <c r="B152" s="59" t="s">
-        <v>136</v>
+      <c r="B152" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C152" s="22" t="n">
         <v>0</v>
@@ -7319,14 +7496,19 @@
         <v>3183.18272</v>
       </c>
       <c r="M152" s="22" t="n">
-        <v>1519.07532</v>
-      </c>
-      <c r="N152" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="153" s="70" spans="1:14">
+        <v>1570.78316</v>
+      </c>
+      <c r="N152" s="22" t="n">
+        <v>1718.036</v>
+      </c>
+      <c r="O152" s="10" t="n"/>
+    </row>
+    <row r="153" ht="12.6" customHeight="1" s="70">
       <c r="A153" s="5" t="n"/>
-      <c r="B153" s="59" t="s">
-        <v>137</v>
+      <c r="B153" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Amounts Owed to Employees</t>
+        </is>
       </c>
       <c r="C153" s="22" t="n">
         <v>10934.95718</v>
@@ -7344,10 +7526,10 @@
         <v>17555.28409</v>
       </c>
       <c r="H153" s="21" t="n">
-        <v>21005.46408</v>
+        <v>21012.2645</v>
       </c>
       <c r="I153" s="22" t="n">
-        <v>23248.72207</v>
+        <v>23307.6776</v>
       </c>
       <c r="J153" s="21" t="n">
         <v>30113.80041</v>
@@ -7356,17 +7538,22 @@
         <v>33616.09037</v>
       </c>
       <c r="L153" s="22" t="n">
-        <v>42298.46067</v>
+        <v>42708.68183</v>
       </c>
       <c r="M153" s="22" t="n">
-        <v>48086.47461</v>
-      </c>
-      <c r="N153" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="154" s="70" spans="1:14">
+        <v>48383.39397</v>
+      </c>
+      <c r="N153" s="22" t="n">
+        <v>57549.887</v>
+      </c>
+      <c r="O153" s="10" t="n"/>
+    </row>
+    <row r="154" ht="12.6" customHeight="1" s="70">
       <c r="A154" s="5" t="n"/>
-      <c r="B154" s="59" t="s">
-        <v>30</v>
+      <c r="B154" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C154" s="22" t="n">
         <v>20855.379</v>
@@ -7384,7 +7571,7 @@
         <v>16176.43385</v>
       </c>
       <c r="H154" s="21" t="n">
-        <v>9681.546219999998</v>
+        <v>9681.54622</v>
       </c>
       <c r="I154" s="22" t="n">
         <v>14929.81039</v>
@@ -7396,17 +7583,22 @@
         <v>6590.34254</v>
       </c>
       <c r="L154" s="22" t="n">
-        <v>15625.04625</v>
+        <v>15969.92916</v>
       </c>
       <c r="M154" s="22" t="n">
-        <v>26671.70112</v>
-      </c>
-      <c r="N154" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="155" s="70" spans="1:14">
+        <v>27228.7982</v>
+      </c>
+      <c r="N154" s="22" t="n">
+        <v>27910.992</v>
+      </c>
+      <c r="O154" s="11" t="n"/>
+    </row>
+    <row r="155" ht="12.6" customHeight="1" s="70">
       <c r="A155" s="8" t="n"/>
-      <c r="B155" s="64" t="s">
-        <v>138</v>
+      <c r="B155" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Disc.on Oth.Short-Term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C155" s="22" t="n">
         <v>0</v>
@@ -7441,21 +7633,26 @@
       <c r="M155" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N155" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="156" s="70" spans="1:14">
+      <c r="N155" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O155" s="10" t="n"/>
+    </row>
+    <row r="156" ht="12.6" customHeight="1" s="70">
       <c r="A156" s="5" t="n"/>
-      <c r="B156" s="60" t="s">
-        <v>139</v>
+      <c r="B156" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Advances Received</t>
+        </is>
       </c>
       <c r="C156" s="23" t="n">
         <v>74221.61344</v>
       </c>
       <c r="D156" s="23" t="n">
-        <v>96444.78105000001</v>
+        <v>96444.78104999999</v>
       </c>
       <c r="E156" s="23" t="n">
-        <v>95320.39181</v>
+        <v>95320.39181000002</v>
       </c>
       <c r="F156" s="33" t="n">
         <v>114446.02326</v>
@@ -7476,23 +7673,28 @@
         <v>339282.43793</v>
       </c>
       <c r="L156" s="23" t="n">
-        <v>289226.22586</v>
+        <v>290018.24353</v>
       </c>
       <c r="M156" s="23" t="n">
-        <v>518676.85336</v>
-      </c>
-      <c r="N156" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="157" s="70" spans="1:14">
+        <v>534462.46028</v>
+      </c>
+      <c r="N156" s="23" t="n">
+        <v>623183.557</v>
+      </c>
+      <c r="O156" s="10" t="n"/>
+    </row>
+    <row r="157" ht="12.6" customHeight="1" s="70">
       <c r="A157" s="5" t="n"/>
-      <c r="B157" s="59" t="s">
-        <v>140</v>
+      <c r="B157" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C157" s="22" t="n">
         <v>74181.44183</v>
       </c>
       <c r="D157" s="22" t="n">
-        <v>95300.79332000001</v>
+        <v>95300.79332</v>
       </c>
       <c r="E157" s="22" t="n">
         <v>95207.54459999999</v>
@@ -7516,17 +7718,22 @@
         <v>339044.97646</v>
       </c>
       <c r="L157" s="22" t="n">
-        <v>289070.41801</v>
+        <v>289862.43568</v>
       </c>
       <c r="M157" s="22" t="n">
-        <v>518471.27539</v>
-      </c>
-      <c r="N157" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="158" s="70" spans="1:14">
+        <v>534256.88231</v>
+      </c>
+      <c r="N157" s="22" t="n">
+        <v>622831.4840000001</v>
+      </c>
+      <c r="O157" s="6" t="n"/>
+    </row>
+    <row r="158" ht="12.6" customHeight="1" s="70">
       <c r="A158" s="15" t="n"/>
-      <c r="B158" s="64" t="s">
-        <v>141</v>
+      <c r="B158" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C158" s="22" t="n">
         <v>40.17161</v>
@@ -7561,12 +7768,17 @@
       <c r="M158" s="22" t="n">
         <v>205.57797</v>
       </c>
-      <c r="N158" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="159" s="70" spans="1:14">
+      <c r="N158" s="22" t="n">
+        <v>352.073</v>
+      </c>
+      <c r="O158" s="11" t="n"/>
+    </row>
+    <row r="159" ht="12.6" customHeight="1" s="70">
       <c r="A159" s="8" t="n"/>
-      <c r="B159" s="60" t="s">
-        <v>142</v>
+      <c r="B159" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Remunerations Spread Over Years</t>
+        </is>
       </c>
       <c r="C159" s="23" t="n">
         <v>83.10839</v>
@@ -7601,12 +7813,17 @@
       <c r="M159" s="23" t="n">
         <v>4799.13316</v>
       </c>
-      <c r="N159" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="160" s="70" spans="1:14">
+      <c r="N159" s="23" t="n">
+        <v>20461.919</v>
+      </c>
+      <c r="O159" s="10" t="n"/>
+    </row>
+    <row r="160" ht="12.6" customHeight="1" s="70">
       <c r="A160" s="8" t="n"/>
-      <c r="B160" s="64" t="s">
-        <v>143</v>
+      <c r="B160" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances to Constr.&amp;Restor.Costs Spr. Over Yrs.</t>
+        </is>
       </c>
       <c r="C160" s="22" t="n">
         <v>83.10839</v>
@@ -7641,12 +7858,17 @@
       <c r="M160" s="22" t="n">
         <v>4799.13316</v>
       </c>
-      <c r="N160" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="161" s="70" spans="1:14">
+      <c r="N160" s="22" t="n">
+        <v>20461.919</v>
+      </c>
+      <c r="O160" s="10" t="n"/>
+    </row>
+    <row r="161" ht="12.6" customHeight="1" s="70">
       <c r="A161" s="8" t="n"/>
-      <c r="B161" s="64" t="s">
-        <v>144</v>
+      <c r="B161" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Constr.Costs Reval.Adjust.to Inflation Spr.Over Yrs.</t>
+        </is>
       </c>
       <c r="C161" s="22" t="n">
         <v>0</v>
@@ -7681,12 +7903,17 @@
       <c r="M161" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N161" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="162" s="70" spans="1:14">
+      <c r="N161" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O161" s="10" t="n"/>
+    </row>
+    <row r="162" ht="12.6" customHeight="1" s="70">
       <c r="A162" s="5" t="n"/>
-      <c r="B162" s="60" t="s">
-        <v>145</v>
+      <c r="B162" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Taxes and Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C162" s="23" t="n">
         <v>27413.31142</v>
@@ -7704,10 +7931,10 @@
         <v>33461.12138</v>
       </c>
       <c r="H162" s="33" t="n">
-        <v>43361.30851</v>
+        <v>43389.36476999999</v>
       </c>
       <c r="I162" s="23" t="n">
-        <v>51049.0188</v>
+        <v>51289.40448</v>
       </c>
       <c r="J162" s="33" t="n">
         <v>79785.93269</v>
@@ -7716,17 +7943,22 @@
         <v>91925.94505999998</v>
       </c>
       <c r="L162" s="23" t="n">
-        <v>90238.7531</v>
+        <v>91449.32188</v>
       </c>
       <c r="M162" s="23" t="n">
-        <v>92637.71106999999</v>
-      </c>
-      <c r="N162" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="163" s="70" spans="1:14">
+        <v>94861.83343000001</v>
+      </c>
+      <c r="N162" s="23" t="n">
+        <v>117075.949</v>
+      </c>
+      <c r="O162" s="10" t="n"/>
+    </row>
+    <row r="163" ht="12.6" customHeight="1" s="70">
       <c r="A163" s="5" t="n"/>
-      <c r="B163" s="59" t="s">
-        <v>146</v>
+      <c r="B163" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Taxes and Funds Payable </t>
+        </is>
       </c>
       <c r="C163" s="22" t="n">
         <v>10788.1529</v>
@@ -7744,29 +7976,34 @@
         <v>13545.68981</v>
       </c>
       <c r="H163" s="21" t="n">
-        <v>16817.30894</v>
+        <v>16819.64313</v>
       </c>
       <c r="I163" s="22" t="n">
-        <v>21355.91513</v>
+        <v>21473.8439</v>
       </c>
       <c r="J163" s="21" t="n">
         <v>31601.2294</v>
       </c>
       <c r="K163" s="22" t="n">
-        <v>32875.46797000001</v>
+        <v>32875.46797</v>
       </c>
       <c r="L163" s="22" t="n">
-        <v>38291.2482</v>
+        <v>38474.029</v>
       </c>
       <c r="M163" s="22" t="n">
-        <v>42880.38442</v>
-      </c>
-      <c r="N163" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="164" s="70" spans="1:14">
+        <v>43577.29602</v>
+      </c>
+      <c r="N163" s="22" t="n">
+        <v>49397.599</v>
+      </c>
+      <c r="O163" s="10" t="n"/>
+    </row>
+    <row r="164" ht="12.6" customHeight="1" s="70">
       <c r="A164" s="8" t="n"/>
-      <c r="B164" s="64" t="s">
-        <v>147</v>
+      <c r="B164" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Social Security Costs Payable</t>
+        </is>
       </c>
       <c r="C164" s="22" t="n">
         <v>9780.97574</v>
@@ -7784,10 +8021,10 @@
         <v>12794.95871</v>
       </c>
       <c r="H164" s="21" t="n">
-        <v>15976.75941</v>
+        <v>15977.92176</v>
       </c>
       <c r="I164" s="22" t="n">
-        <v>18149.539</v>
+        <v>18205.43216</v>
       </c>
       <c r="J164" s="21" t="n">
         <v>29409.20477</v>
@@ -7796,23 +8033,28 @@
         <v>34148.39354</v>
       </c>
       <c r="L164" s="22" t="n">
-        <v>26377.76668</v>
+        <v>26776.76144999999</v>
       </c>
       <c r="M164" s="22" t="n">
-        <v>29389.95075</v>
-      </c>
-      <c r="N164" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="165" s="70" spans="1:14">
+        <v>30275.75384</v>
+      </c>
+      <c r="N164" s="22" t="n">
+        <v>34459.662</v>
+      </c>
+      <c r="O164" s="10" t="n"/>
+    </row>
+    <row r="165" ht="12.6" customHeight="1" s="70">
       <c r="A165" s="8" t="n"/>
-      <c r="B165" s="59" t="s">
-        <v>148</v>
+      <c r="B165" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Taxes &amp; Oth.Liab.that are Overd.or Deferred</t>
+        </is>
       </c>
       <c r="C165" s="22" t="n">
         <v>6569.49574</v>
       </c>
       <c r="D165" s="22" t="n">
-        <v>8826.487280000001</v>
+        <v>8826.487279999999</v>
       </c>
       <c r="E165" s="22" t="n">
         <v>10174.05131</v>
@@ -7824,10 +8066,10 @@
         <v>6418.396110000001</v>
       </c>
       <c r="H165" s="21" t="n">
-        <v>9757.988620000002</v>
+        <v>9782.548339999999</v>
       </c>
       <c r="I165" s="22" t="n">
-        <v>10830.7816</v>
+        <v>10897.34535</v>
       </c>
       <c r="J165" s="21" t="n">
         <v>17561.05334</v>
@@ -7836,38 +8078,43 @@
         <v>23383.7383</v>
       </c>
       <c r="L165" s="22" t="n">
-        <v>23756.46609</v>
+        <v>24384.8923</v>
       </c>
       <c r="M165" s="22" t="n">
-        <v>18276.08291</v>
-      </c>
-      <c r="N165" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="166" s="70" spans="1:14">
+        <v>18909.76941</v>
+      </c>
+      <c r="N165" s="22" t="n">
+        <v>30148.263</v>
+      </c>
+      <c r="O165" s="10" t="n"/>
+    </row>
+    <row r="166" ht="12.6" customHeight="1" s="70">
       <c r="A166" s="8" t="n"/>
-      <c r="B166" s="59" t="s">
-        <v>149</v>
+      <c r="B166" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Liabilities Payable</t>
+        </is>
       </c>
       <c r="C166" s="22" t="n">
         <v>274.68704</v>
       </c>
       <c r="D166" s="22" t="n">
-        <v>298.2447099999999</v>
+        <v>298.24471</v>
       </c>
       <c r="E166" s="22" t="n">
         <v>535.0939400000001</v>
       </c>
       <c r="F166" s="21" t="n">
-        <v>790.5738999999999</v>
+        <v>790.5739</v>
       </c>
       <c r="G166" s="22" t="n">
-        <v>702.0767499999999</v>
+        <v>702.0767500000001</v>
       </c>
       <c r="H166" s="21" t="n">
         <v>809.2515400000001</v>
       </c>
       <c r="I166" s="22" t="n">
-        <v>712.78307</v>
+        <v>712.7830700000001</v>
       </c>
       <c r="J166" s="21" t="n">
         <v>1214.44518</v>
@@ -7876,57 +8123,67 @@
         <v>1518.34525</v>
       </c>
       <c r="L166" s="22" t="n">
-        <v>1813.27213</v>
+        <v>1813.63913</v>
       </c>
       <c r="M166" s="22" t="n">
-        <v>2091.29299</v>
-      </c>
-      <c r="N166" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="167" s="70" spans="1:14">
+        <v>2099.01416</v>
+      </c>
+      <c r="N166" s="22" t="n">
+        <v>3070.425</v>
+      </c>
+      <c r="O166" s="10" t="n"/>
+    </row>
+    <row r="167" ht="12.6" customHeight="1" s="70">
       <c r="A167" s="8" t="n"/>
-      <c r="B167" s="60" t="s">
-        <v>150</v>
+      <c r="B167" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C167" s="23" t="n">
-        <v>5724.81699</v>
+        <v>5724.816989999999</v>
       </c>
       <c r="D167" s="23" t="n">
-        <v>5902.06624</v>
+        <v>5902.066239999999</v>
       </c>
       <c r="E167" s="23" t="n">
-        <v>6283.68009</v>
+        <v>6283.680089999999</v>
       </c>
       <c r="F167" s="33" t="n">
         <v>5673.25742</v>
       </c>
       <c r="G167" s="23" t="n">
-        <v>5721.34072</v>
+        <v>5721.340720000001</v>
       </c>
       <c r="H167" s="33" t="n">
-        <v>7881.554</v>
+        <v>7884.111259999999</v>
       </c>
       <c r="I167" s="23" t="n">
-        <v>6905.714960000001</v>
+        <v>6912.01356</v>
       </c>
       <c r="J167" s="33" t="n">
-        <v>6299.13529</v>
+        <v>6299.135289999999</v>
       </c>
       <c r="K167" s="23" t="n">
         <v>5880.0042</v>
       </c>
       <c r="L167" s="23" t="n">
-        <v>9169.654769999999</v>
+        <v>9228.483279999999</v>
       </c>
       <c r="M167" s="23" t="n">
-        <v>12548.58508</v>
-      </c>
-      <c r="N167" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="168" s="70" spans="1:14">
+        <v>12555.04462</v>
+      </c>
+      <c r="N167" s="23" t="n">
+        <v>9830.498</v>
+      </c>
+      <c r="O167" s="11" t="n"/>
+    </row>
+    <row r="168" ht="12.6" customHeight="1" s="70">
       <c r="A168" s="8" t="n"/>
-      <c r="B168" s="59" t="s">
-        <v>151</v>
+      <c r="B168" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Inc.Tax &amp; Oth.Liab.to Gov.</t>
+        </is>
       </c>
       <c r="C168" s="22" t="n">
         <v>11715.21994</v>
@@ -7944,10 +8201,10 @@
         <v>15598.61508</v>
       </c>
       <c r="H168" s="21" t="n">
-        <v>26784.35177</v>
+        <v>26786.90903</v>
       </c>
       <c r="I168" s="22" t="n">
-        <v>20628.28423</v>
+        <v>20652.06472</v>
       </c>
       <c r="J168" s="21" t="n">
         <v>26264.2502</v>
@@ -7956,17 +8213,22 @@
         <v>39227.3035</v>
       </c>
       <c r="L168" s="22" t="n">
-        <v>52879.06096</v>
+        <v>52937.88947</v>
       </c>
       <c r="M168" s="22" t="n">
-        <v>77432.32349</v>
-      </c>
-      <c r="N168" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="169" s="70" spans="1:14">
+        <v>77436.17176000001</v>
+      </c>
+      <c r="N168" s="22" t="n">
+        <v>47045.332</v>
+      </c>
+      <c r="O168" s="10" t="n"/>
+    </row>
+    <row r="169" ht="12.6" customHeight="1" s="70">
       <c r="A169" s="5" t="n"/>
-      <c r="B169" s="59" t="s">
-        <v>152</v>
+      <c r="B169" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Prepaid Inc.Tax &amp; Other Liab.to Gov.(-) </t>
+        </is>
       </c>
       <c r="C169" s="22" t="n">
         <v>9990.748539999999</v>
@@ -7987,7 +8249,7 @@
         <v>22919.32713</v>
       </c>
       <c r="I169" s="22" t="n">
-        <v>17022.40071</v>
+        <v>17039.8826</v>
       </c>
       <c r="J169" s="21" t="n">
         <v>22926.49576</v>
@@ -7999,14 +8261,19 @@
         <v>43789.17421999999</v>
       </c>
       <c r="M169" s="22" t="n">
-        <v>64950.25668</v>
-      </c>
-      <c r="N169" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="170" s="70" spans="1:14">
+        <v>64947.64541</v>
+      </c>
+      <c r="N169" s="22" t="n">
+        <v>37459.18</v>
+      </c>
+      <c r="O169" s="10" t="n"/>
+    </row>
+    <row r="170" ht="12.6" customHeight="1" s="70">
       <c r="A170" s="5" t="n"/>
-      <c r="B170" s="59" t="s">
-        <v>153</v>
+      <c r="B170" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Provisions for Severance Payments </t>
+        </is>
       </c>
       <c r="C170" s="22" t="n">
         <v>0</v>
@@ -8041,12 +8308,17 @@
       <c r="M170" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N170" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="171" s="70" spans="1:14">
+      <c r="N170" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O170" s="10" t="n"/>
+    </row>
+    <row r="171" ht="12.6" customHeight="1" s="70">
       <c r="A171" s="5" t="n"/>
-      <c r="B171" s="59" t="s">
-        <v>154</v>
+      <c r="B171" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Provisions for Costs</t>
+        </is>
       </c>
       <c r="C171" s="22" t="n">
         <v>3105.31636</v>
@@ -8064,7 +8336,7 @@
         <v>3382.55291</v>
       </c>
       <c r="H171" s="21" t="n">
-        <v>3204.30544</v>
+        <v>3204.305440000001</v>
       </c>
       <c r="I171" s="22" t="n">
         <v>3226.74945</v>
@@ -8081,12 +8353,17 @@
       <c r="M171" s="22" t="n">
         <v>31.19224</v>
       </c>
-      <c r="N171" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="172" s="70" spans="1:14">
+      <c r="N171" s="22" t="n">
+        <v>75.646</v>
+      </c>
+      <c r="O171" s="10" t="n"/>
+    </row>
+    <row r="172" ht="12.6" customHeight="1" s="70">
       <c r="A172" s="5" t="n"/>
-      <c r="B172" s="59" t="s">
-        <v>155</v>
+      <c r="B172" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C172" s="22" t="n">
         <v>895.02923</v>
@@ -8121,15 +8398,20 @@
       <c r="M172" s="22" t="n">
         <v>35.32603</v>
       </c>
-      <c r="N172" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="173" s="70" spans="1:14">
+      <c r="N172" s="22" t="n">
+        <v>168.7</v>
+      </c>
+      <c r="O172" s="10" t="n"/>
+    </row>
+    <row r="173" ht="12.6" customHeight="1" s="70">
       <c r="A173" s="8" t="n"/>
-      <c r="B173" s="57" t="s">
-        <v>156</v>
+      <c r="B173" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   H- Defer.Inc.&amp; Accr.Exp.for the Next Months</t>
+        </is>
       </c>
       <c r="C173" s="23" t="n">
-        <v>6568.400239999999</v>
+        <v>6568.40024</v>
       </c>
       <c r="D173" s="23" t="n">
         <v>14683.58567</v>
@@ -8156,17 +8438,22 @@
         <v>35834.13203</v>
       </c>
       <c r="L173" s="23" t="n">
-        <v>44087.82882</v>
+        <v>44091.91010999999</v>
       </c>
       <c r="M173" s="23" t="n">
-        <v>64245.26893</v>
-      </c>
-      <c r="N173" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="174" s="70" spans="1:14">
+        <v>64245.63221</v>
+      </c>
+      <c r="N173" s="23" t="n">
+        <v>64410.954</v>
+      </c>
+      <c r="O173" s="11" t="n"/>
+    </row>
+    <row r="174" ht="12.6" customHeight="1" s="70">
       <c r="A174" s="8" t="n"/>
-      <c r="B174" s="59" t="s">
-        <v>157</v>
+      <c r="B174" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income for the Next Months</t>
+        </is>
       </c>
       <c r="C174" s="22" t="n">
         <v>931.64089</v>
@@ -8201,12 +8488,17 @@
       <c r="M174" s="22" t="n">
         <v>13537.79166</v>
       </c>
-      <c r="N174" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="175" s="70" spans="1:14">
+      <c r="N174" s="22" t="n">
+        <v>10196.64</v>
+      </c>
+      <c r="O174" s="10" t="n"/>
+    </row>
+    <row r="175" ht="12.6" customHeight="1" s="70">
       <c r="A175" s="5" t="n"/>
-      <c r="B175" s="64" t="s">
-        <v>158</v>
+      <c r="B175" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C175" s="22" t="n">
         <v>5636.759349999999</v>
@@ -8215,13 +8507,13 @@
         <v>10991.55949</v>
       </c>
       <c r="E175" s="22" t="n">
-        <v>9467.31789</v>
+        <v>9467.317889999998</v>
       </c>
       <c r="F175" s="21" t="n">
         <v>10111.62954</v>
       </c>
       <c r="G175" s="22" t="n">
-        <v>7978.107119999999</v>
+        <v>7978.10712</v>
       </c>
       <c r="H175" s="21" t="n">
         <v>10408.02206</v>
@@ -8236,17 +8528,22 @@
         <v>23996.6035</v>
       </c>
       <c r="L175" s="22" t="n">
-        <v>36394.39467</v>
+        <v>36398.47596</v>
       </c>
       <c r="M175" s="22" t="n">
-        <v>50707.47727</v>
-      </c>
-      <c r="N175" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="176" s="70" spans="1:14">
+        <v>50707.84055000001</v>
+      </c>
+      <c r="N175" s="22" t="n">
+        <v>54214.314</v>
+      </c>
+      <c r="O175" s="10" t="n"/>
+    </row>
+    <row r="176" ht="12.6" customHeight="1" s="70">
       <c r="A176" s="5" t="n"/>
-      <c r="B176" s="57" t="s">
-        <v>159</v>
+      <c r="B176" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   I- Other Short-Term Liabilities</t>
+        </is>
       </c>
       <c r="C176" s="23" t="n">
         <v>2486.9532</v>
@@ -8267,7 +8564,7 @@
         <v>118762.84256</v>
       </c>
       <c r="I176" s="23" t="n">
-        <v>175626.93411</v>
+        <v>175972.77841</v>
       </c>
       <c r="J176" s="33" t="n">
         <v>255294.37949</v>
@@ -8276,17 +8573,22 @@
         <v>350156.18414</v>
       </c>
       <c r="L176" s="23" t="n">
-        <v>484407.77353</v>
+        <v>484428.96018</v>
       </c>
       <c r="M176" s="23" t="n">
-        <v>650869.0072400001</v>
-      </c>
-      <c r="N176" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="177" s="70" spans="1:14">
+        <v>650909.6721500001</v>
+      </c>
+      <c r="N176" s="23" t="n">
+        <v>855757.045</v>
+      </c>
+      <c r="O176" s="11" t="n"/>
+    </row>
+    <row r="177" ht="12.6" customHeight="1" s="70">
       <c r="A177" s="8" t="n"/>
-      <c r="B177" s="59" t="s">
-        <v>160</v>
+      <c r="B177" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Calculated</t>
+        </is>
       </c>
       <c r="C177" s="22" t="n">
         <v>52.37460000000001</v>
@@ -8310,23 +8612,28 @@
         <v>196.34322</v>
       </c>
       <c r="J177" s="21" t="n">
-        <v>469.22724</v>
+        <v>469.2272400000001</v>
       </c>
       <c r="K177" s="22" t="n">
         <v>1922.49424</v>
       </c>
       <c r="L177" s="22" t="n">
-        <v>738.5174199999999</v>
+        <v>759.70407</v>
       </c>
       <c r="M177" s="22" t="n">
-        <v>1447.55</v>
-      </c>
-      <c r="N177" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="178" s="70" spans="1:14">
+        <v>1471.8709</v>
+      </c>
+      <c r="N177" s="22" t="n">
+        <v>1225.082</v>
+      </c>
+      <c r="O177" s="10" t="n"/>
+    </row>
+    <row r="178" ht="12.6" customHeight="1" s="70">
       <c r="A178" s="5" t="n"/>
-      <c r="B178" s="64" t="s">
-        <v>106</v>
+      <c r="B178" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other V.A.T.</t>
+        </is>
       </c>
       <c r="C178" s="22" t="n">
         <v>2397.29475</v>
@@ -8338,7 +8645,7 @@
         <v>23102.91013</v>
       </c>
       <c r="F178" s="21" t="n">
-        <v>64815.93886000001</v>
+        <v>64815.93886</v>
       </c>
       <c r="G178" s="22" t="n">
         <v>78894.00595999999</v>
@@ -8347,26 +8654,31 @@
         <v>118556.28493</v>
       </c>
       <c r="I178" s="22" t="n">
-        <v>175426.22089</v>
+        <v>175772.06519</v>
       </c>
       <c r="J178" s="21" t="n">
         <v>254820.35907</v>
       </c>
       <c r="K178" s="22" t="n">
-        <v>348161.3443599999</v>
+        <v>348161.34436</v>
       </c>
       <c r="L178" s="22" t="n">
         <v>481781.78704</v>
       </c>
       <c r="M178" s="22" t="n">
-        <v>649347.86365</v>
-      </c>
-      <c r="N178" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="179" s="70" spans="1:14">
+        <v>649364.2076600001</v>
+      </c>
+      <c r="N178" s="22" t="n">
+        <v>854531.531</v>
+      </c>
+      <c r="O178" s="10" t="n"/>
+    </row>
+    <row r="179" ht="12.6" customHeight="1" s="70">
       <c r="A179" s="8" t="n"/>
-      <c r="B179" s="64" t="s">
-        <v>161</v>
+      <c r="B179" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Main and Branch Offices' Current Account</t>
+        </is>
       </c>
       <c r="C179" s="22" t="n">
         <v>0</v>
@@ -8401,12 +8713,17 @@
       <c r="M179" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N179" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="180" s="70" spans="1:14">
+      <c r="N179" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O179" s="10" t="n"/>
+    </row>
+    <row r="180" ht="12.6" customHeight="1" s="70">
       <c r="A180" s="5" t="n"/>
-      <c r="B180" s="64" t="s">
-        <v>162</v>
+      <c r="B180" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Stock Taking and Receiving Surpluses</t>
+        </is>
       </c>
       <c r="C180" s="22" t="n">
         <v>2e-05</v>
@@ -8433,7 +8750,7 @@
         <v>4.79318</v>
       </c>
       <c r="K180" s="22" t="n">
-        <v>72.34554</v>
+        <v>72.34554000000001</v>
       </c>
       <c r="L180" s="22" t="n">
         <v>1887.46907</v>
@@ -8441,12 +8758,17 @@
       <c r="M180" s="22" t="n">
         <v>0.5184</v>
       </c>
-      <c r="N180" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="181" s="70" spans="1:14">
+      <c r="N180" s="22" t="n">
+        <v>0.432</v>
+      </c>
+      <c r="O180" s="10" t="n"/>
+    </row>
+    <row r="181" ht="12.6" customHeight="1" s="70">
       <c r="A181" s="5" t="n"/>
-      <c r="B181" s="65" t="s">
-        <v>30</v>
+      <c r="B181" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other </t>
+        </is>
       </c>
       <c r="C181" s="35" t="n">
         <v>37.28383</v>
@@ -8481,12 +8803,17 @@
       <c r="M181" s="35" t="n">
         <v>73.07519000000001</v>
       </c>
-      <c r="N181" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="182" s="70" spans="1:14">
+      <c r="N181" s="35" t="n">
+        <v>0</v>
+      </c>
+      <c r="O181" s="10" t="n"/>
+    </row>
+    <row r="182" ht="12.6" customHeight="1" s="70">
       <c r="A182" s="5" t="n"/>
-      <c r="B182" s="60" t="s">
-        <v>163</v>
+      <c r="B182" s="60" t="inlineStr">
+        <is>
+          <t>II- LONG-TERM LIABILITIES</t>
+        </is>
       </c>
       <c r="C182" s="23" t="n">
         <v>338670.63164</v>
@@ -8501,32 +8828,37 @@
         <v>372496.53228</v>
       </c>
       <c r="G182" s="23" t="n">
-        <v>460762.1780799999</v>
+        <v>460762.17808</v>
       </c>
       <c r="H182" s="33" t="n">
         <v>517165.19471</v>
       </c>
       <c r="I182" s="23" t="n">
-        <v>542962.30415</v>
+        <v>544312.30415</v>
       </c>
       <c r="J182" s="33" t="n">
         <v>541106.17829</v>
       </c>
       <c r="K182" s="23" t="n">
-        <v>685176.1312899999</v>
+        <v>685176.13129</v>
       </c>
       <c r="L182" s="23" t="n">
-        <v>758429.7147100001</v>
+        <v>760967.0011100001</v>
       </c>
       <c r="M182" s="23" t="n">
-        <v>765297.3613</v>
-      </c>
-      <c r="N182" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="183" s="70" spans="1:14">
+        <v>778585.2660800001</v>
+      </c>
+      <c r="N182" s="23" t="n">
+        <v>1516155.086</v>
+      </c>
+      <c r="O182" s="11" t="n"/>
+    </row>
+    <row r="183" ht="12.6" customHeight="1" s="70">
       <c r="A183" s="8" t="n"/>
-      <c r="B183" s="60" t="s">
-        <v>117</v>
+      <c r="B183" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Financial Liabilities</t>
+        </is>
       </c>
       <c r="C183" s="23" t="n">
         <v>108872.13985</v>
@@ -8547,26 +8879,31 @@
         <v>368703.2909</v>
       </c>
       <c r="I183" s="23" t="n">
-        <v>377448.7141900001</v>
+        <v>377448.71419</v>
       </c>
       <c r="J183" s="33" t="n">
-        <v>350183.4847900001</v>
+        <v>350183.48479</v>
       </c>
       <c r="K183" s="23" t="n">
         <v>490011.04671</v>
       </c>
       <c r="L183" s="23" t="n">
-        <v>433486.3180600001</v>
+        <v>433675.60198</v>
       </c>
       <c r="M183" s="23" t="n">
-        <v>356744.96501</v>
-      </c>
-      <c r="N183" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="184" s="70" spans="1:14">
+        <v>362955.96747</v>
+      </c>
+      <c r="N183" s="23" t="n">
+        <v>725633.111</v>
+      </c>
+      <c r="O183" s="11" t="n"/>
+    </row>
+    <row r="184" ht="12.6" customHeight="1" s="70">
       <c r="A184" s="8" t="n"/>
-      <c r="B184" s="66" t="s">
-        <v>118</v>
+      <c r="B184" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Bank Loans</t>
+        </is>
       </c>
       <c r="C184" s="22" t="n">
         <v>106294.03289</v>
@@ -8587,26 +8924,31 @@
         <v>362755.22936</v>
       </c>
       <c r="I184" s="22" t="n">
-        <v>365632.4856200001</v>
+        <v>365632.48562</v>
       </c>
       <c r="J184" s="21" t="n">
         <v>335717.2816</v>
       </c>
       <c r="K184" s="22" t="n">
-        <v>405337.69142</v>
+        <v>405337.6914199999</v>
       </c>
       <c r="L184" s="22" t="n">
-        <v>414896.73607</v>
+        <v>415086.01999</v>
       </c>
       <c r="M184" s="22" t="n">
-        <v>348349.53297</v>
-      </c>
-      <c r="N184" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="185" s="70" spans="1:14">
+        <v>353829.88356</v>
+      </c>
+      <c r="N184" s="22" t="n">
+        <v>710748.628</v>
+      </c>
+      <c r="O184" s="10" t="n"/>
+    </row>
+    <row r="185" ht="12.6" customHeight="1" s="70">
       <c r="A185" s="8" t="n"/>
-      <c r="B185" s="66" t="s">
-        <v>119</v>
+      <c r="B185" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Financial Leasing Payables</t>
+        </is>
       </c>
       <c r="C185" s="22" t="n">
         <v>2029.22836</v>
@@ -8639,14 +8981,19 @@
         <v>20147.70222</v>
       </c>
       <c r="M185" s="22" t="n">
-        <v>9370.634690000001</v>
-      </c>
-      <c r="N185" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="186" s="70" spans="1:14">
+        <v>10138.24162</v>
+      </c>
+      <c r="N185" s="22" t="n">
+        <v>17130.517</v>
+      </c>
+      <c r="O185" s="10" t="n"/>
+    </row>
+    <row r="186" ht="12" customHeight="1" s="70">
       <c r="A186" s="5" t="n"/>
-      <c r="B186" s="66" t="s">
-        <v>120</v>
+      <c r="B186" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Deferred Financial Leasing Payable Costs (-)</t>
+        </is>
       </c>
       <c r="C186" s="22" t="n">
         <v>209.78565</v>
@@ -8676,17 +9023,22 @@
         <v>2839.75322</v>
       </c>
       <c r="L186" s="22" t="n">
-        <v>2509.095519999999</v>
+        <v>2509.09552</v>
       </c>
       <c r="M186" s="22" t="n">
-        <v>1332.58418</v>
-      </c>
-      <c r="N186" s="10" t="n"/>
-    </row>
-    <row r="187" spans="1:14">
+        <v>1369.53924</v>
+      </c>
+      <c r="N186" s="22" t="n">
+        <v>2452.475</v>
+      </c>
+      <c r="O186" s="10" t="n"/>
+    </row>
+    <row r="187">
       <c r="A187" s="5" t="n"/>
-      <c r="B187" s="67" t="s">
-        <v>164</v>
+      <c r="B187" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Bonds Issued</t>
+        </is>
       </c>
       <c r="C187" s="22" t="n">
         <v>0</v>
@@ -8721,12 +9073,17 @@
       <c r="M187" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N187" s="10" t="n"/>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="N187" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O187" s="10" t="n"/>
+    </row>
+    <row r="188">
       <c r="A188" s="8" t="n"/>
-      <c r="B188" s="67" t="s">
-        <v>165</v>
+      <c r="B188" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Securities Issued</t>
+        </is>
       </c>
       <c r="C188" s="22" t="n">
         <v>0</v>
@@ -8761,12 +9118,17 @@
       <c r="M188" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N188" s="10" t="n"/>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="N188" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O188" s="10" t="n"/>
+    </row>
+    <row r="189">
       <c r="A189" s="5" t="n"/>
-      <c r="B189" s="66" t="s">
-        <v>166</v>
+      <c r="B189" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Adjust.for the Secur.Issued Under Par Value (-)</t>
+        </is>
       </c>
       <c r="C189" s="22" t="n">
         <v>0</v>
@@ -8801,12 +9163,17 @@
       <c r="M189" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N189" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="190" s="70" spans="1:14">
+      <c r="N189" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O189" s="10" t="n"/>
+    </row>
+    <row r="190" ht="12.6" customHeight="1" s="70">
       <c r="A190" s="5" t="n"/>
-      <c r="B190" s="67" t="s">
-        <v>167</v>
+      <c r="B190" s="67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Financial Liabilities </t>
+        </is>
       </c>
       <c r="C190" s="22" t="n">
         <v>758.66425</v>
@@ -8841,12 +9208,17 @@
       <c r="M190" s="22" t="n">
         <v>357.3815300000001</v>
       </c>
-      <c r="N190" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="191" s="70" spans="1:14">
+      <c r="N190" s="22" t="n">
+        <v>206.441</v>
+      </c>
+      <c r="O190" s="1" t="n"/>
+    </row>
+    <row r="191" ht="12.6" customHeight="1" s="70">
       <c r="A191" s="5" t="n"/>
-      <c r="B191" s="68" t="s">
-        <v>127</v>
+      <c r="B191" s="68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Trade Debts</t>
+        </is>
       </c>
       <c r="C191" s="23" t="n">
         <v>140641.86387</v>
@@ -8876,17 +9248,22 @@
         <v>1156.83025</v>
       </c>
       <c r="L191" s="23" t="n">
-        <v>93842.14869</v>
+        <v>94034.29714</v>
       </c>
       <c r="M191" s="23" t="n">
         <v>146589.60394</v>
       </c>
-      <c r="N191" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="192" s="70" spans="1:14">
+      <c r="N191" s="23" t="n">
+        <v>421124.364</v>
+      </c>
+      <c r="O191" s="11" t="n"/>
+    </row>
+    <row r="192" ht="12.6" customHeight="1" s="70">
       <c r="A192" s="8" t="n"/>
-      <c r="B192" s="66" t="s">
-        <v>128</v>
+      <c r="B192" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Creditors</t>
+        </is>
       </c>
       <c r="C192" s="22" t="n">
         <v>6948.16067</v>
@@ -8921,12 +9298,17 @@
       <c r="M192" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N192" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="193" s="70" spans="1:14">
+      <c r="N192" s="22" t="n">
+        <v>811.687</v>
+      </c>
+      <c r="O192" s="10" t="n"/>
+    </row>
+    <row r="193" ht="12.6" customHeight="1" s="70">
       <c r="A193" s="5" t="n"/>
-      <c r="B193" s="66" t="s">
-        <v>129</v>
+      <c r="B193" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Notes Payable</t>
+        </is>
       </c>
       <c r="C193" s="22" t="n">
         <v>1209.55833</v>
@@ -8935,7 +9317,7 @@
         <v>4272.0647</v>
       </c>
       <c r="E193" s="22" t="n">
-        <v>5652.065710000001</v>
+        <v>5652.06571</v>
       </c>
       <c r="F193" s="21" t="n">
         <v>1742.52009</v>
@@ -8956,17 +9338,22 @@
         <v>747.47806</v>
       </c>
       <c r="L193" s="22" t="n">
-        <v>903.97924</v>
+        <v>1096.12769</v>
       </c>
       <c r="M193" s="22" t="n">
         <v>2150.6282</v>
       </c>
-      <c r="N193" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="194" s="70" spans="1:14">
+      <c r="N193" s="22" t="n">
+        <v>1328.796</v>
+      </c>
+      <c r="O193" s="10" t="n"/>
+    </row>
+    <row r="194" ht="12.6" customHeight="1" s="70">
       <c r="A194" s="5" t="n"/>
-      <c r="B194" s="66" t="s">
-        <v>130</v>
+      <c r="B194" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Discount on Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C194" s="22" t="n">
         <v>0</v>
@@ -9001,12 +9388,17 @@
       <c r="M194" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N194" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="195" s="70" spans="1:14">
+      <c r="N194" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O194" s="10" t="n"/>
+    </row>
+    <row r="195" ht="12.6" customHeight="1" s="70">
       <c r="A195" s="5" t="n"/>
-      <c r="B195" s="66" t="s">
-        <v>131</v>
+      <c r="B195" s="66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Deposits and Guaranties Received</t>
+        </is>
       </c>
       <c r="C195" s="22" t="n">
         <v>0</v>
@@ -9041,12 +9433,17 @@
       <c r="M195" s="22" t="n">
         <v>4.66</v>
       </c>
-      <c r="N195" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="196" s="70" spans="1:14">
+      <c r="N195" s="22" t="n">
+        <v>4.66</v>
+      </c>
+      <c r="O195" s="10" t="n"/>
+    </row>
+    <row r="196" ht="12.6" customHeight="1" s="70">
       <c r="A196" s="5" t="n"/>
-      <c r="B196" s="59" t="s">
-        <v>132</v>
+      <c r="B196" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Other Trade Debts</t>
+        </is>
       </c>
       <c r="C196" s="22" t="n">
         <v>132484.14487</v>
@@ -9076,17 +9473,22 @@
         <v>385.30719</v>
       </c>
       <c r="L196" s="22" t="n">
-        <v>92914.12444999999</v>
+        <v>92914.12445</v>
       </c>
       <c r="M196" s="22" t="n">
         <v>144434.31574</v>
       </c>
-      <c r="N196" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="197" s="70" spans="1:14">
+      <c r="N196" s="22" t="n">
+        <v>418979.221</v>
+      </c>
+      <c r="O196" s="10" t="n"/>
+    </row>
+    <row r="197" ht="12.6" customHeight="1" s="70">
       <c r="A197" s="5" t="n"/>
-      <c r="B197" s="57" t="s">
-        <v>168</v>
+      <c r="B197" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Other Long-Term Debts</t>
+        </is>
       </c>
       <c r="C197" s="23" t="n">
         <v>37395.73318</v>
@@ -9098,7 +9500,7 @@
         <v>42876.46618000001</v>
       </c>
       <c r="F197" s="33" t="n">
-        <v>38623.09633000001</v>
+        <v>38623.09633</v>
       </c>
       <c r="G197" s="23" t="n">
         <v>45981.43726999999</v>
@@ -9107,26 +9509,31 @@
         <v>46782.51566</v>
       </c>
       <c r="I197" s="23" t="n">
-        <v>58973.33765000001</v>
+        <v>60323.33765</v>
       </c>
       <c r="J197" s="33" t="n">
-        <v>74248.66426000001</v>
+        <v>74248.66425999999</v>
       </c>
       <c r="K197" s="23" t="n">
         <v>51898.0567</v>
       </c>
       <c r="L197" s="23" t="n">
-        <v>98982.04476999999</v>
+        <v>101137.8988</v>
       </c>
       <c r="M197" s="23" t="n">
-        <v>84048.80333000001</v>
-      </c>
-      <c r="N197" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="198" s="70" spans="1:14">
+        <v>90961.27727999999</v>
+      </c>
+      <c r="N197" s="23" t="n">
+        <v>137632.145</v>
+      </c>
+      <c r="O197" s="11" t="n"/>
+    </row>
+    <row r="198" ht="12.6" customHeight="1" s="70">
       <c r="A198" s="8" t="n"/>
-      <c r="B198" s="59" t="s">
-        <v>134</v>
+      <c r="B198" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Amounts Owed to Shareholders</t>
+        </is>
       </c>
       <c r="C198" s="22" t="n">
         <v>26607.67868</v>
@@ -9147,26 +9554,31 @@
         <v>32869.97959</v>
       </c>
       <c r="I198" s="22" t="n">
-        <v>43316.87278</v>
+        <v>44666.87278</v>
       </c>
       <c r="J198" s="21" t="n">
         <v>47922.72395</v>
       </c>
       <c r="K198" s="22" t="n">
-        <v>41179.14240999999</v>
+        <v>41179.14241</v>
       </c>
       <c r="L198" s="22" t="n">
-        <v>70501.34599000002</v>
+        <v>72657.20002</v>
       </c>
       <c r="M198" s="22" t="n">
-        <v>74256.59731</v>
-      </c>
-      <c r="N198" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="199" s="70" spans="1:14">
+        <v>77913.97126000001</v>
+      </c>
+      <c r="N198" s="22" t="n">
+        <v>109760.567</v>
+      </c>
+      <c r="O198" s="10" t="n"/>
+    </row>
+    <row r="199" ht="12.6" customHeight="1" s="70">
       <c r="A199" s="5" t="n"/>
-      <c r="B199" s="59" t="s">
-        <v>135</v>
+      <c r="B199" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Amounts Owed to Participations</t>
+        </is>
       </c>
       <c r="C199" s="22" t="n">
         <v>0</v>
@@ -9201,12 +9613,17 @@
       <c r="M199" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N199" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="200" s="70" spans="1:14">
+      <c r="N199" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O199" s="10" t="n"/>
+    </row>
+    <row r="200" ht="12.6" customHeight="1" s="70">
       <c r="A200" s="8" t="n"/>
-      <c r="B200" s="59" t="s">
-        <v>136</v>
+      <c r="B200" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Amounts Owed to Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C200" s="22" t="n">
         <v>0</v>
@@ -9241,15 +9658,20 @@
       <c r="M200" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N200" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="201" s="70" spans="1:14">
+      <c r="N200" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O200" s="10" t="n"/>
+    </row>
+    <row r="201" ht="12.6" customHeight="1" s="70">
       <c r="A201" s="8" t="n"/>
-      <c r="B201" s="59" t="s">
-        <v>169</v>
+      <c r="B201" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other </t>
+        </is>
       </c>
       <c r="C201" s="22" t="n">
-        <v>9968.650309999999</v>
+        <v>9968.650310000001</v>
       </c>
       <c r="D201" s="22" t="n">
         <v>10131.26564</v>
@@ -9279,14 +9701,19 @@
         <v>23564.17217</v>
       </c>
       <c r="M201" s="22" t="n">
-        <v>49.4</v>
-      </c>
-      <c r="N201" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="202" s="70" spans="1:14">
+        <v>3304.5</v>
+      </c>
+      <c r="N201" s="22" t="n">
+        <v>13506.39</v>
+      </c>
+      <c r="O201" s="10" t="n"/>
+    </row>
+    <row r="202" ht="12.6" customHeight="1" s="70">
       <c r="A202" s="5" t="n"/>
-      <c r="B202" s="64" t="s">
-        <v>170</v>
+      <c r="B202" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Disc. on Oth.Short-term Notes Payable (-)</t>
+        </is>
       </c>
       <c r="C202" s="22" t="n">
         <v>0</v>
@@ -9321,12 +9748,17 @@
       <c r="M202" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N202" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="203" s="70" spans="1:14">
+      <c r="N202" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O202" s="10" t="n"/>
+    </row>
+    <row r="203" ht="12.6" customHeight="1" s="70">
       <c r="A203" s="5" t="n"/>
-      <c r="B203" s="59" t="s">
-        <v>171</v>
+      <c r="B203" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Deferred &amp; Scheduled Paym.to Gov.</t>
+        </is>
       </c>
       <c r="C203" s="22" t="n">
         <v>819.40419</v>
@@ -9359,14 +9791,19 @@
         <v>4916.526609999999</v>
       </c>
       <c r="M203" s="22" t="n">
-        <v>9742.806020000002</v>
-      </c>
-      <c r="N203" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="204" s="70" spans="1:14">
+        <v>9742.80602</v>
+      </c>
+      <c r="N203" s="22" t="n">
+        <v>14365.188</v>
+      </c>
+      <c r="O203" s="10" t="n"/>
+    </row>
+    <row r="204" ht="12.6" customHeight="1" s="70">
       <c r="A204" s="8" t="n"/>
-      <c r="B204" s="60" t="s">
-        <v>172</v>
+      <c r="B204" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D-Advances Received</t>
+        </is>
       </c>
       <c r="C204" s="23" t="n">
         <v>374.34228</v>
@@ -9401,12 +9838,17 @@
       <c r="M204" s="23" t="n">
         <v>34047.92464</v>
       </c>
-      <c r="N204" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="205" s="70" spans="1:14">
+      <c r="N204" s="23" t="n">
+        <v>75423.106</v>
+      </c>
+      <c r="O204" s="11" t="n"/>
+    </row>
+    <row r="205" ht="12.6" customHeight="1" s="70">
       <c r="A205" s="8" t="n"/>
-      <c r="B205" s="59" t="s">
-        <v>140</v>
+      <c r="B205" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Advances Received on Purchase Orders</t>
+        </is>
       </c>
       <c r="C205" s="22" t="n">
         <v>374.34228</v>
@@ -9441,12 +9883,17 @@
       <c r="M205" s="22" t="n">
         <v>32390.03394</v>
       </c>
-      <c r="N205" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="206" s="70" spans="1:14">
+      <c r="N205" s="22" t="n">
+        <v>75423.106</v>
+      </c>
+      <c r="O205" s="10" t="n"/>
+    </row>
+    <row r="206" ht="12.6" customHeight="1" s="70">
       <c r="A206" s="5" t="n"/>
-      <c r="B206" s="64" t="s">
-        <v>141</v>
+      <c r="B206" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Advances Received</t>
+        </is>
       </c>
       <c r="C206" s="22" t="n">
         <v>0</v>
@@ -9481,12 +9928,17 @@
       <c r="M206" s="22" t="n">
         <v>1657.8907</v>
       </c>
-      <c r="N206" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="207" s="70" spans="1:14">
+      <c r="N206" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O206" s="10" t="n"/>
+    </row>
+    <row r="207" ht="12.6" customHeight="1" s="70">
       <c r="A207" s="5" t="n"/>
-      <c r="B207" s="60" t="s">
-        <v>173</v>
+      <c r="B207" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Provisions for Liabilities and Charges</t>
+        </is>
       </c>
       <c r="C207" s="23" t="n">
         <v>51136.43943999999</v>
@@ -9521,12 +9973,17 @@
       <c r="M207" s="23" t="n">
         <v>133722.02349</v>
       </c>
-      <c r="N207" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="208" s="70" spans="1:14">
+      <c r="N207" s="23" t="n">
+        <v>148580.013</v>
+      </c>
+      <c r="O207" s="11" t="n"/>
+    </row>
+    <row r="208" ht="12.6" customHeight="1" s="70">
       <c r="A208" s="8" t="n"/>
-      <c r="B208" s="59" t="s">
-        <v>174</v>
+      <c r="B208" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Provisions for Severance Payments</t>
+        </is>
       </c>
       <c r="C208" s="22" t="n">
         <v>51136.43943999999</v>
@@ -9561,12 +10018,17 @@
       <c r="M208" s="22" t="n">
         <v>133722.02349</v>
       </c>
-      <c r="N208" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="209" s="70" spans="1:14">
+      <c r="N208" s="22" t="n">
+        <v>148580.013</v>
+      </c>
+      <c r="O208" s="10" t="n"/>
+    </row>
+    <row r="209" ht="12.6" customHeight="1" s="70">
       <c r="A209" s="5" t="n"/>
-      <c r="B209" s="59" t="s">
-        <v>175</v>
+      <c r="B209" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Other Provisions </t>
+        </is>
       </c>
       <c r="C209" s="22" t="n">
         <v>0</v>
@@ -9601,12 +10063,17 @@
       <c r="M209" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N209" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="210" s="70" spans="1:14">
+      <c r="N209" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O209" s="10" t="n"/>
+    </row>
+    <row r="210" ht="12.6" customHeight="1" s="70">
       <c r="A210" s="8" t="n"/>
-      <c r="B210" s="57" t="s">
-        <v>176</v>
+      <c r="B210" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Defer.Inc.&amp; Accr.Exp.for the Next Yrs.</t>
+        </is>
       </c>
       <c r="C210" s="23" t="n">
         <v>226.96302</v>
@@ -9639,14 +10106,19 @@
         <v>3121.42877</v>
       </c>
       <c r="M210" s="23" t="n">
-        <v>3478.44865</v>
-      </c>
-      <c r="N210" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="211" s="70" spans="1:14">
+        <v>3642.87702</v>
+      </c>
+      <c r="N210" s="23" t="n">
+        <v>1096.605</v>
+      </c>
+      <c r="O210" s="11" t="n"/>
+    </row>
+    <row r="211" ht="12.6" customHeight="1" s="70">
       <c r="A211" s="8" t="n"/>
-      <c r="B211" s="64" t="s">
-        <v>177</v>
+      <c r="B211" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Deferred Income</t>
+        </is>
       </c>
       <c r="C211" s="22" t="n">
         <v>21.42185</v>
@@ -9681,12 +10153,17 @@
       <c r="M211" s="22" t="n">
         <v>956.93495</v>
       </c>
-      <c r="N211" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="212" s="70" spans="1:14">
+      <c r="N211" s="22" t="n">
+        <v>87.26900000000001</v>
+      </c>
+      <c r="O211" s="10" t="n"/>
+    </row>
+    <row r="212" ht="12.6" customHeight="1" s="70">
       <c r="A212" s="8" t="n"/>
-      <c r="B212" s="64" t="s">
-        <v>158</v>
+      <c r="B212" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Accrued Expenses</t>
+        </is>
       </c>
       <c r="C212" s="22" t="n">
         <v>205.54117</v>
@@ -9713,20 +10190,25 @@
         <v>2915.84062</v>
       </c>
       <c r="K212" s="22" t="n">
-        <v>3782.32038</v>
+        <v>3782.320380000001</v>
       </c>
       <c r="L212" s="22" t="n">
         <v>1444.61421</v>
       </c>
       <c r="M212" s="22" t="n">
-        <v>2521.5137</v>
-      </c>
-      <c r="N212" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="213" s="70" spans="1:14">
+        <v>2685.942070000001</v>
+      </c>
+      <c r="N212" s="22" t="n">
+        <v>1009.336</v>
+      </c>
+      <c r="O212" s="1" t="n"/>
+    </row>
+    <row r="213" ht="12.6" customHeight="1" s="70">
       <c r="A213" s="15" t="n"/>
-      <c r="B213" s="57" t="s">
-        <v>178</v>
+      <c r="B213" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   G- Other Long-Term Liabilities</t>
+        </is>
       </c>
       <c r="C213" s="23" t="n">
         <v>23.15</v>
@@ -9761,12 +10243,17 @@
       <c r="M213" s="23" t="n">
         <v>6665.59224</v>
       </c>
-      <c r="N213" s="6" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="214" s="70" spans="1:14">
+      <c r="N213" s="23" t="n">
+        <v>6665.742</v>
+      </c>
+      <c r="O213" s="6" t="n"/>
+    </row>
+    <row r="214" ht="12.6" customHeight="1" s="70">
       <c r="A214" s="15" t="n"/>
-      <c r="B214" s="64" t="s">
-        <v>179</v>
+      <c r="B214" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- V.A.T. Deferred to the Next Years</t>
+        </is>
       </c>
       <c r="C214" s="22" t="n">
         <v>0</v>
@@ -9801,12 +10288,17 @@
       <c r="M214" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N214" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="215" s="70" spans="1:14">
+      <c r="N214" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O214" s="1" t="n"/>
+    </row>
+    <row r="215" ht="12.6" customHeight="1" s="70">
       <c r="A215" s="16" t="n"/>
-      <c r="B215" s="64" t="s">
-        <v>180</v>
+      <c r="B215" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Shares in the Plant and Equipment</t>
+        </is>
       </c>
       <c r="C215" s="22" t="n">
         <v>0</v>
@@ -9841,12 +10333,17 @@
       <c r="M215" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N215" s="1" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="216" s="70" spans="1:14">
+      <c r="N215" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O215" s="1" t="n"/>
+    </row>
+    <row r="216" ht="12.6" customHeight="1" s="70">
       <c r="A216" s="16" t="n"/>
-      <c r="B216" s="65" t="s">
-        <v>181</v>
+      <c r="B216" s="65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Other </t>
+        </is>
       </c>
       <c r="C216" s="35" t="n">
         <v>23.15</v>
@@ -9881,12 +10378,17 @@
       <c r="M216" s="35" t="n">
         <v>6665.59224</v>
       </c>
-      <c r="N216" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="217" s="70" spans="1:14">
+      <c r="N216" s="35" t="n">
+        <v>6665.742</v>
+      </c>
+      <c r="O216" s="10" t="n"/>
+    </row>
+    <row r="217" ht="12.6" customHeight="1" s="70">
       <c r="A217" s="5" t="n"/>
-      <c r="B217" s="60" t="s">
-        <v>182</v>
+      <c r="B217" s="60" t="inlineStr">
+        <is>
+          <t>III- SHAREHOLDERS EQUITY</t>
+        </is>
       </c>
       <c r="C217" s="23" t="n">
         <v>650367.49767</v>
@@ -9904,10 +10406,10 @@
         <v>1093879.46518</v>
       </c>
       <c r="H217" s="33" t="n">
-        <v>1338969.2724</v>
+        <v>1339229.15001</v>
       </c>
       <c r="I217" s="23" t="n">
-        <v>1371890.51401</v>
+        <v>1377520.01975</v>
       </c>
       <c r="J217" s="33" t="n">
         <v>1532785.4314</v>
@@ -9916,20 +10418,25 @@
         <v>1763988.26612</v>
       </c>
       <c r="L217" s="23" t="n">
-        <v>2088772.36177</v>
+        <v>2113827.46664</v>
       </c>
       <c r="M217" s="23" t="n">
-        <v>2482885.49843</v>
-      </c>
-      <c r="N217" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="218" s="70" spans="1:14">
+        <v>2474386.77356</v>
+      </c>
+      <c r="N217" s="23" t="n">
+        <v>3190921.71</v>
+      </c>
+      <c r="O217" s="11" t="n"/>
+    </row>
+    <row r="218" ht="12.6" customHeight="1" s="70">
       <c r="A218" s="8" t="n"/>
-      <c r="B218" s="60" t="s">
-        <v>183</v>
+      <c r="B218" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   A- Paid-in Capital</t>
+        </is>
       </c>
       <c r="C218" s="23" t="n">
-        <v>694889.2154300001</v>
+        <v>694889.21543</v>
       </c>
       <c r="D218" s="23" t="n">
         <v>708248.39769</v>
@@ -9938,35 +10445,40 @@
         <v>756438.8269600001</v>
       </c>
       <c r="F218" s="33" t="n">
-        <v>743854.6913000001</v>
+        <v>743854.6912999999</v>
       </c>
       <c r="G218" s="23" t="n">
         <v>732675.52089</v>
       </c>
       <c r="H218" s="33" t="n">
-        <v>758787.9577200001</v>
+        <v>758806.4577200001</v>
       </c>
       <c r="I218" s="23" t="n">
-        <v>749753.8865499999</v>
+        <v>753992.4187799999</v>
       </c>
       <c r="J218" s="33" t="n">
-        <v>797589.35429</v>
+        <v>797589.3542899999</v>
       </c>
       <c r="K218" s="23" t="n">
         <v>805657.66582</v>
       </c>
       <c r="L218" s="23" t="n">
-        <v>897329.2116800001</v>
+        <v>903633.1172400001</v>
       </c>
       <c r="M218" s="23" t="n">
-        <v>969430.30978</v>
-      </c>
-      <c r="N218" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="219" s="70" spans="1:14">
+        <v>975008.66672</v>
+      </c>
+      <c r="N218" s="23" t="n">
+        <v>1299773.503</v>
+      </c>
+      <c r="O218" s="11" t="n"/>
+    </row>
+    <row r="219" ht="12.6" customHeight="1" s="70">
       <c r="A219" s="8" t="n"/>
-      <c r="B219" s="64" t="s">
-        <v>184</v>
+      <c r="B219" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Subscribed Capital </t>
+        </is>
       </c>
       <c r="C219" s="22" t="n">
         <v>516274.32351</v>
@@ -9978,16 +10490,16 @@
         <v>578254.21313</v>
       </c>
       <c r="F219" s="21" t="n">
-        <v>577170.8981600001</v>
+        <v>577170.89816</v>
       </c>
       <c r="G219" s="22" t="n">
-        <v>585773.5478399999</v>
+        <v>585773.54784</v>
       </c>
       <c r="H219" s="21" t="n">
-        <v>632566.2300999999</v>
+        <v>632608.2301</v>
       </c>
       <c r="I219" s="22" t="n">
-        <v>623439.6447599999</v>
+        <v>627439.6447599999</v>
       </c>
       <c r="J219" s="21" t="n">
         <v>672853.56385</v>
@@ -9996,17 +10508,22 @@
         <v>709235.91587</v>
       </c>
       <c r="L219" s="22" t="n">
-        <v>795356.84551</v>
+        <v>804344.1711800001</v>
       </c>
       <c r="M219" s="22" t="n">
-        <v>868134.69551</v>
-      </c>
-      <c r="N219" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="220" s="70" spans="1:14">
+        <v>877106.69651</v>
+      </c>
+      <c r="N219" s="22" t="n">
+        <v>1204151.701</v>
+      </c>
+      <c r="O219" s="10" t="n"/>
+    </row>
+    <row r="220" ht="12.6" customHeight="1" s="70">
       <c r="A220" s="5" t="n"/>
-      <c r="B220" s="59" t="s">
-        <v>185</v>
+      <c r="B220" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Subscribed Capital Uncalled (-)</t>
+        </is>
       </c>
       <c r="C220" s="22" t="n">
         <v>18592.36204</v>
@@ -10024,7 +10541,7 @@
         <v>13602.9767</v>
       </c>
       <c r="H220" s="21" t="n">
-        <v>29167.55329</v>
+        <v>29191.05329</v>
       </c>
       <c r="I220" s="22" t="n">
         <v>28903.68186</v>
@@ -10036,17 +10553,22 @@
         <v>35238.3043</v>
       </c>
       <c r="L220" s="22" t="n">
-        <v>29578.86735</v>
+        <v>32291.11735</v>
       </c>
       <c r="M220" s="22" t="n">
-        <v>29904.72577</v>
-      </c>
-      <c r="N220" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="221" s="70" spans="1:14">
+        <v>33327.72577</v>
+      </c>
+      <c r="N220" s="22" t="n">
+        <v>36128.871</v>
+      </c>
+      <c r="O220" s="10" t="n"/>
+    </row>
+    <row r="221" ht="12.6" customHeight="1" s="70">
       <c r="A221" s="5" t="n"/>
-      <c r="B221" s="59" t="s">
-        <v>186</v>
+      <c r="B221" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation Adjustment to Capital (+)</t>
+        </is>
       </c>
       <c r="C221" s="22" t="n">
         <v>197456.8884</v>
@@ -10067,7 +10589,7 @@
         <v>155416.32232</v>
       </c>
       <c r="I221" s="22" t="n">
-        <v>155244.96506</v>
+        <v>155483.49729</v>
       </c>
       <c r="J221" s="21" t="n">
         <v>155406.58612</v>
@@ -10076,17 +10598,22 @@
         <v>131687.09566</v>
       </c>
       <c r="L221" s="22" t="n">
-        <v>131551.23352</v>
+        <v>131580.06341</v>
       </c>
       <c r="M221" s="22" t="n">
-        <v>131200.34004</v>
-      </c>
-      <c r="N221" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="222" s="70" spans="1:14">
+        <v>131229.69598</v>
+      </c>
+      <c r="N221" s="22" t="n">
+        <v>131750.673</v>
+      </c>
+      <c r="O221" s="11" t="n"/>
+    </row>
+    <row r="222" ht="12.6" customHeight="1" s="70">
       <c r="A222" s="8" t="n"/>
-      <c r="B222" s="59" t="s">
-        <v>187</v>
+      <c r="B222" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation Adjustment to Capital (-)</t>
+        </is>
       </c>
       <c r="C222" s="22" t="n">
         <v>249.63444</v>
@@ -10121,12 +10648,17 @@
       <c r="M222" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N222" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="223" s="70" spans="1:14">
+      <c r="N222" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O222" s="10" t="n"/>
+    </row>
+    <row r="223" ht="12.6" customHeight="1" s="70">
       <c r="A223" s="5" t="n"/>
-      <c r="B223" s="60" t="s">
-        <v>188</v>
+      <c r="B223" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   B- Capital Reserves</t>
+        </is>
       </c>
       <c r="C223" s="23" t="n">
         <v>13646.57182</v>
@@ -10138,7 +10670,7 @@
         <v>28004.02048</v>
       </c>
       <c r="F223" s="33" t="n">
-        <v>95514.18677</v>
+        <v>95514.18677000001</v>
       </c>
       <c r="G223" s="23" t="n">
         <v>101112.41875</v>
@@ -10156,17 +10688,22 @@
         <v>148863.61684</v>
       </c>
       <c r="L223" s="23" t="n">
-        <v>211897.85205</v>
+        <v>228656.30387</v>
       </c>
       <c r="M223" s="23" t="n">
-        <v>183501.357</v>
-      </c>
-      <c r="N223" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="224" s="70" spans="1:14">
+        <v>192143.76332</v>
+      </c>
+      <c r="N223" s="23" t="n">
+        <v>180586.136</v>
+      </c>
+      <c r="O223" s="10" t="n"/>
+    </row>
+    <row r="224" ht="12.6" customHeight="1" s="70">
       <c r="A224" s="5" t="n"/>
-      <c r="B224" s="59" t="s">
-        <v>189</v>
+      <c r="B224" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Share Premium Account</t>
+        </is>
       </c>
       <c r="C224" s="22" t="n">
         <v>4114.61425</v>
@@ -10201,12 +10738,17 @@
       <c r="M224" s="22" t="n">
         <v>4428.6222</v>
       </c>
-      <c r="N224" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="225" s="70" spans="1:14">
+      <c r="N224" s="22" t="n">
+        <v>3643.893</v>
+      </c>
+      <c r="O224" s="10" t="n"/>
+    </row>
+    <row r="225" ht="12.6" customHeight="1" s="70">
       <c r="A225" s="5" t="n"/>
-      <c r="B225" s="64" t="s">
-        <v>190</v>
+      <c r="B225" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Gains From Reedemption of Shares</t>
+        </is>
       </c>
       <c r="C225" s="22" t="n">
         <v>0</v>
@@ -10241,12 +10783,17 @@
       <c r="M225" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N225" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="226" s="70" spans="1:14">
+      <c r="N225" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O225" s="10" t="n"/>
+    </row>
+    <row r="226" ht="12.6" customHeight="1" s="70">
       <c r="A226" s="5" t="n"/>
-      <c r="B226" s="64" t="s">
-        <v>191</v>
+      <c r="B226" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Revaluation of Tangible Fixed Assets</t>
+        </is>
       </c>
       <c r="C226" s="22" t="n">
         <v>222.99437</v>
@@ -10267,10 +10814,10 @@
         <v>7610.20301</v>
       </c>
       <c r="I226" s="22" t="n">
-        <v>7560.1813</v>
+        <v>7560.181300000001</v>
       </c>
       <c r="J226" s="21" t="n">
-        <v>5618.25106</v>
+        <v>5618.251060000001</v>
       </c>
       <c r="K226" s="22" t="n">
         <v>5618.03429</v>
@@ -10279,14 +10826,19 @@
         <v>5618.03429</v>
       </c>
       <c r="M226" s="22" t="n">
-        <v>45.62797</v>
-      </c>
-      <c r="N226" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="227" s="70" spans="1:14">
+        <v>5618.03429</v>
+      </c>
+      <c r="N226" s="22" t="n">
+        <v>5618.034</v>
+      </c>
+      <c r="O226" s="10" t="n"/>
+    </row>
+    <row r="227" ht="12.6" customHeight="1" s="70">
       <c r="A227" s="5" t="n"/>
-      <c r="B227" s="59" t="s">
-        <v>192</v>
+      <c r="B227" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Revaluation of Participations</t>
+        </is>
       </c>
       <c r="C227" s="22" t="n">
         <v>1.5</v>
@@ -10321,12 +10873,17 @@
       <c r="M227" s="22" t="n">
         <v>32142.61385</v>
       </c>
-      <c r="N227" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="228" s="70" spans="1:14">
+      <c r="N227" s="22" t="n">
+        <v>32142.614</v>
+      </c>
+      <c r="O227" s="10" t="n"/>
+    </row>
+    <row r="228" ht="12.6" customHeight="1" s="70">
       <c r="A228" s="5" t="n"/>
-      <c r="B228" s="59" t="s">
-        <v>193</v>
+      <c r="B228" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Provisions for Commodities Recorded   </t>
+        </is>
       </c>
       <c r="C228" s="22" t="n">
         <v>0</v>
@@ -10359,14 +10916,19 @@
         <v>76089.82326</v>
       </c>
       <c r="M228" s="22" t="n">
-        <v>15818.31524</v>
-      </c>
-      <c r="N228" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="229" s="70" spans="1:14">
+        <v>18888.31524</v>
+      </c>
+      <c r="N228" s="22" t="n">
+        <v>18825.754</v>
+      </c>
+      <c r="O228" s="10" t="n"/>
+    </row>
+    <row r="229" ht="12.6" customHeight="1" s="70">
       <c r="A229" s="5" t="n"/>
-      <c r="B229" s="59" t="s">
-        <v>194</v>
+      <c r="B229" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       6- Provisions for Machinery and Equipment  </t>
+        </is>
       </c>
       <c r="C229" s="22" t="n">
         <v>0</v>
@@ -10401,12 +10963,17 @@
       <c r="M229" s="22" t="n">
         <v>0</v>
       </c>
-      <c r="N229" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="230" s="70" spans="1:14">
+      <c r="N229" s="22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O229" s="10" t="n"/>
+    </row>
+    <row r="230" ht="12.6" customHeight="1" s="70">
       <c r="A230" s="5" t="n"/>
-      <c r="B230" s="59" t="s">
-        <v>195</v>
+      <c r="B230" s="59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       7- Other Capital Reserves</t>
+        </is>
       </c>
       <c r="C230" s="22" t="n">
         <v>9307.4632</v>
@@ -10418,7 +10985,7 @@
         <v>22262.15979</v>
       </c>
       <c r="F230" s="21" t="n">
-        <v>90371.43886999998</v>
+        <v>90371.43887</v>
       </c>
       <c r="G230" s="22" t="n">
         <v>96137.83651000001</v>
@@ -10436,23 +11003,28 @@
         <v>116677.93603</v>
       </c>
       <c r="L230" s="22" t="n">
-        <v>93625.31782</v>
+        <v>110383.76964</v>
       </c>
       <c r="M230" s="22" t="n">
         <v>131066.17774</v>
       </c>
-      <c r="N230" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="231" s="70" spans="1:14">
+      <c r="N230" s="22" t="n">
+        <v>120355.841</v>
+      </c>
+      <c r="O230" s="11" t="n"/>
+    </row>
+    <row r="231" ht="12.6" customHeight="1" s="70">
       <c r="A231" s="8" t="n"/>
-      <c r="B231" s="60" t="s">
-        <v>196</v>
+      <c r="B231" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   C- Reserves from Retained Earnings</t>
+        </is>
       </c>
       <c r="C231" s="23" t="n">
         <v>253798.12298</v>
       </c>
       <c r="D231" s="23" t="n">
-        <v>281681.72262</v>
+        <v>281681.7226200001</v>
       </c>
       <c r="E231" s="23" t="n">
         <v>307969.55137</v>
@@ -10464,10 +11036,10 @@
         <v>394768.46572</v>
       </c>
       <c r="H231" s="33" t="n">
-        <v>458984.68823</v>
+        <v>458986.97618</v>
       </c>
       <c r="I231" s="23" t="n">
-        <v>489564.48223</v>
+        <v>489713.13805</v>
       </c>
       <c r="J231" s="33" t="n">
         <v>536369.6108499999</v>
@@ -10476,17 +11048,22 @@
         <v>579818.9636799999</v>
       </c>
       <c r="L231" s="23" t="n">
-        <v>680805.8855600001</v>
+        <v>683406.2233899999</v>
       </c>
       <c r="M231" s="23" t="n">
-        <v>868449.00051</v>
-      </c>
-      <c r="N231" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="232" s="70" spans="1:14">
+        <v>868739.5475899999</v>
+      </c>
+      <c r="N231" s="23" t="n">
+        <v>1184009.652</v>
+      </c>
+      <c r="O231" s="10" t="n"/>
+    </row>
+    <row r="232" ht="12.6" customHeight="1" s="70">
       <c r="A232" s="5" t="n"/>
-      <c r="B232" s="64" t="s">
-        <v>197</v>
+      <c r="B232" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Legal Reserves</t>
+        </is>
       </c>
       <c r="C232" s="22" t="n">
         <v>39998.92593</v>
@@ -10504,29 +11081,34 @@
         <v>51451.35361</v>
       </c>
       <c r="H232" s="21" t="n">
-        <v>54684.27630000001</v>
+        <v>54686.56425</v>
       </c>
       <c r="I232" s="22" t="n">
-        <v>53033.14624</v>
+        <v>53042.19974</v>
       </c>
       <c r="J232" s="21" t="n">
         <v>55615.54134</v>
       </c>
       <c r="K232" s="22" t="n">
-        <v>67240.61549000001</v>
+        <v>67240.61549</v>
       </c>
       <c r="L232" s="22" t="n">
-        <v>79327.25712000001</v>
+        <v>79474.28085000001</v>
       </c>
       <c r="M232" s="22" t="n">
-        <v>97881.24922</v>
-      </c>
-      <c r="N232" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="233" s="70" spans="1:14">
+        <v>97883.60160999998</v>
+      </c>
+      <c r="N232" s="22" t="n">
+        <v>113837.326</v>
+      </c>
+      <c r="O232" s="10" t="n"/>
+    </row>
+    <row r="233" ht="12.6" customHeight="1" s="70">
       <c r="A233" s="5" t="n"/>
-      <c r="B233" s="64" t="s">
-        <v>198</v>
+      <c r="B233" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Reser.Provided for by the Artic.of the Assoc.</t>
+        </is>
       </c>
       <c r="C233" s="22" t="n">
         <v>41057.22636</v>
@@ -10550,10 +11132,10 @@
         <v>668.67364</v>
       </c>
       <c r="J233" s="21" t="n">
-        <v>802.7257900000001</v>
+        <v>802.72579</v>
       </c>
       <c r="K233" s="22" t="n">
-        <v>933.17118</v>
+        <v>933.1711799999999</v>
       </c>
       <c r="L233" s="22" t="n">
         <v>1019.24151</v>
@@ -10561,12 +11143,17 @@
       <c r="M233" s="22" t="n">
         <v>1217.38493</v>
       </c>
-      <c r="N233" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="234" s="70" spans="1:14">
+      <c r="N233" s="22" t="n">
+        <v>1387.701</v>
+      </c>
+      <c r="O233" s="10" t="n"/>
+    </row>
+    <row r="234" ht="12.6" customHeight="1" s="70">
       <c r="A234" s="5" t="n"/>
-      <c r="B234" s="64" t="s">
-        <v>199</v>
+      <c r="B234" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       3- Extraordinary Reserves</t>
+        </is>
       </c>
       <c r="C234" s="22" t="n">
         <v>167522.68199</v>
@@ -10578,7 +11165,7 @@
         <v>246657.70371</v>
       </c>
       <c r="F234" s="21" t="n">
-        <v>282072.1161400001</v>
+        <v>282072.11614</v>
       </c>
       <c r="G234" s="22" t="n">
         <v>220593.66883</v>
@@ -10596,17 +11183,22 @@
         <v>489087.94365</v>
       </c>
       <c r="L234" s="22" t="n">
-        <v>577500.67773</v>
+        <v>579937.3758200001</v>
       </c>
       <c r="M234" s="22" t="n">
-        <v>746433.3819400002</v>
-      </c>
-      <c r="N234" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="235" s="70" spans="1:14">
+        <v>746433.3819400001</v>
+      </c>
+      <c r="N234" s="22" t="n">
+        <v>1044195.942</v>
+      </c>
+      <c r="O234" s="10" t="n"/>
+    </row>
+    <row r="235" ht="12.6" customHeight="1" s="70">
       <c r="A235" s="5" t="n"/>
-      <c r="B235" s="64" t="s">
-        <v>200</v>
+      <c r="B235" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       4- Other Reserves</t>
+        </is>
       </c>
       <c r="C235" s="22" t="n">
         <v>294.66539</v>
@@ -10636,17 +11228,22 @@
         <v>18.39951</v>
       </c>
       <c r="L235" s="22" t="n">
-        <v>14.2835</v>
+        <v>30.89951</v>
       </c>
       <c r="M235" s="22" t="n">
-        <v>14.2835</v>
-      </c>
-      <c r="N235" s="10" t="n"/>
-    </row>
-    <row customHeight="1" ht="12.6" r="236" s="70" spans="1:14">
+        <v>26.7835</v>
+      </c>
+      <c r="N235" s="22" t="n">
+        <v>26.784</v>
+      </c>
+      <c r="O235" s="10" t="n"/>
+    </row>
+    <row r="236" ht="12.6" customHeight="1" s="70">
       <c r="A236" s="5" t="n"/>
-      <c r="B236" s="64" t="s">
-        <v>201</v>
+      <c r="B236" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       5- Special Funds</t>
+        </is>
       </c>
       <c r="C236" s="22" t="n">
         <v>4924.623310000001</v>
@@ -10667,7 +11264,7 @@
         <v>3495.72765</v>
       </c>
       <c r="I236" s="22" t="n">
-        <v>39913.01946</v>
+        <v>40052.62178</v>
       </c>
       <c r="J236" s="21" t="n">
         <v>33514.09987</v>
@@ -10679,14 +11276,19 @@
         <v>22944.4257</v>
       </c>
       <c r="M236" s="22" t="n">
-        <v>22902.70092</v>
-      </c>
-      <c r="N236" s="10" t="n"/>
-    </row>
-    <row r="237" spans="1:14">
+        <v>23178.39561</v>
+      </c>
+      <c r="N236" s="22" t="n">
+        <v>24561.899</v>
+      </c>
+      <c r="O236" s="10" t="n"/>
+    </row>
+    <row r="237">
       <c r="A237" s="5" t="n"/>
-      <c r="B237" s="60" t="s">
-        <v>202</v>
+      <c r="B237" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   D- Profit Brought Forward</t>
+        </is>
       </c>
       <c r="C237" s="23" t="n">
         <v>56558.0927</v>
@@ -10704,10 +11306,10 @@
         <v>134446.03906</v>
       </c>
       <c r="H237" s="33" t="n">
-        <v>230710.2818</v>
+        <v>230769.14342</v>
       </c>
       <c r="I237" s="23" t="n">
-        <v>294827.78529</v>
+        <v>296125.19397</v>
       </c>
       <c r="J237" s="33" t="n">
         <v>355739.94826</v>
@@ -10716,17 +11318,22 @@
         <v>164658.16328</v>
       </c>
       <c r="L237" s="23" t="n">
-        <v>228385.80062</v>
+        <v>229600.28756</v>
       </c>
       <c r="M237" s="23" t="n">
-        <v>241399.41573</v>
-      </c>
-      <c r="N237" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="238" s="70" spans="1:14">
+        <v>243670.97851</v>
+      </c>
+      <c r="N237" s="23" t="n">
+        <v>415851.654</v>
+      </c>
+      <c r="O237" s="11" t="n"/>
+    </row>
+    <row r="238">
       <c r="A238" s="8" t="n"/>
-      <c r="B238" s="57" t="s">
-        <v>203</v>
+      <c r="B238" s="57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   E- Loss Brought Forward (-) </t>
+        </is>
       </c>
       <c r="C238" s="23" t="n">
         <v>-388925.1989</v>
@@ -10738,16 +11345,16 @@
         <v>-428181.99291</v>
       </c>
       <c r="F238" s="33" t="n">
-        <v>-467291.8765700001</v>
+        <v>-467291.87657</v>
       </c>
       <c r="G238" s="23" t="n">
         <v>-435435.41523</v>
       </c>
       <c r="H238" s="33" t="n">
-        <v>-442325.8941799999</v>
+        <v>-442325.89418</v>
       </c>
       <c r="I238" s="23" t="n">
-        <v>-451619.72749</v>
+        <v>-451706.97923</v>
       </c>
       <c r="J238" s="33" t="n">
         <v>-458426.325</v>
@@ -10756,17 +11363,22 @@
         <v>-223362.33345</v>
       </c>
       <c r="L238" s="23" t="n">
-        <v>-246264.57457</v>
+        <v>-248657.03461</v>
       </c>
       <c r="M238" s="23" t="n">
-        <v>-228229.37696</v>
-      </c>
-      <c r="N238" s="11" t="n"/>
-    </row>
-    <row customHeight="1" ht="12" r="239" s="70" spans="1:14">
+        <v>-251743.07722</v>
+      </c>
+      <c r="N238" s="23" t="n">
+        <v>-322501.408</v>
+      </c>
+      <c r="O238" s="11" t="n"/>
+    </row>
+    <row r="239">
       <c r="A239" s="8" t="n"/>
-      <c r="B239" s="60" t="s">
-        <v>204</v>
+      <c r="B239" s="60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   F- Net Profit or Loss for the Financial Year</t>
+        </is>
       </c>
       <c r="C239" s="23" t="n">
         <v>20400.69364</v>
@@ -10775,7 +11387,7 @@
         <v>30620.35801</v>
       </c>
       <c r="E239" s="23" t="n">
-        <v>3797.76178</v>
+        <v>3797.761779999997</v>
       </c>
       <c r="F239" s="33" t="n">
         <v>110583.77394</v>
@@ -10784,10 +11396,10 @@
         <v>166312.43599</v>
       </c>
       <c r="H239" s="33" t="n">
-        <v>206703.67009</v>
+        <v>206883.89813</v>
       </c>
       <c r="I239" s="23" t="n">
-        <v>144000.53968</v>
+        <v>144032.70043</v>
       </c>
       <c r="J239" s="33" t="n">
         <v>143633.57069</v>
@@ -10796,17 +11408,22 @@
         <v>288352.18995</v>
       </c>
       <c r="L239" s="23" t="n">
-        <v>316618.1864299999</v>
+        <v>317188.56919</v>
       </c>
       <c r="M239" s="23" t="n">
-        <v>448334.79237</v>
-      </c>
-      <c r="N239" s="11" t="n"/>
-    </row>
-    <row r="240" spans="1:14">
+        <v>446566.8946400001</v>
+      </c>
+      <c r="N239" s="23" t="n">
+        <v>433202.173</v>
+      </c>
+      <c r="O239" s="11" t="n"/>
+    </row>
+    <row r="240">
       <c r="A240" s="8" t="n"/>
-      <c r="B240" s="64" t="s">
-        <v>205</v>
+      <c r="B240" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       1- Profit for the Financial Year</t>
+        </is>
       </c>
       <c r="C240" s="22" t="n">
         <v>51164.09089</v>
@@ -10815,7 +11432,7 @@
         <v>63258.06608</v>
       </c>
       <c r="E240" s="22" t="n">
-        <v>81309.01281999999</v>
+        <v>81309.01282</v>
       </c>
       <c r="F240" s="21" t="n">
         <v>133816.90889</v>
@@ -10824,10 +11441,10 @@
         <v>192028.47378</v>
       </c>
       <c r="H240" s="21" t="n">
-        <v>221638.95546</v>
+        <v>221819.1835</v>
       </c>
       <c r="I240" s="22" t="n">
-        <v>165137.0766</v>
+        <v>165225.57928</v>
       </c>
       <c r="J240" s="21" t="n">
         <v>171707.95214</v>
@@ -10836,17 +11453,22 @@
         <v>322460.67454</v>
       </c>
       <c r="L240" s="22" t="n">
-        <v>367332.9274</v>
+        <v>368805.65967</v>
       </c>
       <c r="M240" s="22" t="n">
-        <v>484896.9886</v>
-      </c>
-      <c r="N240" s="10" t="n"/>
-    </row>
-    <row r="241" spans="1:14">
+        <v>484983.21083</v>
+      </c>
+      <c r="N240" s="22" t="n">
+        <v>547443.757</v>
+      </c>
+      <c r="O240" s="10" t="n"/>
+    </row>
+    <row r="241">
       <c r="A241" s="5" t="n"/>
-      <c r="B241" s="64" t="s">
-        <v>206</v>
+      <c r="B241" s="64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">       2- Loss for the Financial Year (-)</t>
+        </is>
       </c>
       <c r="C241" s="22" t="n">
         <v>30763.39725</v>
@@ -10867,7 +11489,7 @@
         <v>14935.28537</v>
       </c>
       <c r="I241" s="22" t="n">
-        <v>21136.53692</v>
+        <v>21192.87885</v>
       </c>
       <c r="J241" s="21" t="n">
         <v>28074.38145</v>
@@ -10876,17 +11498,22 @@
         <v>34108.48458999999</v>
       </c>
       <c r="L241" s="22" t="n">
-        <v>50714.74097</v>
+        <v>51617.09048</v>
       </c>
       <c r="M241" s="22" t="n">
-        <v>36562.19622999999</v>
-      </c>
-      <c r="N241" s="10" t="n"/>
-    </row>
-    <row r="242" spans="1:14">
+        <v>38416.31619</v>
+      </c>
+      <c r="N241" s="22" t="n">
+        <v>114241.584</v>
+      </c>
+      <c r="O241" s="10" t="n"/>
+    </row>
+    <row r="242">
       <c r="A242" s="5" t="n"/>
-      <c r="B242" s="57" t="s">
-        <v>207</v>
+      <c r="B242" s="57" t="inlineStr">
+        <is>
+          <t>TOTAL LIABILITIES</t>
+        </is>
       </c>
       <c r="C242" s="47" t="n">
         <v>1622230.82044</v>
@@ -10904,26 +11531,29 @@
         <v>2944108.00447</v>
       </c>
       <c r="H242" s="48" t="n">
-        <v>3220849.108409999</v>
+        <v>3222038.20117</v>
       </c>
       <c r="I242" s="47" t="n">
-        <v>3465744.547910001</v>
+        <v>3476321.00849</v>
       </c>
       <c r="J242" s="48" t="n">
-        <v>3971363.900910001</v>
+        <v>3971363.90091</v>
       </c>
       <c r="K242" s="47" t="n">
-        <v>4671821.62814</v>
+        <v>4671821.628140001</v>
       </c>
       <c r="L242" s="47" t="n">
-        <v>5810367.360110001</v>
+        <v>5854687.797400001</v>
       </c>
       <c r="M242" s="47" t="n">
-        <v>6991591.06501</v>
-      </c>
-      <c r="N242" s="11" t="n"/>
-    </row>
-    <row r="243" spans="1:14">
+        <v>7052950.582330001</v>
+      </c>
+      <c r="N242" s="47" t="n">
+        <v>9300792.560000001</v>
+      </c>
+      <c r="O242" s="11" t="n"/>
+    </row>
+    <row r="243">
       <c r="A243" s="8" t="n"/>
       <c r="B243" s="51" t="n"/>
       <c r="C243" s="50" t="n"/>
@@ -10937,12 +11567,15 @@
       <c r="K243" s="50" t="n"/>
       <c r="L243" s="50" t="n"/>
       <c r="M243" s="50" t="n"/>
-      <c r="N243" s="10" t="n"/>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="N243" s="50" t="n"/>
+      <c r="O243" s="10" t="n"/>
+    </row>
+    <row r="244">
       <c r="A244" s="5" t="n"/>
-      <c r="B244" s="69" t="s">
-        <v>208</v>
+      <c r="B244" s="69" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C244" s="52" t="n">
         <v>288</v>
@@ -10960,10 +11593,10 @@
         <v>273</v>
       </c>
       <c r="H244" s="53" t="n">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="I244" s="52" t="n">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="J244" s="53" t="n">
         <v>264</v>
@@ -10972,14 +11605,17 @@
         <v>273</v>
       </c>
       <c r="L244" s="52" t="n">
-        <v>253</v>
+        <v>284</v>
       </c>
       <c r="M244" s="52" t="n">
-        <v>257</v>
-      </c>
-      <c r="N244" s="12" t="n"/>
-    </row>
-    <row r="245" spans="1:14">
+        <v>297</v>
+      </c>
+      <c r="N244" s="52" t="n">
+        <v>325</v>
+      </c>
+      <c r="O244" s="12" t="n"/>
+    </row>
+    <row r="245">
       <c r="A245" s="12" t="n"/>
       <c r="B245" s="54" t="n"/>
       <c r="C245" s="54" t="n"/>
@@ -10993,288 +11629,289 @@
       <c r="K245" s="54" t="n"/>
       <c r="L245" s="54" t="n"/>
       <c r="M245" s="54" t="n"/>
-      <c r="N245" s="10" t="n"/>
-    </row>
-    <row hidden="1" r="246" s="70" spans="1:14"/>
-    <row hidden="1" r="247" s="70" spans="1:14"/>
-    <row hidden="1" r="248" s="70" spans="1:14"/>
-    <row hidden="1" r="249" s="70" spans="1:14"/>
-    <row hidden="1" r="250" s="70" spans="1:14"/>
-    <row hidden="1" r="251" s="70" spans="1:14"/>
-    <row hidden="1" r="252" s="70" spans="1:14"/>
-    <row hidden="1" r="253" s="70" spans="1:14"/>
-    <row hidden="1" r="254" s="70" spans="1:14"/>
-    <row hidden="1" r="255" s="70" spans="1:14"/>
-    <row hidden="1" r="256" s="70" spans="1:14"/>
-    <row hidden="1" r="257" s="70" spans="1:14"/>
-    <row hidden="1" r="258" s="70" spans="1:14"/>
-    <row hidden="1" r="259" s="70" spans="1:14"/>
-    <row hidden="1" r="260" s="70" spans="1:14"/>
-    <row hidden="1" r="261" s="70" spans="1:14"/>
-    <row hidden="1" r="262" s="70" spans="1:14"/>
-    <row hidden="1" r="263" s="70" spans="1:14"/>
-    <row hidden="1" r="264" s="70" spans="1:14"/>
-    <row hidden="1" r="265" s="70" spans="1:14"/>
-    <row hidden="1" r="266" s="70" spans="1:14"/>
-    <row hidden="1" r="267" s="70" spans="1:14"/>
-    <row hidden="1" r="268" s="70" spans="1:14"/>
-    <row hidden="1" r="269" s="70" spans="1:14"/>
-    <row hidden="1" r="270" s="70" spans="1:14"/>
-    <row hidden="1" r="271" s="70" spans="1:14"/>
-    <row hidden="1" r="272" s="70" spans="1:14"/>
-    <row hidden="1" r="273" s="70" spans="1:14"/>
-    <row hidden="1" r="274" s="70" spans="1:14"/>
-    <row hidden="1" r="275" s="70" spans="1:14"/>
-    <row hidden="1" r="276" s="70" spans="1:14"/>
-    <row hidden="1" r="277" s="70" spans="1:14"/>
-    <row hidden="1" r="278" s="70" spans="1:14"/>
-    <row hidden="1" r="279" s="70" spans="1:14"/>
-    <row hidden="1" r="280" s="70" spans="1:14"/>
-    <row hidden="1" r="281" s="70" spans="1:14"/>
-    <row hidden="1" r="282" s="70" spans="1:14"/>
-    <row hidden="1" r="283" s="70" spans="1:14"/>
-    <row hidden="1" r="284" s="70" spans="1:14"/>
-    <row hidden="1" r="285" s="70" spans="1:14"/>
-    <row hidden="1" r="286" s="70" spans="1:14"/>
-    <row hidden="1" r="287" s="70" spans="1:14"/>
-    <row hidden="1" r="288" s="70" spans="1:14"/>
-    <row hidden="1" r="289" s="70" spans="1:14"/>
-    <row hidden="1" r="290" s="70" spans="1:14"/>
-    <row hidden="1" r="291" s="70" spans="1:14"/>
-    <row hidden="1" r="292" s="70" spans="1:14"/>
-    <row hidden="1" r="293" s="70" spans="1:14"/>
-    <row hidden="1" r="294" s="70" spans="1:14"/>
-    <row hidden="1" r="295" s="70" spans="1:14"/>
-    <row hidden="1" r="296" s="70" spans="1:14"/>
-    <row hidden="1" r="297" s="70" spans="1:14"/>
-    <row hidden="1" r="298" s="70" spans="1:14"/>
-    <row hidden="1" r="299" s="70" spans="1:14"/>
-    <row hidden="1" r="300" s="70" spans="1:14"/>
-    <row hidden="1" r="301" s="70" spans="1:14"/>
-    <row hidden="1" r="302" s="70" spans="1:14"/>
-    <row hidden="1" r="303" s="70" spans="1:14"/>
-    <row hidden="1" r="304" s="70" spans="1:14"/>
-    <row hidden="1" r="305" s="70" spans="1:14"/>
-    <row hidden="1" r="306" s="70" spans="1:14"/>
-    <row hidden="1" r="307" s="70" spans="1:14"/>
-    <row hidden="1" r="308" s="70" spans="1:14"/>
-    <row hidden="1" r="309" s="70" spans="1:14"/>
-    <row hidden="1" r="310" s="70" spans="1:14"/>
-    <row hidden="1" r="311" s="70" spans="1:14"/>
-    <row hidden="1" r="312" s="70" spans="1:14"/>
-    <row hidden="1" r="313" s="70" spans="1:14"/>
-    <row hidden="1" r="314" s="70" spans="1:14"/>
-    <row hidden="1" r="315" s="70" spans="1:14"/>
-    <row hidden="1" r="316" s="70" spans="1:14"/>
-    <row hidden="1" r="317" s="70" spans="1:14"/>
-    <row hidden="1" r="318" s="70" spans="1:14"/>
-    <row hidden="1" r="319" s="70" spans="1:14"/>
-    <row hidden="1" r="320" s="70" spans="1:14"/>
-    <row hidden="1" r="321" s="70" spans="1:14"/>
-    <row hidden="1" r="322" s="70" spans="1:14"/>
-    <row hidden="1" r="323" s="70" spans="1:14"/>
-    <row hidden="1" r="324" s="70" spans="1:14"/>
-    <row hidden="1" r="325" s="70" spans="1:14"/>
-    <row hidden="1" r="326" s="70" spans="1:14"/>
-    <row hidden="1" r="327" s="70" spans="1:14"/>
-    <row hidden="1" r="328" s="70" spans="1:14"/>
-    <row hidden="1" r="329" s="70" spans="1:14"/>
-    <row hidden="1" r="330" s="70" spans="1:14"/>
-    <row hidden="1" r="331" s="70" spans="1:14"/>
-    <row hidden="1" r="332" s="70" spans="1:14"/>
-    <row hidden="1" r="333" s="70" spans="1:14"/>
-    <row hidden="1" r="334" s="70" spans="1:14"/>
-    <row hidden="1" r="335" s="70" spans="1:14"/>
-    <row hidden="1" r="336" s="70" spans="1:14"/>
-    <row hidden="1" r="337" s="70" spans="1:14"/>
-    <row hidden="1" r="338" s="70" spans="1:14"/>
-    <row hidden="1" r="339" s="70" spans="1:14"/>
-    <row hidden="1" r="340" s="70" spans="1:14"/>
-    <row hidden="1" r="341" s="70" spans="1:14"/>
-    <row hidden="1" r="342" s="70" spans="1:14"/>
-    <row hidden="1" r="343" s="70" spans="1:14"/>
-    <row hidden="1" r="344" s="70" spans="1:14"/>
-    <row hidden="1" r="345" s="70" spans="1:14"/>
-    <row hidden="1" r="346" s="70" spans="1:14"/>
-    <row hidden="1" r="347" s="70" spans="1:14"/>
-    <row hidden="1" r="348" s="70" spans="1:14"/>
-    <row hidden="1" r="349" s="70" spans="1:14"/>
-    <row hidden="1" r="350" s="70" spans="1:14"/>
-    <row hidden="1" r="351" s="70" spans="1:14"/>
-    <row hidden="1" r="352" s="70" spans="1:14"/>
-    <row hidden="1" r="353" s="70" spans="1:14"/>
-    <row hidden="1" r="354" s="70" spans="1:14"/>
-    <row hidden="1" r="355" s="70" spans="1:14"/>
-    <row hidden="1" r="356" s="70" spans="1:14"/>
-    <row hidden="1" r="357" s="70" spans="1:14"/>
-    <row hidden="1" r="358" s="70" spans="1:14"/>
-    <row hidden="1" r="359" s="70" spans="1:14"/>
-    <row hidden="1" r="360" s="70" spans="1:14"/>
-    <row hidden="1" r="361" s="70" spans="1:14"/>
-    <row hidden="1" r="362" s="70" spans="1:14"/>
-    <row hidden="1" r="363" s="70" spans="1:14"/>
-    <row hidden="1" r="364" s="70" spans="1:14"/>
-    <row hidden="1" r="365" s="70" spans="1:14"/>
-    <row hidden="1" r="366" s="70" spans="1:14"/>
-    <row hidden="1" r="367" s="70" spans="1:14"/>
-    <row hidden="1" r="368" s="70" spans="1:14"/>
-    <row hidden="1" r="369" s="70" spans="1:14"/>
-    <row hidden="1" r="370" s="70" spans="1:14"/>
-    <row hidden="1" r="371" s="70" spans="1:14"/>
-    <row hidden="1" r="372" s="70" spans="1:14"/>
-    <row hidden="1" r="373" s="70" spans="1:14"/>
-    <row hidden="1" r="374" s="70" spans="1:14"/>
-    <row hidden="1" r="375" s="70" spans="1:14"/>
-    <row hidden="1" r="376" s="70" spans="1:14"/>
-    <row hidden="1" r="377" s="70" spans="1:14"/>
-    <row hidden="1" r="378" s="70" spans="1:14"/>
-    <row hidden="1" r="379" s="70" spans="1:14"/>
-    <row hidden="1" r="380" s="70" spans="1:14"/>
-    <row hidden="1" r="381" s="70" spans="1:14"/>
-    <row hidden="1" r="382" s="70" spans="1:14"/>
-    <row hidden="1" r="383" s="70" spans="1:14"/>
-    <row hidden="1" r="384" s="70" spans="1:14"/>
-    <row hidden="1" r="385" s="70" spans="1:14"/>
-    <row hidden="1" r="386" s="70" spans="1:14"/>
-    <row hidden="1" r="387" s="70" spans="1:14"/>
-    <row hidden="1" r="388" s="70" spans="1:14"/>
-    <row hidden="1" r="389" s="70" spans="1:14"/>
-    <row hidden="1" r="390" s="70" spans="1:14"/>
-    <row hidden="1" r="391" s="70" spans="1:14"/>
-    <row hidden="1" r="392" s="70" spans="1:14"/>
-    <row hidden="1" r="393" s="70" spans="1:14"/>
-    <row hidden="1" r="394" s="70" spans="1:14"/>
-    <row hidden="1" r="395" s="70" spans="1:14"/>
-    <row hidden="1" r="396" s="70" spans="1:14"/>
-    <row hidden="1" r="397" s="70" spans="1:14"/>
-    <row hidden="1" r="398" s="70" spans="1:14"/>
-    <row hidden="1" r="399" s="70" spans="1:14"/>
-    <row hidden="1" r="400" s="70" spans="1:14"/>
-    <row hidden="1" r="401" s="70" spans="1:14"/>
-    <row hidden="1" r="402" s="70" spans="1:14"/>
-    <row hidden="1" r="403" s="70" spans="1:14"/>
-    <row hidden="1" r="404" s="70" spans="1:14"/>
-    <row hidden="1" r="405" s="70" spans="1:14"/>
-    <row hidden="1" r="406" s="70" spans="1:14"/>
-    <row hidden="1" r="407" s="70" spans="1:14"/>
-    <row hidden="1" r="408" s="70" spans="1:14"/>
-    <row hidden="1" r="409" s="70" spans="1:14"/>
-    <row hidden="1" r="410" s="70" spans="1:14"/>
-    <row hidden="1" r="411" s="70" spans="1:14"/>
-    <row hidden="1" r="412" s="70" spans="1:14"/>
-    <row hidden="1" r="413" s="70" spans="1:14"/>
-    <row hidden="1" r="414" s="70" spans="1:14"/>
-    <row hidden="1" r="415" s="70" spans="1:14"/>
-    <row hidden="1" r="416" s="70" spans="1:14"/>
-    <row hidden="1" r="417" s="70" spans="1:14"/>
-    <row hidden="1" r="418" s="70" spans="1:14"/>
-    <row hidden="1" r="419" s="70" spans="1:14"/>
-    <row hidden="1" r="420" s="70" spans="1:14"/>
-    <row hidden="1" r="421" s="70" spans="1:14"/>
-    <row hidden="1" r="422" s="70" spans="1:14"/>
-    <row hidden="1" r="423" s="70" spans="1:14"/>
-    <row hidden="1" r="424" s="70" spans="1:14"/>
-    <row hidden="1" r="425" s="70" spans="1:14"/>
-    <row hidden="1" r="426" s="70" spans="1:14"/>
-    <row hidden="1" r="427" s="70" spans="1:14"/>
-    <row hidden="1" r="428" s="70" spans="1:14"/>
-    <row hidden="1" r="429" s="70" spans="1:14"/>
-    <row hidden="1" r="430" s="70" spans="1:14"/>
-    <row hidden="1" r="431" s="70" spans="1:14"/>
-    <row hidden="1" r="432" s="70" spans="1:14"/>
-    <row hidden="1" r="433" s="70" spans="1:14"/>
-    <row hidden="1" r="434" s="70" spans="1:14"/>
-    <row hidden="1" r="435" s="70" spans="1:14"/>
-    <row hidden="1" r="436" s="70" spans="1:14"/>
-    <row hidden="1" r="437" s="70" spans="1:14"/>
-    <row hidden="1" r="438" s="70" spans="1:14"/>
-    <row hidden="1" r="439" s="70" spans="1:14"/>
-    <row hidden="1" r="440" s="70" spans="1:14"/>
-    <row hidden="1" r="441" s="70" spans="1:14"/>
-    <row hidden="1" r="442" s="70" spans="1:14"/>
-    <row hidden="1" r="443" s="70" spans="1:14"/>
-    <row hidden="1" r="444" s="70" spans="1:14"/>
-    <row hidden="1" r="445" s="70" spans="1:14"/>
-    <row hidden="1" r="446" s="70" spans="1:14"/>
-    <row hidden="1" r="447" s="70" spans="1:14"/>
-    <row hidden="1" r="448" s="70" spans="1:14"/>
-    <row hidden="1" r="449" s="70" spans="1:14"/>
-    <row hidden="1" r="450" s="70" spans="1:14"/>
-    <row hidden="1" r="451" s="70" spans="1:14"/>
-    <row hidden="1" r="452" s="70" spans="1:14"/>
-    <row hidden="1" r="453" s="70" spans="1:14"/>
-    <row hidden="1" r="454" s="70" spans="1:14"/>
-    <row hidden="1" r="455" s="70" spans="1:14"/>
-    <row hidden="1" r="456" s="70" spans="1:14"/>
-    <row hidden="1" r="457" s="70" spans="1:14"/>
-    <row hidden="1" r="458" s="70" spans="1:14"/>
-    <row hidden="1" r="459" s="70" spans="1:14"/>
-    <row hidden="1" r="460" s="70" spans="1:14"/>
-    <row hidden="1" r="461" s="70" spans="1:14"/>
-    <row hidden="1" r="462" s="70" spans="1:14"/>
-    <row hidden="1" r="463" s="70" spans="1:14"/>
-    <row hidden="1" r="464" s="70" spans="1:14"/>
-    <row hidden="1" r="465" s="70" spans="1:14"/>
-    <row hidden="1" r="466" s="70" spans="1:14"/>
-    <row hidden="1" r="467" s="70" spans="1:14"/>
-    <row hidden="1" r="468" s="70" spans="1:14"/>
-    <row hidden="1" r="469" s="70" spans="1:14"/>
-    <row hidden="1" r="470" s="70" spans="1:14"/>
-    <row hidden="1" r="471" s="70" spans="1:14"/>
-    <row hidden="1" r="472" s="70" spans="1:14"/>
-    <row hidden="1" r="473" s="70" spans="1:14"/>
-    <row hidden="1" r="474" s="70" spans="1:14"/>
-    <row hidden="1" r="475" s="70" spans="1:14"/>
-    <row hidden="1" r="476" s="70" spans="1:14"/>
-    <row hidden="1" r="477" s="70" spans="1:14"/>
-    <row hidden="1" r="478" s="70" spans="1:14"/>
-    <row hidden="1" r="479" s="70" spans="1:14"/>
-    <row hidden="1" r="480" s="70" spans="1:14"/>
-    <row hidden="1" r="481" s="70" spans="1:14"/>
-    <row hidden="1" r="482" s="70" spans="1:14"/>
-    <row hidden="1" r="483" s="70" spans="1:14"/>
-    <row hidden="1" r="484" s="70" spans="1:14"/>
-    <row hidden="1" r="485" s="70" spans="1:14"/>
-    <row hidden="1" r="486" s="70" spans="1:14"/>
-    <row hidden="1" r="487" s="70" spans="1:14"/>
-    <row hidden="1" r="488" s="70" spans="1:14"/>
-    <row hidden="1" r="489" s="70" spans="1:14"/>
-    <row hidden="1" r="490" s="70" spans="1:14"/>
-    <row hidden="1" r="491" s="70" spans="1:14"/>
-    <row hidden="1" r="492" s="70" spans="1:14"/>
-    <row hidden="1" r="493" s="70" spans="1:14"/>
-    <row hidden="1" r="494" s="70" spans="1:14"/>
-    <row hidden="1" r="495" s="70" spans="1:14"/>
-    <row hidden="1" r="496" s="70" spans="1:14"/>
-    <row hidden="1" r="497" s="70" spans="1:14"/>
-    <row hidden="1" r="498" s="70" spans="1:14"/>
-    <row hidden="1" r="499" s="70" spans="1:14"/>
-    <row hidden="1" r="500" s="70" spans="1:14"/>
-    <row hidden="1" r="501" s="70" spans="1:14"/>
-    <row hidden="1" r="502" s="70" spans="1:14"/>
-    <row hidden="1" r="503" s="70" spans="1:14"/>
-    <row hidden="1" r="504" s="70" spans="1:14"/>
-    <row hidden="1" r="505" s="70" spans="1:14"/>
-    <row hidden="1" r="506" s="70" spans="1:14"/>
-    <row hidden="1" r="507" s="70" spans="1:14"/>
-    <row hidden="1" r="508" s="70" spans="1:14"/>
-    <row hidden="1" r="509" s="70" spans="1:14"/>
-    <row hidden="1" r="510" s="70" spans="1:14"/>
-    <row hidden="1" r="511" s="70" spans="1:14"/>
-    <row hidden="1" r="512" s="70" spans="1:14"/>
-    <row hidden="1" r="513" s="70" spans="1:14"/>
-    <row hidden="1" r="514" s="70" spans="1:14"/>
-    <row hidden="1" r="515" s="70" spans="1:14"/>
-    <row hidden="1" r="516" s="70" spans="1:14"/>
-    <row hidden="1" r="517" s="70" spans="1:14"/>
-    <row hidden="1" r="518" s="70" spans="1:14"/>
-    <row hidden="1" r="519" s="70" spans="1:14"/>
-    <row hidden="1" r="520" s="70" spans="1:14"/>
-    <row hidden="1" r="521" s="70" spans="1:14"/>
-    <row hidden="1" r="522" s="70" spans="1:14"/>
+      <c r="N245" s="54" t="n"/>
+      <c r="O245" s="10" t="n"/>
+    </row>
+    <row r="246" hidden="1" s="70"/>
+    <row r="247" hidden="1" s="70"/>
+    <row r="248" hidden="1" s="70"/>
+    <row r="249" hidden="1" s="70"/>
+    <row r="250" hidden="1" s="70"/>
+    <row r="251" hidden="1" s="70"/>
+    <row r="252" hidden="1" s="70"/>
+    <row r="253" hidden="1" s="70"/>
+    <row r="254" hidden="1" s="70"/>
+    <row r="255" hidden="1" s="70"/>
+    <row r="256" hidden="1" s="70"/>
+    <row r="257" hidden="1" s="70"/>
+    <row r="258" hidden="1" s="70"/>
+    <row r="259" hidden="1" s="70"/>
+    <row r="260" hidden="1" s="70"/>
+    <row r="261" hidden="1" s="70"/>
+    <row r="262" hidden="1" s="70"/>
+    <row r="263" hidden="1" s="70"/>
+    <row r="264" hidden="1" s="70"/>
+    <row r="265" hidden="1" s="70"/>
+    <row r="266" hidden="1" s="70"/>
+    <row r="267" hidden="1" s="70"/>
+    <row r="268" hidden="1" s="70"/>
+    <row r="269" hidden="1" s="70"/>
+    <row r="270" hidden="1" s="70"/>
+    <row r="271" hidden="1" s="70"/>
+    <row r="272" hidden="1" s="70"/>
+    <row r="273" hidden="1" s="70"/>
+    <row r="274" hidden="1" s="70"/>
+    <row r="275" hidden="1" s="70"/>
+    <row r="276" hidden="1" s="70"/>
+    <row r="277" hidden="1" s="70"/>
+    <row r="278" hidden="1" s="70"/>
+    <row r="279" hidden="1" s="70"/>
+    <row r="280" hidden="1" s="70"/>
+    <row r="281" hidden="1" s="70"/>
+    <row r="282" hidden="1" s="70"/>
+    <row r="283" hidden="1" s="70"/>
+    <row r="284" hidden="1" s="70"/>
+    <row r="285" hidden="1" s="70"/>
+    <row r="286" hidden="1" s="70"/>
+    <row r="287" hidden="1" s="70"/>
+    <row r="288" hidden="1" s="70"/>
+    <row r="289" hidden="1" s="70"/>
+    <row r="290" hidden="1" s="70"/>
+    <row r="291" hidden="1" s="70"/>
+    <row r="292" hidden="1" s="70"/>
+    <row r="293" hidden="1" s="70"/>
+    <row r="294" hidden="1" s="70"/>
+    <row r="295" hidden="1" s="70"/>
+    <row r="296" hidden="1" s="70"/>
+    <row r="297" hidden="1" s="70"/>
+    <row r="298" hidden="1" s="70"/>
+    <row r="299" hidden="1" s="70"/>
+    <row r="300" hidden="1" s="70"/>
+    <row r="301" hidden="1" s="70"/>
+    <row r="302" hidden="1" s="70"/>
+    <row r="303" hidden="1" s="70"/>
+    <row r="304" hidden="1" s="70"/>
+    <row r="305" hidden="1" s="70"/>
+    <row r="306" hidden="1" s="70"/>
+    <row r="307" hidden="1" s="70"/>
+    <row r="308" hidden="1" s="70"/>
+    <row r="309" hidden="1" s="70"/>
+    <row r="310" hidden="1" s="70"/>
+    <row r="311" hidden="1" s="70"/>
+    <row r="312" hidden="1" s="70"/>
+    <row r="313" hidden="1" s="70"/>
+    <row r="314" hidden="1" s="70"/>
+    <row r="315" hidden="1" s="70"/>
+    <row r="316" hidden="1" s="70"/>
+    <row r="317" hidden="1" s="70"/>
+    <row r="318" hidden="1" s="70"/>
+    <row r="319" hidden="1" s="70"/>
+    <row r="320" hidden="1" s="70"/>
+    <row r="321" hidden="1" s="70"/>
+    <row r="322" hidden="1" s="70"/>
+    <row r="323" hidden="1" s="70"/>
+    <row r="324" hidden="1" s="70"/>
+    <row r="325" hidden="1" s="70"/>
+    <row r="326" hidden="1" s="70"/>
+    <row r="327" hidden="1" s="70"/>
+    <row r="328" hidden="1" s="70"/>
+    <row r="329" hidden="1" s="70"/>
+    <row r="330" hidden="1" s="70"/>
+    <row r="331" hidden="1" s="70"/>
+    <row r="332" hidden="1" s="70"/>
+    <row r="333" hidden="1" s="70"/>
+    <row r="334" hidden="1" s="70"/>
+    <row r="335" hidden="1" s="70"/>
+    <row r="336" hidden="1" s="70"/>
+    <row r="337" hidden="1" s="70"/>
+    <row r="338" hidden="1" s="70"/>
+    <row r="339" hidden="1" s="70"/>
+    <row r="340" hidden="1" s="70"/>
+    <row r="341" hidden="1" s="70"/>
+    <row r="342" hidden="1" s="70"/>
+    <row r="343" hidden="1" s="70"/>
+    <row r="344" hidden="1" s="70"/>
+    <row r="345" hidden="1" s="70"/>
+    <row r="346" hidden="1" s="70"/>
+    <row r="347" hidden="1" s="70"/>
+    <row r="348" hidden="1" s="70"/>
+    <row r="349" hidden="1" s="70"/>
+    <row r="350" hidden="1" s="70"/>
+    <row r="351" hidden="1" s="70"/>
+    <row r="352" hidden="1" s="70"/>
+    <row r="353" hidden="1" s="70"/>
+    <row r="354" hidden="1" s="70"/>
+    <row r="355" hidden="1" s="70"/>
+    <row r="356" hidden="1" s="70"/>
+    <row r="357" hidden="1" s="70"/>
+    <row r="358" hidden="1" s="70"/>
+    <row r="359" hidden="1" s="70"/>
+    <row r="360" hidden="1" s="70"/>
+    <row r="361" hidden="1" s="70"/>
+    <row r="362" hidden="1" s="70"/>
+    <row r="363" hidden="1" s="70"/>
+    <row r="364" hidden="1" s="70"/>
+    <row r="365" hidden="1" s="70"/>
+    <row r="366" hidden="1" s="70"/>
+    <row r="367" hidden="1" s="70"/>
+    <row r="368" hidden="1" s="70"/>
+    <row r="369" hidden="1" s="70"/>
+    <row r="370" hidden="1" s="70"/>
+    <row r="371" hidden="1" s="70"/>
+    <row r="372" hidden="1" s="70"/>
+    <row r="373" hidden="1" s="70"/>
+    <row r="374" hidden="1" s="70"/>
+    <row r="375" hidden="1" s="70"/>
+    <row r="376" hidden="1" s="70"/>
+    <row r="377" hidden="1" s="70"/>
+    <row r="378" hidden="1" s="70"/>
+    <row r="379" hidden="1" s="70"/>
+    <row r="380" hidden="1" s="70"/>
+    <row r="381" hidden="1" s="70"/>
+    <row r="382" hidden="1" s="70"/>
+    <row r="383" hidden="1" s="70"/>
+    <row r="384" hidden="1" s="70"/>
+    <row r="385" hidden="1" s="70"/>
+    <row r="386" hidden="1" s="70"/>
+    <row r="387" hidden="1" s="70"/>
+    <row r="388" hidden="1" s="70"/>
+    <row r="389" hidden="1" s="70"/>
+    <row r="390" hidden="1" s="70"/>
+    <row r="391" hidden="1" s="70"/>
+    <row r="392" hidden="1" s="70"/>
+    <row r="393" hidden="1" s="70"/>
+    <row r="394" hidden="1" s="70"/>
+    <row r="395" hidden="1" s="70"/>
+    <row r="396" hidden="1" s="70"/>
+    <row r="397" hidden="1" s="70"/>
+    <row r="398" hidden="1" s="70"/>
+    <row r="399" hidden="1" s="70"/>
+    <row r="400" hidden="1" s="70"/>
+    <row r="401" hidden="1" s="70"/>
+    <row r="402" hidden="1" s="70"/>
+    <row r="403" hidden="1" s="70"/>
+    <row r="404" hidden="1" s="70"/>
+    <row r="405" hidden="1" s="70"/>
+    <row r="406" hidden="1" s="70"/>
+    <row r="407" hidden="1" s="70"/>
+    <row r="408" hidden="1" s="70"/>
+    <row r="409" hidden="1" s="70"/>
+    <row r="410" hidden="1" s="70"/>
+    <row r="411" hidden="1" s="70"/>
+    <row r="412" hidden="1" s="70"/>
+    <row r="413" hidden="1" s="70"/>
+    <row r="414" hidden="1" s="70"/>
+    <row r="415" hidden="1" s="70"/>
+    <row r="416" hidden="1" s="70"/>
+    <row r="417" hidden="1" s="70"/>
+    <row r="418" hidden="1" s="70"/>
+    <row r="419" hidden="1" s="70"/>
+    <row r="420" hidden="1" s="70"/>
+    <row r="421" hidden="1" s="70"/>
+    <row r="422" hidden="1" s="70"/>
+    <row r="423" hidden="1" s="70"/>
+    <row r="424" hidden="1" s="70"/>
+    <row r="425" hidden="1" s="70"/>
+    <row r="426" hidden="1" s="70"/>
+    <row r="427" hidden="1" s="70"/>
+    <row r="428" hidden="1" s="70"/>
+    <row r="429" hidden="1" s="70"/>
+    <row r="430" hidden="1" s="70"/>
+    <row r="431" hidden="1" s="70"/>
+    <row r="432" hidden="1" s="70"/>
+    <row r="433" hidden="1" s="70"/>
+    <row r="434" hidden="1" s="70"/>
+    <row r="435" hidden="1" s="70"/>
+    <row r="436" hidden="1" s="70"/>
+    <row r="437" hidden="1" s="70"/>
+    <row r="438" hidden="1" s="70"/>
+    <row r="439" hidden="1" s="70"/>
+    <row r="440" hidden="1" s="70"/>
+    <row r="441" hidden="1" s="70"/>
+    <row r="442" hidden="1" s="70"/>
+    <row r="443" hidden="1" s="70"/>
+    <row r="444" hidden="1" s="70"/>
+    <row r="445" hidden="1" s="70"/>
+    <row r="446" hidden="1" s="70"/>
+    <row r="447" hidden="1" s="70"/>
+    <row r="448" hidden="1" s="70"/>
+    <row r="449" hidden="1" s="70"/>
+    <row r="450" hidden="1" s="70"/>
+    <row r="451" hidden="1" s="70"/>
+    <row r="452" hidden="1" s="70"/>
+    <row r="453" hidden="1" s="70"/>
+    <row r="454" hidden="1" s="70"/>
+    <row r="455" hidden="1" s="70"/>
+    <row r="456" hidden="1" s="70"/>
+    <row r="457" hidden="1" s="70"/>
+    <row r="458" hidden="1" s="70"/>
+    <row r="459" hidden="1" s="70"/>
+    <row r="460" hidden="1" s="70"/>
+    <row r="461" hidden="1" s="70"/>
+    <row r="462" hidden="1" s="70"/>
+    <row r="463" hidden="1" s="70"/>
+    <row r="464" hidden="1" s="70"/>
+    <row r="465" hidden="1" s="70"/>
+    <row r="466" hidden="1" s="70"/>
+    <row r="467" hidden="1" s="70"/>
+    <row r="468" hidden="1" s="70"/>
+    <row r="469" hidden="1" s="70"/>
+    <row r="470" hidden="1" s="70"/>
+    <row r="471" hidden="1" s="70"/>
+    <row r="472" hidden="1" s="70"/>
+    <row r="473" hidden="1" s="70"/>
+    <row r="474" hidden="1" s="70"/>
+    <row r="475" hidden="1" s="70"/>
+    <row r="476" hidden="1" s="70"/>
+    <row r="477" hidden="1" s="70"/>
+    <row r="478" hidden="1" s="70"/>
+    <row r="479" hidden="1" s="70"/>
+    <row r="480" hidden="1" s="70"/>
+    <row r="481" hidden="1" s="70"/>
+    <row r="482" hidden="1" s="70"/>
+    <row r="483" hidden="1" s="70"/>
+    <row r="484" hidden="1" s="70"/>
+    <row r="485" hidden="1" s="70"/>
+    <row r="486" hidden="1" s="70"/>
+    <row r="487" hidden="1" s="70"/>
+    <row r="488" hidden="1" s="70"/>
+    <row r="489" hidden="1" s="70"/>
+    <row r="490" hidden="1" s="70"/>
+    <row r="491" hidden="1" s="70"/>
+    <row r="492" hidden="1" s="70"/>
+    <row r="493" hidden="1" s="70"/>
+    <row r="494" hidden="1" s="70"/>
+    <row r="495" hidden="1" s="70"/>
+    <row r="496" hidden="1" s="70"/>
+    <row r="497" hidden="1" s="70"/>
+    <row r="498" hidden="1" s="70"/>
+    <row r="499" hidden="1" s="70"/>
+    <row r="500" hidden="1" s="70"/>
+    <row r="501" hidden="1" s="70"/>
+    <row r="502" hidden="1" s="70"/>
+    <row r="503" hidden="1" s="70"/>
+    <row r="504" hidden="1" s="70"/>
+    <row r="505" hidden="1" s="70"/>
+    <row r="506" hidden="1" s="70"/>
+    <row r="507" hidden="1" s="70"/>
+    <row r="508" hidden="1" s="70"/>
+    <row r="509" hidden="1" s="70"/>
+    <row r="510" hidden="1" s="70"/>
+    <row r="511" hidden="1" s="70"/>
+    <row r="512" hidden="1" s="70"/>
+    <row r="513" hidden="1" s="70"/>
+    <row r="514" hidden="1" s="70"/>
+    <row r="515" hidden="1" s="70"/>
+    <row r="516" hidden="1" s="70"/>
+    <row r="517" hidden="1" s="70"/>
+    <row r="518" hidden="1" s="70"/>
+    <row r="519" hidden="1" s="70"/>
+    <row r="520" hidden="1" s="70"/>
+    <row r="521" hidden="1" s="70"/>
+    <row r="522" hidden="1" s="70"/>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="29" verticalDpi="300"/>
+  <pageMargins left="0.6299212598425197" right="0.2755905511811024" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="29" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>